--- a/EM KẾ TOÁN .xlsx
+++ b/EM KẾ TOÁN .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A761FE52-9CE2-4EF8-8BBB-D534D0FC6F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F006EF-4AC2-4480-8CB5-5DD89C139E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29985" yWindow="3825" windowWidth="14955" windowHeight="11385" firstSheet="14" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38955" yWindow="1590" windowWidth="14400" windowHeight="11385" firstSheet="18" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tháng4" sheetId="2" r:id="rId1"/>
@@ -31,8 +31,10 @@
     <sheet name="Tháng_8_22" sheetId="18" r:id="rId16"/>
     <sheet name="Tháng_9_22" sheetId="19" r:id="rId17"/>
     <sheet name="Tháng_10_22" sheetId="20" r:id="rId18"/>
-    <sheet name="Phân tích" sheetId="1" r:id="rId19"/>
-    <sheet name="Phong bì" sheetId="15" r:id="rId20"/>
+    <sheet name="Tháng_11_22" sheetId="21" r:id="rId19"/>
+    <sheet name="Phân tích" sheetId="1" r:id="rId20"/>
+    <sheet name="Tiết kiệm" sheetId="22" r:id="rId21"/>
+    <sheet name="Phong bì" sheetId="15" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,14 +47,14 @@
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId21" roundtripDataSignature="AMtx7mj6XPDsJvypGO3puwhUzgbakyIu7w=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId23" roundtripDataSignature="AMtx7mj6XPDsJvypGO3puwhUzgbakyIu7w=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="250">
   <si>
     <t>Money</t>
   </si>
@@ -730,16 +732,89 @@
   </si>
   <si>
     <t>Phí</t>
+  </si>
+  <si>
+    <t>nap the</t>
+  </si>
+  <si>
+    <t>Ăn lẩu</t>
+  </si>
+  <si>
+    <t>Ăm</t>
+  </si>
+  <si>
+    <t>Tiet kiem</t>
+  </si>
+  <si>
+    <t>pb Ánh</t>
+  </si>
+  <si>
+    <t>xem phim, ăn</t>
+  </si>
+  <si>
+    <t>Cưới Ánh Luvina</t>
+  </si>
+  <si>
+    <t>mua áo</t>
+  </si>
+  <si>
+    <t>cắt tóc</t>
+  </si>
+  <si>
+    <t>Cưới Đạt KTHN</t>
+  </si>
+  <si>
+    <t>xe, tk, ăn</t>
+  </si>
+  <si>
+    <t>Cưới Đ</t>
+  </si>
+  <si>
+    <t>Thẻ, ăn</t>
+  </si>
+  <si>
+    <t>nap momo</t>
+  </si>
+  <si>
+    <t>sn L</t>
+  </si>
+  <si>
+    <t>Tổng tài sản</t>
+  </si>
+  <si>
+    <t>Đích đến</t>
+  </si>
+  <si>
+    <t>Phần trăm</t>
+  </si>
+  <si>
+    <t>Thời điểm</t>
+  </si>
+  <si>
+    <t>Tài sản dự tính</t>
+  </si>
+  <si>
+    <t>Tính cua trong hang</t>
+  </si>
+  <si>
+    <t>Năm</t>
+  </si>
+  <si>
+    <t>phim</t>
+  </si>
+  <si>
+    <t>An, sp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -821,8 +896,51 @@
       <family val="1"/>
       <charset val="163"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -877,8 +995,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF023C20"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1148,11 +1290,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1548,6 +1725,105 @@
     <xf numFmtId="1" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="12" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="17" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1578,57 +1854,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1690,6 +1915,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1700,6 +1952,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF023C20"/>
       <color rgb="FF9BF985"/>
     </mruColors>
   </colors>
@@ -1730,7 +1983,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0"/>
+          <c:y val="1.3588108586106479E-2"/>
+          <c:w val="1"/>
+          <c:h val="0.98641189141389352"/>
+        </c:manualLayout>
+      </c:layout>
       <c:areaChart>
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
@@ -2045,6 +2308,12 @@
                 <c:pt idx="17" formatCode="0">
                   <c:v>4047.7939999999999</c:v>
                 </c:pt>
+                <c:pt idx="18" formatCode="0">
+                  <c:v>4420.9400000000005</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0">
+                  <c:v>3340.4809999999998</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2164,7 +2433,248 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.8119168321801719E-2"/>
+          <c:y val="4.160164362525239E-3"/>
+          <c:w val="0.94156911710784519"/>
+          <c:h val="0.87987476267408815"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-51BC-43C8-8020-7F814677D2B5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-51BC-43C8-8020-7F814677D2B5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tiết kiệm'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tổng tài sản</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tiết kiệm'!$C$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>136.54470500000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>682.45529499999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-828D-464F-A080-0E12F059BDE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent4">
+        <a:lumMod val="20000"/>
+        <a:lumOff val="80000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2720,20 +3230,539 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>14287</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>185737</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>23811</xdr:rowOff>
+      <xdr:rowOff>90486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2741,6 +3770,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{741B9CAC-59BF-4E4B-8622-AC8B5874C7A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>233362</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>109536</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67BC73F3-1318-5B7B-710B-4CE8E3EEB5EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2974,52 +4044,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="169" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="143" t="s">
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="165" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="144">
+      <c r="K1" s="166">
         <f>D26-200-200</f>
         <v>3090</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="147"/>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="144"/>
+      <c r="A2" s="169"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="166"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146" t="s">
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
       <c r="J3" s="8" t="s">
         <v>25</v>
       </c>
@@ -3089,8 +4159,8 @@
         <v>-0.127</v>
       </c>
       <c r="I5" s="4"/>
-      <c r="J5" s="145"/>
-      <c r="K5" s="145"/>
+      <c r="J5" s="167"/>
+      <c r="K5" s="167"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
@@ -3120,8 +4190,8 @@
       <c r="I6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="145"/>
-      <c r="K6" s="145"/>
+      <c r="J6" s="167"/>
+      <c r="K6" s="167"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
@@ -3149,8 +4219,8 @@
       <c r="I7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="145"/>
-      <c r="K7" s="145"/>
+      <c r="J7" s="167"/>
+      <c r="K7" s="167"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
@@ -3178,8 +4248,8 @@
       <c r="I8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="145"/>
-      <c r="K8" s="145"/>
+      <c r="J8" s="167"/>
+      <c r="K8" s="167"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
@@ -3203,8 +4273,8 @@
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="145"/>
-      <c r="K9" s="145"/>
+      <c r="J9" s="167"/>
+      <c r="K9" s="167"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
@@ -3227,8 +4297,8 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="145"/>
-      <c r="K10" s="145"/>
+      <c r="J10" s="167"/>
+      <c r="K10" s="167"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
@@ -3253,8 +4323,8 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="145"/>
-      <c r="K11" s="145"/>
+      <c r="J11" s="167"/>
+      <c r="K11" s="167"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
@@ -3274,8 +4344,8 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="145"/>
-      <c r="K12" s="145"/>
+      <c r="J12" s="167"/>
+      <c r="K12" s="167"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
@@ -3293,8 +4363,8 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="145"/>
-      <c r="K13" s="145"/>
+      <c r="J13" s="167"/>
+      <c r="K13" s="167"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
@@ -3310,8 +4380,8 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="145"/>
-      <c r="K14" s="145"/>
+      <c r="J14" s="167"/>
+      <c r="K14" s="167"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
@@ -3329,8 +4399,8 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="145"/>
-      <c r="K15" s="145"/>
+      <c r="J15" s="167"/>
+      <c r="K15" s="167"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
@@ -3348,8 +4418,8 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="145"/>
-      <c r="K16" s="145"/>
+      <c r="J16" s="167"/>
+      <c r="K16" s="167"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
@@ -3368,8 +4438,8 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="145"/>
-      <c r="K17" s="145"/>
+      <c r="J17" s="167"/>
+      <c r="K17" s="167"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
@@ -3388,8 +4458,8 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="145"/>
-      <c r="K18" s="145"/>
+      <c r="J18" s="167"/>
+      <c r="K18" s="167"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
@@ -3530,97 +4600,97 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="148" t="s">
+      <c r="A25" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="149"/>
-      <c r="C25" s="149"/>
-      <c r="D25" s="139">
+      <c r="B25" s="154"/>
+      <c r="C25" s="154"/>
+      <c r="D25" s="176">
         <f>3090+1500</f>
         <v>4590</v>
       </c>
-      <c r="E25" s="139"/>
-      <c r="F25" s="140"/>
+      <c r="E25" s="176"/>
+      <c r="F25" s="177"/>
       <c r="G25" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H25" s="156">
+      <c r="H25" s="161">
         <v>7431.75</v>
       </c>
-      <c r="I25" s="157"/>
-      <c r="J25" s="135" t="s">
+      <c r="I25" s="162"/>
+      <c r="J25" s="172" t="s">
         <v>23</v>
       </c>
-      <c r="K25" s="136"/>
+      <c r="K25" s="173"/>
     </row>
     <row r="26" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="150" t="s">
+      <c r="A26" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="151"/>
-      <c r="C26" s="151"/>
-      <c r="D26" s="141">
+      <c r="B26" s="156"/>
+      <c r="C26" s="156"/>
+      <c r="D26" s="178">
         <f>SUM(B5:B24)+SUM(E5:E24)</f>
         <v>3490</v>
       </c>
-      <c r="E26" s="141"/>
-      <c r="F26" s="142"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="179"/>
       <c r="G26" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="158">
+      <c r="H26" s="163">
         <f>SUM(H5:H24)</f>
         <v>1799.873</v>
       </c>
-      <c r="I26" s="159"/>
-      <c r="J26" s="137">
+      <c r="I26" s="164"/>
+      <c r="J26" s="174">
         <f>D27+H27</f>
         <v>6731.8770000000004</v>
       </c>
-      <c r="K26" s="138"/>
+      <c r="K26" s="175"/>
     </row>
     <row r="27" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="152" t="s">
+      <c r="A27" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="153"/>
-      <c r="C27" s="153"/>
-      <c r="D27" s="154">
+      <c r="B27" s="158"/>
+      <c r="C27" s="158"/>
+      <c r="D27" s="159">
         <f>D25-D26-L24</f>
         <v>1100</v>
       </c>
-      <c r="E27" s="154"/>
-      <c r="F27" s="155"/>
+      <c r="E27" s="159"/>
+      <c r="F27" s="160"/>
       <c r="G27" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="133">
+      <c r="H27" s="170">
         <f>H25-H26</f>
         <v>5631.8770000000004</v>
       </c>
-      <c r="I27" s="134"/>
-      <c r="J27" s="137"/>
-      <c r="K27" s="138"/>
+      <c r="I27" s="171"/>
+      <c r="J27" s="174"/>
+      <c r="K27" s="175"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K27"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="J5:K18"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A1:I2"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="J5:K18"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="A1:I2"/>
     <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K27"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -3647,52 +4717,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="169" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="165" t="s">
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="185" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="166">
+      <c r="K1" s="186">
         <f>SUM(H5:H19)-H7-H15</f>
         <v>3825.5789999999997</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="147"/>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="166"/>
+      <c r="A2" s="169"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="186"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146" t="s">
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
       <c r="J3" s="77" t="s">
         <v>25</v>
       </c>
@@ -3758,11 +4828,11 @@
       <c r="I5" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="163">
+      <c r="J5" s="183">
         <f>-SUM(H5:H19)</f>
         <v>1192.6699999999998</v>
       </c>
-      <c r="K5" s="164"/>
+      <c r="K5" s="184"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
@@ -3784,8 +4854,8 @@
       <c r="I6" s="79" t="s">
         <v>147</v>
       </c>
-      <c r="J6" s="164"/>
-      <c r="K6" s="164"/>
+      <c r="J6" s="184"/>
+      <c r="K6" s="184"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
@@ -3805,8 +4875,8 @@
       <c r="I7" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="J7" s="164"/>
-      <c r="K7" s="164"/>
+      <c r="J7" s="184"/>
+      <c r="K7" s="184"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
@@ -3829,8 +4899,8 @@
       <c r="I8" s="79" t="s">
         <v>148</v>
       </c>
-      <c r="J8" s="164"/>
-      <c r="K8" s="164"/>
+      <c r="J8" s="184"/>
+      <c r="K8" s="184"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
@@ -3850,8 +4920,8 @@
       <c r="I9" s="79" t="s">
         <v>150</v>
       </c>
-      <c r="J9" s="164"/>
-      <c r="K9" s="164"/>
+      <c r="J9" s="184"/>
+      <c r="K9" s="184"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
@@ -3873,8 +4943,8 @@
       <c r="I10" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="J10" s="164"/>
-      <c r="K10" s="164"/>
+      <c r="J10" s="184"/>
+      <c r="K10" s="184"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
@@ -3897,8 +4967,8 @@
       <c r="I11" s="79" t="s">
         <v>152</v>
       </c>
-      <c r="J11" s="164"/>
-      <c r="K11" s="164"/>
+      <c r="J11" s="184"/>
+      <c r="K11" s="184"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
@@ -3921,8 +4991,8 @@
       <c r="I12" s="79" t="s">
         <v>153</v>
       </c>
-      <c r="J12" s="164"/>
-      <c r="K12" s="164"/>
+      <c r="J12" s="184"/>
+      <c r="K12" s="184"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
@@ -3944,8 +5014,8 @@
       <c r="I13" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="J13" s="164"/>
-      <c r="K13" s="164"/>
+      <c r="J13" s="184"/>
+      <c r="K13" s="184"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
@@ -4071,77 +5141,77 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="148" t="s">
+      <c r="A20" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="149"/>
-      <c r="C20" s="149"/>
-      <c r="D20" s="139">
+      <c r="B20" s="154"/>
+      <c r="C20" s="154"/>
+      <c r="D20" s="176">
         <f>451+520+3000-500</f>
         <v>3471</v>
       </c>
-      <c r="E20" s="139"/>
-      <c r="F20" s="140"/>
+      <c r="E20" s="176"/>
+      <c r="F20" s="177"/>
       <c r="G20" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H20" s="160">
+      <c r="H20" s="180">
         <v>30500.071</v>
       </c>
-      <c r="I20" s="161"/>
-      <c r="J20" s="135" t="s">
+      <c r="I20" s="181"/>
+      <c r="J20" s="172" t="s">
         <v>23</v>
       </c>
-      <c r="K20" s="136"/>
+      <c r="K20" s="173"/>
     </row>
     <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="150" t="s">
+      <c r="A21" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="151"/>
-      <c r="C21" s="151"/>
-      <c r="D21" s="141">
+      <c r="B21" s="156"/>
+      <c r="C21" s="156"/>
+      <c r="D21" s="178">
         <f>SUM(B5:B19)+SUM(E5:E19)</f>
         <v>3048</v>
       </c>
-      <c r="E21" s="141"/>
-      <c r="F21" s="142"/>
+      <c r="E21" s="178"/>
+      <c r="F21" s="179"/>
       <c r="G21" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="158">
+      <c r="H21" s="163">
         <f>SUM(H5:H19)</f>
         <v>-1192.6699999999998</v>
       </c>
-      <c r="I21" s="159"/>
-      <c r="J21" s="137">
+      <c r="I21" s="164"/>
+      <c r="J21" s="174">
         <f>D22+H22</f>
         <v>32115.740999999998</v>
       </c>
-      <c r="K21" s="138"/>
+      <c r="K21" s="175"/>
     </row>
     <row r="22" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="152" t="s">
+      <c r="A22" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="153"/>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154">
+      <c r="B22" s="158"/>
+      <c r="C22" s="158"/>
+      <c r="D22" s="159">
         <f>D20-D21</f>
         <v>423</v>
       </c>
-      <c r="E22" s="154"/>
-      <c r="F22" s="155"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="160"/>
       <c r="G22" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="133">
+      <c r="H22" s="170">
         <f>H20-H21</f>
         <v>31692.740999999998</v>
       </c>
-      <c r="I22" s="134"/>
-      <c r="J22" s="137"/>
-      <c r="K22" s="138"/>
+      <c r="I22" s="171"/>
+      <c r="J22" s="174"/>
+      <c r="K22" s="175"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -4187,52 +5257,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="169" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="165" t="s">
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="185" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="166">
+      <c r="K1" s="186">
         <f>SUM(H6:H16)-H7-H10+1799</f>
         <v>3942.0679999999993</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="147"/>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="166"/>
+      <c r="A2" s="169"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="186"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146" t="s">
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
       <c r="J3" s="83" t="s">
         <v>25</v>
       </c>
@@ -4303,11 +5373,11 @@
         <v>-10674</v>
       </c>
       <c r="I5" s="84"/>
-      <c r="J5" s="163">
+      <c r="J5" s="183">
         <f>-SUM(H5:H19)</f>
         <v>-1469.068</v>
       </c>
-      <c r="K5" s="164"/>
+      <c r="K5" s="184"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
@@ -4330,8 +5400,8 @@
         <v>-233.25900000000001</v>
       </c>
       <c r="I6" s="84"/>
-      <c r="J6" s="164"/>
-      <c r="K6" s="164"/>
+      <c r="J6" s="184"/>
+      <c r="K6" s="184"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
@@ -4359,8 +5429,8 @@
       <c r="I7" s="84" t="s">
         <v>158</v>
       </c>
-      <c r="J7" s="164"/>
-      <c r="K7" s="164"/>
+      <c r="J7" s="184"/>
+      <c r="K7" s="184"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
@@ -4380,8 +5450,8 @@
       <c r="I8" s="84" t="s">
         <v>159</v>
       </c>
-      <c r="J8" s="164"/>
-      <c r="K8" s="164"/>
+      <c r="J8" s="184"/>
+      <c r="K8" s="184"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
@@ -4401,8 +5471,8 @@
       <c r="I9" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="164"/>
-      <c r="K9" s="164"/>
+      <c r="J9" s="184"/>
+      <c r="K9" s="184"/>
       <c r="L9" s="90"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -4425,8 +5495,8 @@
       <c r="I10" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="J10" s="164"/>
-      <c r="K10" s="164"/>
+      <c r="J10" s="184"/>
+      <c r="K10" s="184"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
@@ -4449,8 +5519,8 @@
       <c r="I11" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="J11" s="164"/>
-      <c r="K11" s="164"/>
+      <c r="J11" s="184"/>
+      <c r="K11" s="184"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
@@ -4474,8 +5544,8 @@
       <c r="I12" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="J12" s="164"/>
-      <c r="K12" s="164"/>
+      <c r="J12" s="184"/>
+      <c r="K12" s="184"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
@@ -4498,8 +5568,8 @@
       <c r="I13" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="J13" s="164"/>
-      <c r="K13" s="164"/>
+      <c r="J13" s="184"/>
+      <c r="K13" s="184"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
@@ -4644,77 +5714,77 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="148" t="s">
+      <c r="A20" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="149"/>
-      <c r="C20" s="149"/>
-      <c r="D20" s="139">
+      <c r="B20" s="154"/>
+      <c r="C20" s="154"/>
+      <c r="D20" s="176">
         <f>423+2000+500-220+100+500</f>
         <v>3303</v>
       </c>
-      <c r="E20" s="139"/>
-      <c r="F20" s="140"/>
+      <c r="E20" s="176"/>
+      <c r="F20" s="177"/>
       <c r="G20" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H20" s="160">
+      <c r="H20" s="180">
         <v>31692.741000000002</v>
       </c>
-      <c r="I20" s="161"/>
-      <c r="J20" s="135" t="s">
+      <c r="I20" s="181"/>
+      <c r="J20" s="172" t="s">
         <v>23</v>
       </c>
-      <c r="K20" s="136"/>
+      <c r="K20" s="173"/>
     </row>
     <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="150" t="s">
+      <c r="A21" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="151"/>
-      <c r="C21" s="151"/>
-      <c r="D21" s="141">
+      <c r="B21" s="156"/>
+      <c r="C21" s="156"/>
+      <c r="D21" s="178">
         <f>SUM(B5:B19)+SUM(E5:E19)</f>
         <v>3291</v>
       </c>
-      <c r="E21" s="141"/>
-      <c r="F21" s="142"/>
+      <c r="E21" s="178"/>
+      <c r="F21" s="179"/>
       <c r="G21" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="158">
+      <c r="H21" s="163">
         <f>SUM(H5:H19)</f>
         <v>1469.068</v>
       </c>
-      <c r="I21" s="159"/>
-      <c r="J21" s="137">
+      <c r="I21" s="164"/>
+      <c r="J21" s="174">
         <f>D22+H22</f>
         <v>30235.673000000003</v>
       </c>
-      <c r="K21" s="138"/>
+      <c r="K21" s="175"/>
     </row>
     <row r="22" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="152" t="s">
+      <c r="A22" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="153"/>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154">
+      <c r="B22" s="158"/>
+      <c r="C22" s="158"/>
+      <c r="D22" s="159">
         <f>D20-D21</f>
         <v>12</v>
       </c>
-      <c r="E22" s="154"/>
-      <c r="F22" s="155"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="160"/>
       <c r="G22" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="133">
+      <c r="H22" s="170">
         <f>H20-H21</f>
         <v>30223.673000000003</v>
       </c>
-      <c r="I22" s="134"/>
-      <c r="J22" s="137"/>
-      <c r="K22" s="138"/>
+      <c r="I22" s="171"/>
+      <c r="J22" s="174"/>
+      <c r="K22" s="175"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -4761,52 +5831,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="169" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="165" t="s">
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="185" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="167">
+      <c r="K1" s="187">
         <f>SUM(H6:H19)</f>
         <v>4160.6729999999998</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="147"/>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="167"/>
+      <c r="A2" s="169"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="187"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146" t="s">
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
       <c r="J3" s="88" t="s">
         <v>25</v>
       </c>
@@ -4880,11 +5950,11 @@
       <c r="I5" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="J5" s="163">
+      <c r="J5" s="183">
         <f>-SUM(H5:H19)</f>
         <v>16813.327000000001</v>
       </c>
-      <c r="K5" s="164"/>
+      <c r="K5" s="184"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
@@ -4913,8 +5983,8 @@
       <c r="I6" s="89" t="s">
         <v>166</v>
       </c>
-      <c r="J6" s="164"/>
-      <c r="K6" s="164"/>
+      <c r="J6" s="184"/>
+      <c r="K6" s="184"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
@@ -4938,8 +6008,8 @@
         <v>330.673</v>
       </c>
       <c r="I7" s="89"/>
-      <c r="J7" s="164"/>
-      <c r="K7" s="164"/>
+      <c r="J7" s="184"/>
+      <c r="K7" s="184"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
@@ -4963,8 +6033,8 @@
       <c r="I8" s="89" t="s">
         <v>173</v>
       </c>
-      <c r="J8" s="164"/>
-      <c r="K8" s="164"/>
+      <c r="J8" s="184"/>
+      <c r="K8" s="184"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
@@ -4986,8 +6056,8 @@
       <c r="I9" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="164"/>
-      <c r="K9" s="164"/>
+      <c r="J9" s="184"/>
+      <c r="K9" s="184"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
@@ -5009,8 +6079,8 @@
       <c r="I10" s="89" t="s">
         <v>173</v>
       </c>
-      <c r="J10" s="164"/>
-      <c r="K10" s="164"/>
+      <c r="J10" s="184"/>
+      <c r="K10" s="184"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
@@ -5029,8 +6099,8 @@
       <c r="G11" s="14"/>
       <c r="H11" s="55"/>
       <c r="I11" s="89"/>
-      <c r="J11" s="164"/>
-      <c r="K11" s="164"/>
+      <c r="J11" s="184"/>
+      <c r="K11" s="184"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
@@ -5046,8 +6116,8 @@
       <c r="G12" s="14"/>
       <c r="H12" s="55"/>
       <c r="I12" s="89"/>
-      <c r="J12" s="164"/>
-      <c r="K12" s="164"/>
+      <c r="J12" s="184"/>
+      <c r="K12" s="184"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
@@ -5065,8 +6135,8 @@
       <c r="G13" s="14"/>
       <c r="H13" s="55"/>
       <c r="I13" s="89"/>
-      <c r="J13" s="164"/>
-      <c r="K13" s="164"/>
+      <c r="J13" s="184"/>
+      <c r="K13" s="184"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
@@ -5214,76 +6284,76 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="148" t="s">
+      <c r="A20" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="149"/>
-      <c r="C20" s="149"/>
-      <c r="D20" s="139">
+      <c r="B20" s="154"/>
+      <c r="C20" s="154"/>
+      <c r="D20" s="176">
         <v>3212</v>
       </c>
-      <c r="E20" s="139"/>
-      <c r="F20" s="140"/>
+      <c r="E20" s="176"/>
+      <c r="F20" s="177"/>
       <c r="G20" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H20" s="160">
+      <c r="H20" s="180">
         <v>30223.672999999999</v>
       </c>
-      <c r="I20" s="161"/>
-      <c r="J20" s="135" t="s">
+      <c r="I20" s="181"/>
+      <c r="J20" s="172" t="s">
         <v>23</v>
       </c>
-      <c r="K20" s="136"/>
+      <c r="K20" s="173"/>
     </row>
     <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="150" t="s">
+      <c r="A21" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="151"/>
-      <c r="C21" s="151"/>
-      <c r="D21" s="141">
+      <c r="B21" s="156"/>
+      <c r="C21" s="156"/>
+      <c r="D21" s="178">
         <f>SUM(B5:B19)+SUM(E5:E19)</f>
         <v>3212</v>
       </c>
-      <c r="E21" s="141"/>
-      <c r="F21" s="142"/>
+      <c r="E21" s="178"/>
+      <c r="F21" s="179"/>
       <c r="G21" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="158">
+      <c r="H21" s="163">
         <f>SUM(H5:H19)</f>
         <v>-16813.327000000001</v>
       </c>
-      <c r="I21" s="159"/>
-      <c r="J21" s="137">
+      <c r="I21" s="164"/>
+      <c r="J21" s="174">
         <f>D22+H22</f>
         <v>47037</v>
       </c>
-      <c r="K21" s="138"/>
+      <c r="K21" s="175"/>
     </row>
     <row r="22" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="152" t="s">
+      <c r="A22" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="153"/>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154">
+      <c r="B22" s="158"/>
+      <c r="C22" s="158"/>
+      <c r="D22" s="159">
         <f>D20-D21</f>
         <v>0</v>
       </c>
-      <c r="E22" s="154"/>
-      <c r="F22" s="155"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="160"/>
       <c r="G22" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="133">
+      <c r="H22" s="170">
         <f>H20-H21</f>
         <v>47037</v>
       </c>
-      <c r="I22" s="134"/>
-      <c r="J22" s="137"/>
-      <c r="K22" s="138"/>
+      <c r="I22" s="171"/>
+      <c r="J22" s="174"/>
+      <c r="K22" s="175"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -5329,52 +6399,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="169" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="165" t="s">
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="185" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="166">
+      <c r="K1" s="186">
         <f>SUM(H6:H19)-H10</f>
         <v>3288</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="147"/>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="166"/>
+      <c r="A2" s="169"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="186"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146" t="s">
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
       <c r="J3" s="94" t="s">
         <v>25</v>
       </c>
@@ -5441,11 +6511,11 @@
       <c r="I5" s="91" t="s">
         <v>181</v>
       </c>
-      <c r="J5" s="163">
+      <c r="J5" s="183">
         <f>-SUM(H5:H19)</f>
         <v>6279.6200000000008</v>
       </c>
-      <c r="K5" s="164"/>
+      <c r="K5" s="184"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
@@ -5465,8 +6535,8 @@
       <c r="I6" s="91" t="s">
         <v>172</v>
       </c>
-      <c r="J6" s="164"/>
-      <c r="K6" s="164"/>
+      <c r="J6" s="184"/>
+      <c r="K6" s="184"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
@@ -5486,8 +6556,8 @@
       <c r="I7" s="91" t="s">
         <v>180</v>
       </c>
-      <c r="J7" s="164"/>
-      <c r="K7" s="164"/>
+      <c r="J7" s="184"/>
+      <c r="K7" s="184"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
@@ -5511,8 +6581,8 @@
       <c r="I8" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="164"/>
-      <c r="K8" s="164"/>
+      <c r="J8" s="184"/>
+      <c r="K8" s="184"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
@@ -5536,8 +6606,8 @@
       <c r="I9" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="164"/>
-      <c r="K9" s="164"/>
+      <c r="J9" s="184"/>
+      <c r="K9" s="184"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
@@ -5559,8 +6629,8 @@
       <c r="I10" s="91" t="s">
         <v>184</v>
       </c>
-      <c r="J10" s="164"/>
-      <c r="K10" s="164"/>
+      <c r="J10" s="184"/>
+      <c r="K10" s="184"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
@@ -5578,8 +6648,8 @@
       <c r="G11" s="14"/>
       <c r="H11" s="97"/>
       <c r="I11" s="91"/>
-      <c r="J11" s="164"/>
-      <c r="K11" s="164"/>
+      <c r="J11" s="184"/>
+      <c r="K11" s="184"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
@@ -5598,8 +6668,8 @@
       <c r="G12" s="14"/>
       <c r="H12" s="97"/>
       <c r="I12" s="91"/>
-      <c r="J12" s="164"/>
-      <c r="K12" s="164"/>
+      <c r="J12" s="184"/>
+      <c r="K12" s="184"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
@@ -5617,8 +6687,8 @@
       <c r="G13" s="14"/>
       <c r="H13" s="97"/>
       <c r="I13" s="91"/>
-      <c r="J13" s="164"/>
-      <c r="K13" s="164"/>
+      <c r="J13" s="184"/>
+      <c r="K13" s="184"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
@@ -5753,75 +6823,75 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="148"/>
-      <c r="B20" s="149"/>
-      <c r="C20" s="149"/>
-      <c r="D20" s="139">
+      <c r="A20" s="153"/>
+      <c r="B20" s="154"/>
+      <c r="C20" s="154"/>
+      <c r="D20" s="176">
         <v>3200</v>
       </c>
-      <c r="E20" s="139"/>
-      <c r="F20" s="140"/>
+      <c r="E20" s="176"/>
+      <c r="F20" s="177"/>
       <c r="G20" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H20" s="160">
+      <c r="H20" s="180">
         <f>47037+1.176</f>
         <v>47038.175999999999</v>
       </c>
-      <c r="I20" s="161"/>
-      <c r="J20" s="135" t="s">
+      <c r="I20" s="181"/>
+      <c r="J20" s="172" t="s">
         <v>23</v>
       </c>
-      <c r="K20" s="136"/>
+      <c r="K20" s="173"/>
     </row>
     <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="150" t="s">
+      <c r="A21" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="151"/>
-      <c r="C21" s="151"/>
-      <c r="D21" s="141">
+      <c r="B21" s="156"/>
+      <c r="C21" s="156"/>
+      <c r="D21" s="178">
         <f>SUM(B5:B19)+SUM(E5:E19)</f>
         <v>3200</v>
       </c>
-      <c r="E21" s="141"/>
-      <c r="F21" s="142"/>
+      <c r="E21" s="178"/>
+      <c r="F21" s="179"/>
       <c r="G21" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="168">
+      <c r="H21" s="188">
         <f>SUM(H5:H19)</f>
         <v>-6279.6200000000008</v>
       </c>
-      <c r="I21" s="159"/>
-      <c r="J21" s="137">
+      <c r="I21" s="164"/>
+      <c r="J21" s="174">
         <f>D22+H22</f>
         <v>53317.796000000002</v>
       </c>
-      <c r="K21" s="138"/>
+      <c r="K21" s="175"/>
     </row>
     <row r="22" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="152" t="s">
+      <c r="A22" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="153"/>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154">
+      <c r="B22" s="158"/>
+      <c r="C22" s="158"/>
+      <c r="D22" s="159">
         <f>D20-D21</f>
         <v>0</v>
       </c>
-      <c r="E22" s="154"/>
-      <c r="F22" s="155"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="160"/>
       <c r="G22" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="133">
+      <c r="H22" s="170">
         <f>H20-H21</f>
         <v>53317.796000000002</v>
       </c>
-      <c r="I22" s="134"/>
-      <c r="J22" s="137"/>
-      <c r="K22" s="138"/>
+      <c r="I22" s="171"/>
+      <c r="J22" s="174"/>
+      <c r="K22" s="175"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -5867,52 +6937,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="169" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="165" t="s">
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="185" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="166">
+      <c r="K1" s="186">
         <f>SUM(H5:H18)-H10-H11-H14-H15</f>
         <v>4480.9560000000001</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="147"/>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="166"/>
+      <c r="A2" s="169"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="186"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146" t="s">
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
       <c r="J3" s="105" t="s">
         <v>25</v>
       </c>
@@ -5979,11 +7049,11 @@
       <c r="I5" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="163">
+      <c r="J5" s="183">
         <f>-SUM(H5:H19)</f>
         <v>3172.8290000000002</v>
       </c>
-      <c r="K5" s="164"/>
+      <c r="K5" s="184"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
@@ -6003,8 +7073,8 @@
         <v>-1.1739999999999999</v>
       </c>
       <c r="I6" s="102"/>
-      <c r="J6" s="164"/>
-      <c r="K6" s="164"/>
+      <c r="J6" s="184"/>
+      <c r="K6" s="184"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
@@ -6028,8 +7098,8 @@
       <c r="I7" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="164"/>
-      <c r="K7" s="164"/>
+      <c r="J7" s="184"/>
+      <c r="K7" s="184"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
@@ -6051,8 +7121,8 @@
       <c r="I8" s="102" t="s">
         <v>187</v>
       </c>
-      <c r="J8" s="164"/>
-      <c r="K8" s="164"/>
+      <c r="J8" s="184"/>
+      <c r="K8" s="184"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
@@ -6076,8 +7146,8 @@
       <c r="I9" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="164"/>
-      <c r="K9" s="164"/>
+      <c r="J9" s="184"/>
+      <c r="K9" s="184"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
@@ -6097,8 +7167,8 @@
       <c r="I10" s="102" t="s">
         <v>112</v>
       </c>
-      <c r="J10" s="164"/>
-      <c r="K10" s="164"/>
+      <c r="J10" s="184"/>
+      <c r="K10" s="184"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
@@ -6121,8 +7191,8 @@
         <v>-11753.785</v>
       </c>
       <c r="I11" s="102"/>
-      <c r="J11" s="164"/>
-      <c r="K11" s="164"/>
+      <c r="J11" s="184"/>
+      <c r="K11" s="184"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
@@ -6145,8 +7215,8 @@
       <c r="I12" s="102" t="s">
         <v>188</v>
       </c>
-      <c r="J12" s="164"/>
-      <c r="K12" s="164"/>
+      <c r="J12" s="184"/>
+      <c r="K12" s="184"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
@@ -6168,8 +7238,8 @@
       <c r="I13" s="102" t="s">
         <v>189</v>
       </c>
-      <c r="J13" s="164"/>
-      <c r="K13" s="164"/>
+      <c r="J13" s="184"/>
+      <c r="K13" s="184"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
@@ -6323,76 +7393,76 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="148" t="s">
+      <c r="A20" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="149"/>
-      <c r="C20" s="149"/>
-      <c r="D20" s="139">
+      <c r="B20" s="154"/>
+      <c r="C20" s="154"/>
+      <c r="D20" s="176">
         <v>3000</v>
       </c>
-      <c r="E20" s="139"/>
-      <c r="F20" s="140"/>
+      <c r="E20" s="176"/>
+      <c r="F20" s="177"/>
       <c r="G20" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H20" s="160">
+      <c r="H20" s="180">
         <v>53317.796000000002</v>
       </c>
-      <c r="I20" s="161"/>
-      <c r="J20" s="135" t="s">
+      <c r="I20" s="181"/>
+      <c r="J20" s="172" t="s">
         <v>23</v>
       </c>
-      <c r="K20" s="136"/>
+      <c r="K20" s="173"/>
     </row>
     <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="150" t="s">
+      <c r="A21" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="151"/>
-      <c r="C21" s="151"/>
-      <c r="D21" s="141">
+      <c r="B21" s="156"/>
+      <c r="C21" s="156"/>
+      <c r="D21" s="178">
         <f>SUM(B5:B19)+SUM(E5:E19)</f>
         <v>3000</v>
       </c>
-      <c r="E21" s="141"/>
-      <c r="F21" s="142"/>
+      <c r="E21" s="178"/>
+      <c r="F21" s="179"/>
       <c r="G21" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="168">
+      <c r="H21" s="188">
         <f>SUM(H5:H19)</f>
         <v>-3172.8290000000002</v>
       </c>
-      <c r="I21" s="159"/>
-      <c r="J21" s="137">
+      <c r="I21" s="164"/>
+      <c r="J21" s="174">
         <f>D22+H22</f>
         <v>56490.625</v>
       </c>
-      <c r="K21" s="138"/>
+      <c r="K21" s="175"/>
     </row>
     <row r="22" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="152" t="s">
+      <c r="A22" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="153"/>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154">
+      <c r="B22" s="158"/>
+      <c r="C22" s="158"/>
+      <c r="D22" s="159">
         <f>D20-D21</f>
         <v>0</v>
       </c>
-      <c r="E22" s="154"/>
-      <c r="F22" s="155"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="160"/>
       <c r="G22" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="133">
+      <c r="H22" s="170">
         <f>H20-H21</f>
         <v>56490.625</v>
       </c>
-      <c r="I22" s="134"/>
-      <c r="J22" s="137"/>
-      <c r="K22" s="138"/>
+      <c r="I22" s="171"/>
+      <c r="J22" s="174"/>
+      <c r="K22" s="175"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -6423,7 +7493,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -6442,51 +7512,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="189" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170"/>
-      <c r="H1" s="170"/>
-      <c r="I1" s="170"/>
-      <c r="J1" s="170"/>
-      <c r="K1" s="171"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="190"/>
+      <c r="K1" s="191"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="172"/>
-      <c r="B2" s="173"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="173"/>
-      <c r="J2" s="173"/>
-      <c r="K2" s="174"/>
+      <c r="A2" s="192"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="194"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146" t="s">
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="175" t="s">
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="195" t="s">
         <v>192</v>
       </c>
-      <c r="K3" s="176"/>
+      <c r="K3" s="196"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -6872,7 +7942,7 @@
       <c r="D18" s="107"/>
       <c r="E18" s="53"/>
       <c r="F18" s="57"/>
-      <c r="G18" s="115">
+      <c r="G18" s="14">
         <v>44767</v>
       </c>
       <c r="H18" s="97">
@@ -6894,8 +7964,8 @@
       <c r="D19" s="17"/>
       <c r="E19" s="54"/>
       <c r="F19" s="58"/>
-      <c r="G19" s="121">
-        <v>44770</v>
+      <c r="G19" s="14">
+        <v>44768</v>
       </c>
       <c r="H19" s="98">
         <v>127</v>
@@ -6907,39 +7977,39 @@
       <c r="K19" s="111"/>
     </row>
     <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="148" t="s">
+      <c r="A20" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="149"/>
-      <c r="C20" s="149"/>
-      <c r="D20" s="139">
+      <c r="B20" s="154"/>
+      <c r="C20" s="154"/>
+      <c r="D20" s="176">
         <f>4050+160</f>
         <v>4210</v>
       </c>
-      <c r="E20" s="139"/>
-      <c r="F20" s="140"/>
+      <c r="E20" s="176"/>
+      <c r="F20" s="177"/>
       <c r="G20" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H20" s="179">
+      <c r="H20" s="199">
         <v>56490.625</v>
       </c>
-      <c r="I20" s="180"/>
+      <c r="I20" s="200"/>
       <c r="J20" s="113"/>
       <c r="K20" s="111"/>
     </row>
     <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="150" t="s">
+      <c r="A21" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="151"/>
-      <c r="C21" s="151"/>
-      <c r="D21" s="141">
+      <c r="B21" s="156"/>
+      <c r="C21" s="156"/>
+      <c r="D21" s="178">
         <f>SUM(B5:B19)+SUM(E5:E19)</f>
         <v>4192</v>
       </c>
-      <c r="E21" s="141"/>
-      <c r="F21" s="142"/>
+      <c r="E21" s="178"/>
+      <c r="F21" s="179"/>
       <c r="G21" s="20" t="s">
         <v>193</v>
       </c>
@@ -6955,25 +8025,25 @@
       <c r="K21" s="111"/>
     </row>
     <row r="22" spans="1:12" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="152" t="s">
+      <c r="A22" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="153"/>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154">
+      <c r="B22" s="158"/>
+      <c r="C22" s="158"/>
+      <c r="D22" s="159">
         <f>D20-D21</f>
         <v>18</v>
       </c>
-      <c r="E22" s="154"/>
-      <c r="F22" s="155"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="160"/>
       <c r="G22" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="177">
+      <c r="H22" s="197">
         <f>H20-SUM(H5:H19)</f>
         <v>65273</v>
       </c>
-      <c r="I22" s="178"/>
+      <c r="I22" s="198"/>
       <c r="J22" s="113"/>
       <c r="K22" s="111"/>
     </row>
@@ -7021,51 +8091,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="189" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170"/>
-      <c r="H1" s="170"/>
-      <c r="I1" s="170"/>
-      <c r="J1" s="170"/>
-      <c r="K1" s="171"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="190"/>
+      <c r="K1" s="191"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="172"/>
-      <c r="B2" s="173"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="173"/>
-      <c r="J2" s="173"/>
-      <c r="K2" s="174"/>
+      <c r="A2" s="192"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="194"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146" t="s">
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="175" t="s">
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="195" t="s">
         <v>192</v>
       </c>
-      <c r="K3" s="176"/>
+      <c r="K3" s="196"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -7421,38 +8491,38 @@
       <c r="K19" s="117"/>
     </row>
     <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="148" t="s">
+      <c r="A20" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="149"/>
-      <c r="C20" s="149"/>
-      <c r="D20" s="139">
+      <c r="B20" s="154"/>
+      <c r="C20" s="154"/>
+      <c r="D20" s="176">
         <v>4135</v>
       </c>
-      <c r="E20" s="139"/>
-      <c r="F20" s="140"/>
+      <c r="E20" s="176"/>
+      <c r="F20" s="177"/>
       <c r="G20" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H20" s="179">
+      <c r="H20" s="199">
         <v>65273</v>
       </c>
-      <c r="I20" s="180"/>
+      <c r="I20" s="200"/>
       <c r="J20" s="113"/>
       <c r="K20" s="117"/>
     </row>
     <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="150" t="s">
+      <c r="A21" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="151"/>
-      <c r="C21" s="151"/>
-      <c r="D21" s="141">
+      <c r="B21" s="156"/>
+      <c r="C21" s="156"/>
+      <c r="D21" s="178">
         <f>SUM(B5:B19)+SUM(E5:E19)</f>
         <v>4125</v>
       </c>
-      <c r="E21" s="141"/>
-      <c r="F21" s="142"/>
+      <c r="E21" s="178"/>
+      <c r="F21" s="179"/>
       <c r="G21" s="20" t="s">
         <v>193</v>
       </c>
@@ -7468,25 +8538,25 @@
       <c r="K21" s="117"/>
     </row>
     <row r="22" spans="1:12" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="152" t="s">
+      <c r="A22" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="153"/>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154">
+      <c r="B22" s="158"/>
+      <c r="C22" s="158"/>
+      <c r="D22" s="159">
         <f>D20-D21</f>
         <v>10</v>
       </c>
-      <c r="E22" s="154"/>
-      <c r="F22" s="155"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="160"/>
       <c r="G22" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="177">
+      <c r="H22" s="197">
         <f>H20+H21-I21</f>
         <v>101201.87</v>
       </c>
-      <c r="I22" s="178"/>
+      <c r="I22" s="198"/>
       <c r="J22" s="113"/>
       <c r="K22" s="117"/>
     </row>
@@ -7513,7 +8583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E2145B-ABFE-4C8D-BA09-71375954F6E5}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20:F20"/>
     </sheetView>
   </sheetViews>
@@ -7533,51 +8603,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="189" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170"/>
-      <c r="H1" s="170"/>
-      <c r="I1" s="170"/>
-      <c r="J1" s="170"/>
-      <c r="K1" s="171"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="190"/>
+      <c r="K1" s="191"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="172"/>
-      <c r="B2" s="173"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="173"/>
-      <c r="J2" s="173"/>
-      <c r="K2" s="174"/>
+      <c r="A2" s="192"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="194"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146" t="s">
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="175" t="s">
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="195" t="s">
         <v>192</v>
       </c>
-      <c r="K3" s="176"/>
+      <c r="K3" s="196"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -7956,40 +9026,40 @@
       <c r="K19" s="124"/>
     </row>
     <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="148" t="s">
+      <c r="A20" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="149"/>
-      <c r="C20" s="149"/>
-      <c r="D20" s="139">
+      <c r="B20" s="154"/>
+      <c r="C20" s="154"/>
+      <c r="D20" s="176">
         <f>3010-200-200+50+1000-82</f>
         <v>3578</v>
       </c>
-      <c r="E20" s="139"/>
-      <c r="F20" s="140"/>
+      <c r="E20" s="176"/>
+      <c r="F20" s="177"/>
       <c r="G20" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H20" s="179">
+      <c r="H20" s="199">
         <f>101201.87-50000-15000</f>
         <v>36201.869999999995</v>
       </c>
-      <c r="I20" s="180"/>
+      <c r="I20" s="200"/>
       <c r="J20" s="113"/>
       <c r="K20" s="124"/>
     </row>
     <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="150" t="s">
+      <c r="A21" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="151"/>
-      <c r="C21" s="151"/>
-      <c r="D21" s="141">
+      <c r="B21" s="156"/>
+      <c r="C21" s="156"/>
+      <c r="D21" s="178">
         <f>SUM(B5:B19)+SUM(E5:E19)</f>
         <v>3578</v>
       </c>
-      <c r="E21" s="141"/>
-      <c r="F21" s="142"/>
+      <c r="E21" s="178"/>
+      <c r="F21" s="179"/>
       <c r="G21" s="20" t="s">
         <v>193</v>
       </c>
@@ -8005,25 +9075,25 @@
       <c r="K21" s="124"/>
     </row>
     <row r="22" spans="1:12" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="152" t="s">
+      <c r="A22" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="153"/>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154">
+      <c r="B22" s="158"/>
+      <c r="C22" s="158"/>
+      <c r="D22" s="159">
         <f>D20-D21</f>
         <v>0</v>
       </c>
-      <c r="E22" s="154"/>
-      <c r="F22" s="155"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="160"/>
       <c r="G22" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="177">
+      <c r="H22" s="197">
         <f>H20+H21-I21</f>
         <v>52402.420999999995</v>
       </c>
-      <c r="I22" s="178"/>
+      <c r="I22" s="198"/>
       <c r="J22" s="113"/>
       <c r="K22" s="124"/>
     </row>
@@ -8050,15 +9120,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F32421-32D3-4B51-AF81-3788A1AD8DAC}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="11.75" style="2" customWidth="1"/>
-    <col min="4" max="5" width="9" style="2"/>
+    <col min="4" max="4" width="9.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2"/>
     <col min="6" max="6" width="13.875" style="2" customWidth="1"/>
     <col min="7" max="7" width="9" style="2"/>
     <col min="8" max="8" width="10.125" style="2" bestFit="1" customWidth="1"/>
@@ -8070,51 +9141,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="189" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170"/>
-      <c r="H1" s="170"/>
-      <c r="I1" s="170"/>
-      <c r="J1" s="170"/>
-      <c r="K1" s="171"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="190"/>
+      <c r="K1" s="191"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="172"/>
-      <c r="B2" s="173"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="173"/>
-      <c r="J2" s="173"/>
-      <c r="K2" s="174"/>
+      <c r="A2" s="192"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="194"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146" t="s">
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="175" t="s">
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="195" t="s">
         <v>192</v>
       </c>
-      <c r="K3" s="176"/>
+      <c r="K3" s="196"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -8148,7 +9219,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="130">
-        <v>517</v>
+        <v>612</v>
       </c>
       <c r="L4" s="10"/>
     </row>
@@ -8157,20 +9228,29 @@
         <v>44835</v>
       </c>
       <c r="B5" s="53">
-        <v>1900</v>
+        <v>1870</v>
       </c>
       <c r="C5" s="57"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="57"/>
+      <c r="D5" s="13">
+        <v>44854</v>
+      </c>
+      <c r="E5" s="53">
+        <v>80</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>10</v>
+      </c>
       <c r="G5" s="14"/>
-      <c r="H5" s="97"/>
+      <c r="H5" s="97">
+        <f>15851.5</f>
+        <v>15851.5</v>
+      </c>
       <c r="I5" s="131"/>
       <c r="J5" s="129" t="s">
         <v>14</v>
       </c>
       <c r="K5" s="130">
-        <v>612</v>
+        <v>702</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8182,9 +9262,15 @@
         <v>126</v>
       </c>
       <c r="C6" s="57"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="57"/>
+      <c r="D6" s="13">
+        <v>44855</v>
+      </c>
+      <c r="E6" s="53">
+        <v>207</v>
+      </c>
+      <c r="F6" s="57" t="s">
+        <v>10</v>
+      </c>
       <c r="G6" s="14">
         <v>44837</v>
       </c>
@@ -8199,79 +9285,170 @@
       </c>
       <c r="K6" s="130">
         <f>(K5-K4)*3+1600</f>
-        <v>1885</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="57"/>
+      <c r="A7" s="13">
+        <v>44838</v>
+      </c>
+      <c r="B7" s="53">
+        <v>174</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>10</v>
+      </c>
       <c r="D7" s="13"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="131"/>
+      <c r="E7" s="53">
+        <v>23</v>
+      </c>
+      <c r="F7" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="14">
+        <v>44839</v>
+      </c>
+      <c r="H7" s="97">
+        <v>2.4209999999999998</v>
+      </c>
+      <c r="I7" s="131" t="s">
+        <v>226</v>
+      </c>
       <c r="J7" s="129"/>
       <c r="K7" s="130"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="131"/>
+      <c r="A8" s="13">
+        <v>44840</v>
+      </c>
+      <c r="B8" s="53">
+        <v>100</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="13">
+        <v>44858</v>
+      </c>
+      <c r="E8" s="53">
+        <f>180+90+10</f>
+        <v>280</v>
+      </c>
+      <c r="F8" s="57" t="s">
+        <v>231</v>
+      </c>
+      <c r="G8" s="14">
+        <v>44841</v>
+      </c>
+      <c r="H8" s="97">
+        <v>250</v>
+      </c>
+      <c r="I8" s="131" t="s">
+        <v>227</v>
+      </c>
       <c r="J8" s="129"/>
       <c r="K8" s="130"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="97"/>
-      <c r="I9" s="131"/>
+      <c r="A9" s="13">
+        <v>44841</v>
+      </c>
+      <c r="B9" s="53">
+        <v>80</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="13">
+        <v>44861</v>
+      </c>
+      <c r="E9" s="53">
+        <v>250</v>
+      </c>
+      <c r="F9" s="57" t="s">
+        <v>233</v>
+      </c>
+      <c r="G9" s="14">
+        <v>44858</v>
+      </c>
+      <c r="H9" s="97">
+        <v>300</v>
+      </c>
+      <c r="I9" s="131" t="s">
+        <v>230</v>
+      </c>
       <c r="J9" s="129"/>
       <c r="K9" s="129"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="57"/>
+      <c r="B10" s="53">
+        <v>40</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="13">
+        <v>44862</v>
+      </c>
+      <c r="E10" s="53">
+        <v>50</v>
+      </c>
+      <c r="F10" s="57" t="s">
+        <v>234</v>
+      </c>
       <c r="G10" s="14"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="131"/>
+      <c r="H10" s="97">
+        <v>800</v>
+      </c>
+      <c r="I10" s="131" t="s">
+        <v>34</v>
+      </c>
       <c r="J10" s="129"/>
       <c r="K10" s="129"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="131"/>
+      <c r="B11" s="53">
+        <v>20</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="13">
+        <v>44865</v>
+      </c>
+      <c r="E11" s="53">
+        <f>140+8+14+15+10</f>
+        <v>187</v>
+      </c>
+      <c r="F11" s="57" t="s">
+        <v>236</v>
+      </c>
+      <c r="G11" s="14">
+        <v>44865</v>
+      </c>
+      <c r="H11" s="97">
+        <f>50-1.481+20</f>
+        <v>68.519000000000005</v>
+      </c>
+      <c r="I11" s="131" t="s">
+        <v>238</v>
+      </c>
       <c r="J11" s="129"/>
       <c r="K11" s="129"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="128"/>
+      <c r="A12" s="13">
+        <v>44845</v>
+      </c>
+      <c r="B12" s="53">
+        <v>50</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="13"/>
       <c r="E12" s="53"/>
       <c r="F12" s="57"/>
       <c r="G12" s="14"/>
@@ -8282,9 +9459,13 @@
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="128"/>
+      <c r="B13" s="53">
+        <v>20</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" s="13"/>
       <c r="E13" s="53"/>
       <c r="F13" s="57"/>
       <c r="G13" s="14"/>
@@ -8295,8 +9476,12 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="57"/>
+      <c r="B14" s="53">
+        <v>20</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>10</v>
+      </c>
       <c r="D14" s="128"/>
       <c r="E14" s="53"/>
       <c r="F14" s="57"/>
@@ -8307,22 +9492,38 @@
       <c r="K14" s="129"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="57"/>
+      <c r="A15" s="13">
+        <v>44846</v>
+      </c>
+      <c r="B15" s="53">
+        <v>50</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>228</v>
+      </c>
       <c r="D15" s="128"/>
       <c r="E15" s="53"/>
       <c r="F15" s="57"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="131"/>
+      <c r="G15" s="14">
+        <v>44865</v>
+      </c>
+      <c r="H15" s="97">
+        <v>5160</v>
+      </c>
+      <c r="I15" s="131" t="s">
+        <v>237</v>
+      </c>
       <c r="J15" s="129"/>
       <c r="K15" s="129"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="57"/>
+      <c r="B16" s="53">
+        <v>40</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>10</v>
+      </c>
       <c r="D16" s="128"/>
       <c r="E16" s="53"/>
       <c r="F16" s="57"/>
@@ -8333,9 +9534,15 @@
       <c r="K16" s="129"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="57"/>
+      <c r="A17" s="13">
+        <v>44848</v>
+      </c>
+      <c r="B17" s="53">
+        <v>16</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>10</v>
+      </c>
       <c r="D17" s="128"/>
       <c r="E17" s="53"/>
       <c r="F17" s="57"/>
@@ -8346,9 +9553,15 @@
       <c r="K17" s="129"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="57"/>
+      <c r="A18" s="13">
+        <v>44851</v>
+      </c>
+      <c r="B18" s="53">
+        <v>74</v>
+      </c>
+      <c r="C18" s="57" t="s">
+        <v>10</v>
+      </c>
       <c r="D18" s="128"/>
       <c r="E18" s="53"/>
       <c r="F18" s="57"/>
@@ -8360,85 +9573,95 @@
       <c r="L18" s="101"/>
     </row>
     <row r="19" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="58"/>
+      <c r="A19" s="16">
+        <v>44852</v>
+      </c>
+      <c r="B19" s="54">
+        <v>10</v>
+      </c>
+      <c r="C19" s="58" t="s">
+        <v>10</v>
+      </c>
       <c r="D19" s="17"/>
       <c r="E19" s="54"/>
       <c r="F19" s="58"/>
       <c r="G19" s="121"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="18"/>
+      <c r="H19" s="98">
+        <v>15001.5</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="J19" s="129"/>
       <c r="K19" s="129"/>
     </row>
     <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="148" t="s">
+      <c r="A20" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="149"/>
-      <c r="C20" s="149"/>
-      <c r="D20" s="139">
-        <v>3000</v>
-      </c>
-      <c r="E20" s="139"/>
-      <c r="F20" s="140"/>
+      <c r="B20" s="154"/>
+      <c r="C20" s="154"/>
+      <c r="D20" s="176">
+        <v>4800</v>
+      </c>
+      <c r="E20" s="176"/>
+      <c r="F20" s="177"/>
       <c r="G20" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H20" s="179">
+      <c r="H20" s="199">
         <v>52402.421000000002</v>
       </c>
-      <c r="I20" s="180"/>
+      <c r="I20" s="200"/>
       <c r="J20" s="113"/>
       <c r="K20" s="129"/>
     </row>
     <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="150" t="s">
+      <c r="A21" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="151"/>
-      <c r="C21" s="151"/>
-      <c r="D21" s="141">
+      <c r="B21" s="156"/>
+      <c r="C21" s="156"/>
+      <c r="D21" s="178">
         <f>SUM(B5:B19)+SUM(E5:E19)</f>
-        <v>2026</v>
-      </c>
-      <c r="E21" s="141"/>
-      <c r="F21" s="142"/>
+        <v>3767</v>
+      </c>
+      <c r="E21" s="178"/>
+      <c r="F21" s="179"/>
       <c r="G21" s="20" t="s">
         <v>193</v>
       </c>
       <c r="H21" s="132">
         <f>H5</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="114">
-        <f>SUM(H6:H19)</f>
-        <v>3000</v>
+        <v>15851.5</v>
+      </c>
+      <c r="I21" s="133">
+        <f>SUM(H6:H18)</f>
+        <v>9580.94</v>
       </c>
       <c r="J21" s="113"/>
       <c r="K21" s="129"/>
     </row>
     <row r="22" spans="1:12" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="152" t="s">
+      <c r="A22" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="153"/>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154">
+      <c r="B22" s="158"/>
+      <c r="C22" s="158"/>
+      <c r="D22" s="159">
         <f>D20-D21</f>
-        <v>974</v>
-      </c>
-      <c r="E22" s="154"/>
-      <c r="F22" s="155"/>
+        <v>1033</v>
+      </c>
+      <c r="E22" s="159"/>
+      <c r="F22" s="160"/>
       <c r="G22" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="177">
-        <f>H20+H21-I21</f>
-        <v>49402.421000000002</v>
-      </c>
-      <c r="I22" s="178"/>
+      <c r="H22" s="197">
+        <f>H20+H21-SUM(H6:H19)</f>
+        <v>43671.481</v>
+      </c>
+      <c r="I22" s="198"/>
       <c r="J22" s="113"/>
       <c r="K22" s="129"/>
     </row>
@@ -8462,11 +9685,1213 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE9B2B7-1CE7-40E2-8A01-742CFA487C2D}">
+  <dimension ref="A1:L22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="11.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2"/>
+    <col min="6" max="6" width="13.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9" style="2"/>
+    <col min="8" max="8" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10" style="2" customWidth="1"/>
+    <col min="12" max="12" width="18.875" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="189" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="190"/>
+      <c r="K1" s="191"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="192"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="194"/>
+    </row>
+    <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="168" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="195" t="s">
+        <v>192</v>
+      </c>
+      <c r="K3" s="196"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="136" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="137">
+        <v>702</v>
+      </c>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13">
+        <v>44866</v>
+      </c>
+      <c r="B5" s="53">
+        <v>1930</v>
+      </c>
+      <c r="C5" s="140" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="97">
+        <f>16148.5+15065.205</f>
+        <v>31213.705000000002</v>
+      </c>
+      <c r="I5" s="135"/>
+      <c r="J5" s="136" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="137">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13">
+        <v>44866</v>
+      </c>
+      <c r="B6" s="53">
+        <v>43</v>
+      </c>
+      <c r="C6" s="140" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="14">
+        <v>44866</v>
+      </c>
+      <c r="H6" s="97">
+        <f>3000-795</f>
+        <v>2205</v>
+      </c>
+      <c r="I6" s="135" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="136" t="s">
+        <v>116</v>
+      </c>
+      <c r="K6" s="137">
+        <f>(K5-K4)*3+1700</f>
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13"/>
+      <c r="B7" s="53">
+        <v>119</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="14">
+        <v>44873</v>
+      </c>
+      <c r="H7" s="97">
+        <v>66.480999999999995</v>
+      </c>
+      <c r="I7" s="135" t="s">
+        <v>239</v>
+      </c>
+      <c r="J7" s="136"/>
+      <c r="K7" s="137"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
+        <v>44872</v>
+      </c>
+      <c r="B8" s="53">
+        <v>70</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="97">
+        <v>400</v>
+      </c>
+      <c r="I8" s="135" t="s">
+        <v>240</v>
+      </c>
+      <c r="J8" s="136"/>
+      <c r="K8" s="137"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13"/>
+      <c r="B9" s="53">
+        <v>73</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="14">
+        <v>44874</v>
+      </c>
+      <c r="H9" s="97">
+        <v>500</v>
+      </c>
+      <c r="I9" s="135"/>
+      <c r="J9" s="136"/>
+      <c r="K9" s="136"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13"/>
+      <c r="B10" s="53">
+        <v>3</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="14">
+        <v>44879</v>
+      </c>
+      <c r="H10" s="97">
+        <v>169</v>
+      </c>
+      <c r="I10" s="135" t="s">
+        <v>248</v>
+      </c>
+      <c r="J10" s="136"/>
+      <c r="K10" s="136"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13">
+        <v>44874</v>
+      </c>
+      <c r="B11" s="53">
+        <v>15</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="135"/>
+      <c r="J11" s="136"/>
+      <c r="K11" s="136"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13">
+        <v>44875</v>
+      </c>
+      <c r="B12" s="53">
+        <v>15</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="136"/>
+      <c r="K12" s="136"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13"/>
+      <c r="B13" s="53">
+        <v>24</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="135"/>
+      <c r="J13" s="136"/>
+      <c r="K13" s="136"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
+        <v>44876</v>
+      </c>
+      <c r="B14" s="53">
+        <v>90</v>
+      </c>
+      <c r="C14" s="57"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="135"/>
+      <c r="J14" s="136"/>
+      <c r="K14" s="136"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="13">
+        <v>44879</v>
+      </c>
+      <c r="B15" s="53">
+        <f>45+5+56+50</f>
+        <v>156</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>249</v>
+      </c>
+      <c r="D15" s="138"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="135"/>
+      <c r="J15" s="136"/>
+      <c r="K15" s="136"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="13"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="136"/>
+      <c r="K16" s="136"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="13"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="135"/>
+      <c r="J17" s="136"/>
+      <c r="K17" s="136"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="13"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="138"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="135"/>
+      <c r="J18" s="122"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="101"/>
+    </row>
+    <row r="19" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="121"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="136"/>
+      <c r="K19" s="136"/>
+    </row>
+    <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="153" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="154"/>
+      <c r="C20" s="154"/>
+      <c r="D20" s="176">
+        <f>3033-795+500</f>
+        <v>2738</v>
+      </c>
+      <c r="E20" s="176"/>
+      <c r="F20" s="177"/>
+      <c r="G20" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="199">
+        <v>43671.481</v>
+      </c>
+      <c r="I20" s="200"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="136"/>
+    </row>
+    <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="155" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="156"/>
+      <c r="C21" s="156"/>
+      <c r="D21" s="178">
+        <f>SUM(B5:B19)+SUM(E5:E19)</f>
+        <v>2538</v>
+      </c>
+      <c r="E21" s="178"/>
+      <c r="F21" s="179"/>
+      <c r="G21" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="H21" s="139">
+        <f>H5</f>
+        <v>31213.705000000002</v>
+      </c>
+      <c r="I21" s="133">
+        <f>SUM(H6:H18)</f>
+        <v>3340.4809999999998</v>
+      </c>
+      <c r="J21" s="113"/>
+      <c r="K21" s="136"/>
+    </row>
+    <row r="22" spans="1:12" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="157" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="158"/>
+      <c r="C22" s="158"/>
+      <c r="D22" s="159">
+        <f>D20-D21</f>
+        <v>200</v>
+      </c>
+      <c r="E22" s="159"/>
+      <c r="F22" s="160"/>
+      <c r="G22" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="197">
+        <f>H20+H21-SUM(H6:H19)</f>
+        <v>71544.705000000002</v>
+      </c>
+      <c r="I22" s="198"/>
+      <c r="J22" s="113"/>
+      <c r="K22" s="136"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="H20:I20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="9" width="9" style="2"/>
+    <col min="10" max="10" width="11.375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10" style="2" customWidth="1"/>
+    <col min="12" max="12" width="18.875" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="167" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="166">
+        <f>D26-B7</f>
+        <v>4173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="169"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="166"/>
+    </row>
+    <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="168" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="11">
+        <f>DATEDIF(A5,D7,"d")+1</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="12">
+        <f>K1/K3</f>
+        <v>83.46</v>
+      </c>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>44326</v>
+      </c>
+      <c r="B5" s="6">
+        <v>300</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="13">
+        <v>44371</v>
+      </c>
+      <c r="E5" s="22">
+        <f>21+25</f>
+        <v>46</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25">
+        <v>-0.127</v>
+      </c>
+      <c r="I5" s="25"/>
+      <c r="J5" s="167"/>
+      <c r="K5" s="167"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6">
+        <v>30</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="13">
+        <v>44372</v>
+      </c>
+      <c r="E6" s="22">
+        <v>-64</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="14">
+        <v>44314</v>
+      </c>
+      <c r="H6" s="25">
+        <v>200</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="167"/>
+      <c r="K6" s="167"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="13">
+        <v>44329</v>
+      </c>
+      <c r="B7" s="22">
+        <f>290-50+87</f>
+        <v>327</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="13">
+        <v>44375</v>
+      </c>
+      <c r="E7" s="22">
+        <v>79</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="14">
+        <v>44321</v>
+      </c>
+      <c r="H7" s="25">
+        <v>1500</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="167"/>
+      <c r="K7" s="167"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
+        <v>44332</v>
+      </c>
+      <c r="B8" s="22">
+        <v>43</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="14">
+        <v>44324</v>
+      </c>
+      <c r="H8" s="25">
+        <v>100</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="167"/>
+      <c r="K8" s="167"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="13">
+        <v>44333</v>
+      </c>
+      <c r="B9" s="22">
+        <v>200</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="14">
+        <v>44326</v>
+      </c>
+      <c r="H9" s="25">
+        <v>-6937.5</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="167"/>
+      <c r="K9" s="167"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="13">
+        <v>44352</v>
+      </c>
+      <c r="B10" s="22">
+        <v>715</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25">
+        <v>500</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="167"/>
+      <c r="K10" s="167"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="13">
+        <v>44355</v>
+      </c>
+      <c r="B11" s="22">
+        <f>42+18+17+39</f>
+        <v>116</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="14">
+        <v>44352</v>
+      </c>
+      <c r="H11" s="25">
+        <f>110+4000+100+5839.702-0.279+170</f>
+        <v>10219.423000000001</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="167"/>
+      <c r="K11" s="167"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="13"/>
+      <c r="B12" s="22">
+        <f>25+44</f>
+        <v>69</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="14">
+        <v>44357</v>
+      </c>
+      <c r="H12" s="26">
+        <v>-6937.5</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="167"/>
+      <c r="K12" s="167"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="13">
+        <v>44357</v>
+      </c>
+      <c r="B13" s="22">
+        <f>15+38-4</f>
+        <v>49</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25">
+        <v>90</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="167"/>
+      <c r="K13" s="167"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
+        <v>44359</v>
+      </c>
+      <c r="B14" s="22">
+        <v>1830</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25">
+        <v>50</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="167"/>
+      <c r="K14" s="167"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="13"/>
+      <c r="B15" s="22">
+        <f>42+25</f>
+        <v>67</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="14">
+        <v>44361</v>
+      </c>
+      <c r="H15" s="25">
+        <v>-400</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="167"/>
+      <c r="K15" s="167"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="13">
+        <v>44360</v>
+      </c>
+      <c r="B16" s="22">
+        <f>25+40+34+25</f>
+        <v>124</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="14">
+        <v>44364</v>
+      </c>
+      <c r="H16" s="25">
+        <v>-58.396999999999998</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" s="167"/>
+      <c r="K16" s="167"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="13">
+        <v>44361</v>
+      </c>
+      <c r="B17" s="22">
+        <f>38+16</f>
+        <v>54</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="14">
+        <v>44371</v>
+      </c>
+      <c r="H17" s="25">
+        <v>120</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" s="167"/>
+      <c r="K17" s="167"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="13">
+        <v>44362</v>
+      </c>
+      <c r="B18" s="22">
+        <v>20</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="14">
+        <v>44372</v>
+      </c>
+      <c r="H18" s="25">
+        <v>200</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="167"/>
+      <c r="K18" s="167"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="13">
+        <v>44364</v>
+      </c>
+      <c r="B19" s="22">
+        <v>109</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="14">
+        <v>44375</v>
+      </c>
+      <c r="H19" s="25">
+        <f>-0.158+3000</f>
+        <v>2999.8420000000001</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="24">
+        <v>8058</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="13"/>
+      <c r="B20" s="22">
+        <v>42</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="24">
+        <v>8140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="13">
+        <v>44365</v>
+      </c>
+      <c r="B21" s="22">
+        <v>108</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="24">
+        <f>K20-K19</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="22"/>
+      <c r="B22" s="22">
+        <v>37</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="K22" s="24">
+        <f>K21*3.5</f>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="13">
+        <v>44368</v>
+      </c>
+      <c r="B23" s="22">
+        <f>50+55+20</f>
+        <v>125</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="24">
+        <f>1400+130</f>
+        <v>1530</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16">
+        <v>44369</v>
+      </c>
+      <c r="B24" s="17">
+        <f>40+34</f>
+        <v>74</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="23">
+        <f>K23+K22</f>
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="153" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="154"/>
+      <c r="C25" s="154"/>
+      <c r="D25" s="176">
+        <f>1600+2900+3000</f>
+        <v>7500</v>
+      </c>
+      <c r="E25" s="176"/>
+      <c r="F25" s="177"/>
+      <c r="G25" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="161">
+        <v>7431.75</v>
+      </c>
+      <c r="I25" s="162"/>
+      <c r="J25" s="172" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="173"/>
+    </row>
+    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="155" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="156"/>
+      <c r="C26" s="156"/>
+      <c r="D26" s="178">
+        <f>SUM(B5:B24)+SUM(E5:E24)</f>
+        <v>4500</v>
+      </c>
+      <c r="E26" s="178"/>
+      <c r="F26" s="179"/>
+      <c r="G26" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="163">
+        <f>SUM(H5:H24)</f>
+        <v>1645.7410000000004</v>
+      </c>
+      <c r="I26" s="164"/>
+      <c r="J26" s="174">
+        <f>D27+H27</f>
+        <v>8786.009</v>
+      </c>
+      <c r="K26" s="175"/>
+    </row>
+    <row r="27" spans="1:12" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="157" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="158"/>
+      <c r="C27" s="158"/>
+      <c r="D27" s="159">
+        <f>D25-D26-L24</f>
+        <v>3000</v>
+      </c>
+      <c r="E27" s="159"/>
+      <c r="F27" s="160"/>
+      <c r="G27" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="170">
+        <f>H25-H26</f>
+        <v>5786.009</v>
+      </c>
+      <c r="I27" s="171"/>
+      <c r="J27" s="174"/>
+      <c r="K27" s="175"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="J5:K18"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K27"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:F27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8958,13 +11383,19 @@
       <c r="A20" s="66">
         <v>10</v>
       </c>
-      <c r="B20" s="73"/>
+      <c r="B20" s="99">
+        <f>Tháng_10_22!I21-5160</f>
+        <v>4420.9400000000005</v>
+      </c>
     </row>
     <row r="21" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="66">
         <v>11</v>
       </c>
-      <c r="B21" s="74"/>
+      <c r="B21" s="99">
+        <f>Tháng_11_22!I21</f>
+        <v>3340.4809999999998</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -9045,8 +11476,8 @@
     <row r="27" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1">
-        <f>AVERAGE(B2:B19)</f>
-        <v>3573.8733333333334</v>
+        <f>AVERAGE(B2:B20)</f>
+        <v>3618.4557894736845</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -10047,725 +12478,496 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L27"/>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A68A7E-F097-4085-B2D7-209459DBD406}">
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K2"/>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="9" width="9" style="2"/>
-    <col min="10" max="10" width="11.375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10" style="2" customWidth="1"/>
-    <col min="12" max="12" width="18.875" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="147" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="145" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="144">
-        <f>D26-B7</f>
-        <v>4173</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="147"/>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="144"/>
-    </row>
-    <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="146" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="11">
-        <f>DATEDIF(A5,D7,"d")+1</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+    <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B1" s="142" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1" s="143">
+        <f>(Tháng_11_22!H22+15000+50000)/1000</f>
+        <v>136.54470500000002</v>
+      </c>
+      <c r="D1" s="141">
+        <f>C2-C1</f>
+        <v>682.45529499999998</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="142" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2" s="142">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="142" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="144">
+        <f>C1/C2*100</f>
+        <v>16.672125152625156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="207" t="s">
+        <v>246</v>
+      </c>
+      <c r="B5" s="208"/>
+      <c r="C5" s="209"/>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="149" t="s">
+        <v>247</v>
+      </c>
+      <c r="B6" s="150" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" s="150" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="148">
+        <v>2022</v>
+      </c>
+      <c r="B7" s="152">
+        <v>12</v>
+      </c>
+      <c r="C7" s="147">
+        <f>121.5+12.5</f>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="201">
+        <v>2023</v>
+      </c>
+      <c r="B8" s="151">
+        <v>1</v>
+      </c>
+      <c r="C8" s="146">
+        <f>C7+12.5</f>
+        <v>146.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="202"/>
+      <c r="B9" s="151">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C9" s="146">
+        <f>C8+12.5+5+16+4</f>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="202"/>
+      <c r="B10" s="151">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C10" s="146">
+        <f>C9+12.5</f>
+        <v>196.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="202"/>
+      <c r="B11" s="151">
         <v>4</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="C11" s="146">
+        <f>C10+12.5</f>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="202"/>
+      <c r="B12" s="151">
+        <v>5</v>
+      </c>
+      <c r="C12" s="146">
+        <f>C11+12.5</f>
+        <v>221.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="202"/>
+      <c r="B13" s="151">
+        <v>6</v>
+      </c>
+      <c r="C13" s="146">
+        <f t="shared" ref="C13:C15" si="0">C12+12.5</f>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="202"/>
+      <c r="B14" s="151">
+        <v>7</v>
+      </c>
+      <c r="C14" s="146">
+        <f t="shared" si="0"/>
+        <v>246.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="202"/>
+      <c r="B15" s="151">
+        <v>8</v>
+      </c>
+      <c r="C15" s="146">
+        <f t="shared" si="0"/>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="202"/>
+      <c r="B16" s="151">
+        <v>9</v>
+      </c>
+      <c r="C16" s="146">
+        <f>C15+20</f>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="202"/>
+      <c r="B17" s="151">
+        <v>10</v>
+      </c>
+      <c r="C17" s="146">
+        <f t="shared" ref="C17:C39" si="1">C16+20</f>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="202"/>
+      <c r="B18" s="151">
+        <v>11</v>
+      </c>
+      <c r="C18" s="146">
+        <f t="shared" si="1"/>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="203"/>
+      <c r="B19" s="151">
+        <v>12</v>
+      </c>
+      <c r="C19" s="146">
+        <f t="shared" si="1"/>
+        <v>339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="204">
+        <v>2024</v>
+      </c>
+      <c r="B20" s="152">
+        <v>1</v>
+      </c>
+      <c r="C20" s="147">
+        <f t="shared" si="1"/>
+        <v>359</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="205"/>
+      <c r="B21" s="152">
         <v>2</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="C21" s="147">
+        <f t="shared" si="1"/>
+        <v>379</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="205"/>
+      <c r="B22" s="152">
         <v>3</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="C22" s="147">
+        <f t="shared" si="1"/>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="205"/>
+      <c r="B23" s="152">
         <v>4</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="C23" s="147">
+        <f t="shared" si="1"/>
+        <v>419</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="205"/>
+      <c r="B24" s="152">
+        <v>5</v>
+      </c>
+      <c r="C24" s="147">
+        <f t="shared" si="1"/>
+        <v>439</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="205"/>
+      <c r="B25" s="152">
+        <v>6</v>
+      </c>
+      <c r="C25" s="147">
+        <f t="shared" si="1"/>
+        <v>459</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="205"/>
+      <c r="B26" s="152">
+        <v>7</v>
+      </c>
+      <c r="C26" s="147">
+        <f t="shared" si="1"/>
+        <v>479</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="205"/>
+      <c r="B27" s="152">
+        <v>8</v>
+      </c>
+      <c r="C27" s="147">
+        <f t="shared" si="1"/>
+        <v>499</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="205"/>
+      <c r="B28" s="152">
+        <v>9</v>
+      </c>
+      <c r="C28" s="147">
+        <f t="shared" si="1"/>
+        <v>519</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="205"/>
+      <c r="B29" s="152">
+        <v>10</v>
+      </c>
+      <c r="C29" s="147">
+        <f t="shared" si="1"/>
+        <v>539</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="205"/>
+      <c r="B30" s="152">
+        <v>11</v>
+      </c>
+      <c r="C30" s="147">
+        <f t="shared" si="1"/>
+        <v>559</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="206"/>
+      <c r="B31" s="152">
+        <v>12</v>
+      </c>
+      <c r="C31" s="147">
+        <f t="shared" si="1"/>
+        <v>579</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="201">
+        <v>2025</v>
+      </c>
+      <c r="B32" s="151">
+        <v>1</v>
+      </c>
+      <c r="C32" s="146">
+        <f t="shared" si="1"/>
+        <v>599</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="202"/>
+      <c r="B33" s="151">
         <v>2</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="C33" s="146">
+        <f t="shared" si="1"/>
+        <v>619</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="202"/>
+      <c r="B34" s="151">
         <v>3</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="C34" s="146">
+        <f>C33+20</f>
+        <v>639</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="202"/>
+      <c r="B35" s="151">
         <v>4</v>
       </c>
-      <c r="J4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="12">
-        <f>K1/K3</f>
-        <v>83.46</v>
-      </c>
-      <c r="L4" s="10"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>44326</v>
-      </c>
-      <c r="B5" s="6">
-        <v>300</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="C35" s="146">
+        <f t="shared" si="1"/>
+        <v>659</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="202"/>
+      <c r="B36" s="151">
+        <v>5</v>
+      </c>
+      <c r="C36" s="146">
+        <f t="shared" si="1"/>
+        <v>679</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="202"/>
+      <c r="B37" s="151">
+        <v>6</v>
+      </c>
+      <c r="C37" s="146">
+        <f t="shared" si="1"/>
+        <v>699</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="202"/>
+      <c r="B38" s="151">
+        <v>7</v>
+      </c>
+      <c r="C38" s="146">
+        <f>C37+20</f>
+        <v>719</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="202"/>
+      <c r="B39" s="151">
+        <v>8</v>
+      </c>
+      <c r="C39" s="146">
+        <f t="shared" si="1"/>
+        <v>739</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="202"/>
+      <c r="B40" s="151">
         <v>9</v>
       </c>
-      <c r="D5" s="13">
-        <v>44371</v>
-      </c>
-      <c r="E5" s="22">
-        <f>21+25</f>
-        <v>46</v>
-      </c>
-      <c r="F5" s="22" t="s">
+      <c r="C40" s="146">
+        <f>C39+20</f>
+        <v>759</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="202"/>
+      <c r="B41" s="151">
         <v>10</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25">
-        <v>-0.127</v>
-      </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="145"/>
-      <c r="K5" s="145"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6">
-        <v>30</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="13">
-        <v>44372</v>
-      </c>
-      <c r="E6" s="22">
-        <v>-64</v>
-      </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="14">
-        <v>44314</v>
-      </c>
-      <c r="H6" s="25">
-        <v>200</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="145"/>
-      <c r="K6" s="145"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
-        <v>44329</v>
-      </c>
-      <c r="B7" s="22">
-        <f>290-50+87</f>
-        <v>327</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="13">
-        <v>44375</v>
-      </c>
-      <c r="E7" s="22">
-        <v>79</v>
-      </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="14">
-        <v>44321</v>
-      </c>
-      <c r="H7" s="25">
-        <v>1500</v>
-      </c>
-      <c r="I7" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="145"/>
-      <c r="K7" s="145"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="13">
-        <v>44332</v>
-      </c>
-      <c r="B8" s="22">
-        <v>43</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="14">
-        <v>44324</v>
-      </c>
-      <c r="H8" s="25">
-        <v>100</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="145"/>
-      <c r="K8" s="145"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="13">
-        <v>44333</v>
-      </c>
-      <c r="B9" s="22">
-        <v>200</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="14">
-        <v>44326</v>
-      </c>
-      <c r="H9" s="25">
-        <v>-6937.5</v>
-      </c>
-      <c r="I9" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="145"/>
-      <c r="K9" s="145"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="13">
-        <v>44352</v>
-      </c>
-      <c r="B10" s="22">
-        <v>715</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25">
-        <v>500</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" s="145"/>
-      <c r="K10" s="145"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
-        <v>44355</v>
-      </c>
-      <c r="B11" s="22">
-        <f>42+18+17+39</f>
-        <v>116</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="14">
-        <v>44352</v>
-      </c>
-      <c r="H11" s="25">
-        <f>110+4000+100+5839.702-0.279+170</f>
-        <v>10219.423000000001</v>
-      </c>
-      <c r="I11" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" s="145"/>
-      <c r="K11" s="145"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
-      <c r="B12" s="22">
-        <f>25+44</f>
-        <v>69</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="14">
-        <v>44357</v>
-      </c>
-      <c r="H12" s="26">
-        <v>-6937.5</v>
-      </c>
-      <c r="I12" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="145"/>
-      <c r="K12" s="145"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
-        <v>44357</v>
-      </c>
-      <c r="B13" s="22">
-        <f>15+38-4</f>
-        <v>49</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25">
-        <v>90</v>
-      </c>
-      <c r="I13" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="J13" s="145"/>
-      <c r="K13" s="145"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
-        <v>44359</v>
-      </c>
-      <c r="B14" s="22">
-        <v>1830</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25">
-        <v>50</v>
-      </c>
-      <c r="I14" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="J14" s="145"/>
-      <c r="K14" s="145"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
-      <c r="B15" s="22">
-        <f>42+25</f>
-        <v>67</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="14">
-        <v>44361</v>
-      </c>
-      <c r="H15" s="25">
-        <v>-400</v>
-      </c>
-      <c r="I15" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="J15" s="145"/>
-      <c r="K15" s="145"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="13">
-        <v>44360</v>
-      </c>
-      <c r="B16" s="22">
-        <f>25+40+34+25</f>
-        <v>124</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="14">
-        <v>44364</v>
-      </c>
-      <c r="H16" s="25">
-        <v>-58.396999999999998</v>
-      </c>
-      <c r="I16" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="J16" s="145"/>
-      <c r="K16" s="145"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="13">
-        <v>44361</v>
-      </c>
-      <c r="B17" s="22">
-        <f>38+16</f>
-        <v>54</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="14">
-        <v>44371</v>
-      </c>
-      <c r="H17" s="25">
-        <v>120</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="J17" s="145"/>
-      <c r="K17" s="145"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="13">
-        <v>44362</v>
-      </c>
-      <c r="B18" s="22">
-        <v>20</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="14">
-        <v>44372</v>
-      </c>
-      <c r="H18" s="25">
-        <v>200</v>
-      </c>
-      <c r="I18" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" s="145"/>
-      <c r="K18" s="145"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="13">
-        <v>44364</v>
-      </c>
-      <c r="B19" s="22">
-        <v>109</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="14">
-        <v>44375</v>
-      </c>
-      <c r="H19" s="25">
-        <f>-0.158+3000</f>
-        <v>2999.8420000000001</v>
-      </c>
-      <c r="I19" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="J19" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="K19" s="24">
-        <v>8058</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="22">
-        <v>42</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="K20" s="24">
-        <v>8140</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="13">
-        <v>44365</v>
-      </c>
-      <c r="B21" s="22">
-        <v>108</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="K21" s="24">
-        <f>K20-K19</f>
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22">
-        <v>37</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="K22" s="24">
-        <f>K21*3.5</f>
-        <v>287</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="13">
-        <v>44368</v>
-      </c>
-      <c r="B23" s="22">
-        <f>50+55+20</f>
-        <v>125</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K23" s="24">
-        <f>1400+130</f>
-        <v>1530</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16">
-        <v>44369</v>
-      </c>
-      <c r="B24" s="17">
-        <f>40+34</f>
-        <v>74</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="K24" s="23">
-        <f>K23+K22</f>
-        <v>1817</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="148" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="149"/>
-      <c r="C25" s="149"/>
-      <c r="D25" s="139">
-        <f>1600+2900+3000</f>
-        <v>7500</v>
-      </c>
-      <c r="E25" s="139"/>
-      <c r="F25" s="140"/>
-      <c r="G25" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H25" s="156">
-        <v>7431.75</v>
-      </c>
-      <c r="I25" s="157"/>
-      <c r="J25" s="135" t="s">
-        <v>23</v>
-      </c>
-      <c r="K25" s="136"/>
-    </row>
-    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="150" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="151"/>
-      <c r="C26" s="151"/>
-      <c r="D26" s="141">
-        <f>SUM(B5:B24)+SUM(E5:E24)</f>
-        <v>4500</v>
-      </c>
-      <c r="E26" s="141"/>
-      <c r="F26" s="142"/>
-      <c r="G26" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" s="158">
-        <f>SUM(H5:H24)</f>
-        <v>1645.7410000000004</v>
-      </c>
-      <c r="I26" s="159"/>
-      <c r="J26" s="137">
-        <f>D27+H27</f>
-        <v>8786.009</v>
-      </c>
-      <c r="K26" s="138"/>
-    </row>
-    <row r="27" spans="1:12" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="152" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="153"/>
-      <c r="C27" s="153"/>
-      <c r="D27" s="154">
-        <f>D25-D26-L24</f>
-        <v>3000</v>
-      </c>
-      <c r="E27" s="154"/>
-      <c r="F27" s="155"/>
-      <c r="G27" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="133">
-        <f>H25-H26</f>
-        <v>5786.009</v>
-      </c>
-      <c r="I27" s="134"/>
-      <c r="J27" s="137"/>
-      <c r="K27" s="138"/>
+      <c r="C41" s="146">
+        <f>C40+20</f>
+        <v>779</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="202"/>
+      <c r="B42" s="151">
+        <v>11</v>
+      </c>
+      <c r="C42" s="146">
+        <f t="shared" ref="C42:C43" si="2">C41+20</f>
+        <v>799</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="203"/>
+      <c r="B43" s="151">
+        <v>12</v>
+      </c>
+      <c r="C43" s="146">
+        <f t="shared" si="2"/>
+        <v>819</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C44" s="145"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C45" s="145"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C46" s="145"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C47" s="145"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C48" s="145"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C49" s="145"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C50" s="145"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C51" s="145"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C52" s="145"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="J5:K18"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K27"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:F27"/>
+  <mergeCells count="4">
+    <mergeCell ref="A8:A19"/>
+    <mergeCell ref="A20:A31"/>
+    <mergeCell ref="A32:A43"/>
+    <mergeCell ref="A5:C5"/>
   </mergeCells>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="C9" formula="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1573CC19-198F-48CD-8002-17E41717BCB9}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10834,6 +13036,22 @@
       </c>
       <c r="B7">
         <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="134" t="s">
+        <v>232</v>
+      </c>
+      <c r="B8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="134" t="s">
+        <v>235</v>
+      </c>
+      <c r="B9">
+        <v>5160</v>
       </c>
     </row>
   </sheetData>
@@ -10859,52 +13077,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="169" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="145" t="s">
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="167" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="144">
+      <c r="K1" s="166">
         <f>D26-B15-B8-B12-B16-B9-B11-E5</f>
         <v>3395</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="147"/>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="144"/>
+      <c r="A2" s="169"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="166"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146" t="s">
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
       <c r="J3" s="30" t="s">
         <v>25</v>
       </c>
@@ -10977,8 +13195,8 @@
       <c r="I5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="145"/>
-      <c r="K5" s="145"/>
+      <c r="J5" s="167"/>
+      <c r="K5" s="167"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
@@ -11010,8 +13228,8 @@
       <c r="I6" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="145"/>
-      <c r="K6" s="145"/>
+      <c r="J6" s="167"/>
+      <c r="K6" s="167"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
@@ -11040,8 +13258,8 @@
       <c r="I7" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="J7" s="145"/>
-      <c r="K7" s="145"/>
+      <c r="J7" s="167"/>
+      <c r="K7" s="167"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
@@ -11063,8 +13281,8 @@
       <c r="G8" s="14"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
-      <c r="J8" s="145"/>
-      <c r="K8" s="145"/>
+      <c r="J8" s="167"/>
+      <c r="K8" s="167"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
@@ -11084,8 +13302,8 @@
       <c r="G9" s="14"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="145"/>
-      <c r="K9" s="145"/>
+      <c r="J9" s="167"/>
+      <c r="K9" s="167"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
@@ -11107,8 +13325,8 @@
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="145"/>
-      <c r="K10" s="145"/>
+      <c r="J10" s="167"/>
+      <c r="K10" s="167"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
@@ -11132,8 +13350,8 @@
       <c r="G11" s="14"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
-      <c r="J11" s="145"/>
-      <c r="K11" s="145"/>
+      <c r="J11" s="167"/>
+      <c r="K11" s="167"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
@@ -11154,8 +13372,8 @@
       <c r="G12" s="14"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="145"/>
-      <c r="K12" s="145"/>
+      <c r="J12" s="167"/>
+      <c r="K12" s="167"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
@@ -11177,8 +13395,8 @@
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="145"/>
-      <c r="K13" s="145"/>
+      <c r="J13" s="167"/>
+      <c r="K13" s="167"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
@@ -11202,8 +13420,8 @@
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
-      <c r="J14" s="145"/>
-      <c r="K14" s="145"/>
+      <c r="J14" s="167"/>
+      <c r="K14" s="167"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
@@ -11226,8 +13444,8 @@
       <c r="G15" s="14"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
-      <c r="J15" s="145"/>
-      <c r="K15" s="145"/>
+      <c r="J15" s="167"/>
+      <c r="K15" s="167"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
@@ -11245,8 +13463,8 @@
       <c r="G16" s="14"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
-      <c r="J16" s="145"/>
-      <c r="K16" s="145"/>
+      <c r="J16" s="167"/>
+      <c r="K16" s="167"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
@@ -11262,8 +13480,8 @@
       <c r="G17" s="14"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
-      <c r="J17" s="145"/>
-      <c r="K17" s="145"/>
+      <c r="J17" s="167"/>
+      <c r="K17" s="167"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
@@ -11279,8 +13497,8 @@
       <c r="G18" s="14"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="145"/>
-      <c r="K18" s="145"/>
+      <c r="J18" s="167"/>
+      <c r="K18" s="167"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
@@ -11424,76 +13642,76 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="148" t="s">
+      <c r="A25" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="149"/>
-      <c r="C25" s="149"/>
-      <c r="D25" s="139">
+      <c r="B25" s="154"/>
+      <c r="C25" s="154"/>
+      <c r="D25" s="176">
         <v>3500</v>
       </c>
-      <c r="E25" s="139"/>
-      <c r="F25" s="140"/>
+      <c r="E25" s="176"/>
+      <c r="F25" s="177"/>
       <c r="G25" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H25" s="160">
+      <c r="H25" s="180">
         <v>12239.388999999999</v>
       </c>
-      <c r="I25" s="161"/>
-      <c r="J25" s="135" t="s">
+      <c r="I25" s="181"/>
+      <c r="J25" s="172" t="s">
         <v>23</v>
       </c>
-      <c r="K25" s="136"/>
+      <c r="K25" s="173"/>
     </row>
     <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="150" t="s">
+      <c r="A26" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="151"/>
-      <c r="C26" s="151"/>
-      <c r="D26" s="141">
+      <c r="B26" s="156"/>
+      <c r="C26" s="156"/>
+      <c r="D26" s="178">
         <f>SUM(B5:B24)+SUM(E5:E24)</f>
         <v>3390</v>
       </c>
-      <c r="E26" s="141"/>
-      <c r="F26" s="142"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="179"/>
       <c r="G26" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="158">
+      <c r="H26" s="163">
         <f>SUM(H5:H24)</f>
         <v>384</v>
       </c>
-      <c r="I26" s="159"/>
-      <c r="J26" s="137">
+      <c r="I26" s="164"/>
+      <c r="J26" s="174">
         <f>D27+H27</f>
         <v>11965.388999999999</v>
       </c>
-      <c r="K26" s="138"/>
+      <c r="K26" s="175"/>
     </row>
     <row r="27" spans="1:12" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="152" t="s">
+      <c r="A27" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="153"/>
-      <c r="C27" s="153"/>
-      <c r="D27" s="154">
+      <c r="B27" s="158"/>
+      <c r="C27" s="158"/>
+      <c r="D27" s="159">
         <f>D25-D26-L24</f>
         <v>110</v>
       </c>
-      <c r="E27" s="154"/>
-      <c r="F27" s="155"/>
+      <c r="E27" s="159"/>
+      <c r="F27" s="160"/>
       <c r="G27" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="133">
+      <c r="H27" s="170">
         <f>H25-H26</f>
         <v>11855.388999999999</v>
       </c>
-      <c r="I27" s="134"/>
-      <c r="J27" s="137"/>
-      <c r="K27" s="138"/>
+      <c r="I27" s="171"/>
+      <c r="J27" s="174"/>
+      <c r="K27" s="175"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -11537,52 +13755,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="169" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="145" t="s">
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="167" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="144">
+      <c r="K1" s="166">
         <f>D26-B10</f>
         <v>2641</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="147"/>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="144"/>
+      <c r="A2" s="169"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="166"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146" t="s">
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
       <c r="J3" s="35" t="s">
         <v>25</v>
       </c>
@@ -11650,8 +13868,8 @@
       <c r="I5" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="145"/>
-      <c r="K5" s="145"/>
+      <c r="J5" s="167"/>
+      <c r="K5" s="167"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
@@ -11676,8 +13894,8 @@
       <c r="I6" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="145"/>
-      <c r="K6" s="145"/>
+      <c r="J6" s="167"/>
+      <c r="K6" s="167"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
@@ -11700,8 +13918,8 @@
       <c r="I7" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="J7" s="145"/>
-      <c r="K7" s="145"/>
+      <c r="J7" s="167"/>
+      <c r="K7" s="167"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
@@ -11723,8 +13941,8 @@
       <c r="I8" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="145"/>
-      <c r="K8" s="145"/>
+      <c r="J8" s="167"/>
+      <c r="K8" s="167"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
@@ -11747,8 +13965,8 @@
       <c r="I9" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="J9" s="145"/>
-      <c r="K9" s="145"/>
+      <c r="J9" s="167"/>
+      <c r="K9" s="167"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
@@ -11770,8 +13988,8 @@
         <v>-6937.5</v>
       </c>
       <c r="I10" s="32"/>
-      <c r="J10" s="145"/>
-      <c r="K10" s="145"/>
+      <c r="J10" s="167"/>
+      <c r="K10" s="167"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
@@ -11791,8 +14009,8 @@
         <v>-53.631999999999998</v>
       </c>
       <c r="I11" s="32"/>
-      <c r="J11" s="145"/>
-      <c r="K11" s="145"/>
+      <c r="J11" s="167"/>
+      <c r="K11" s="167"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
@@ -11813,8 +14031,8 @@
         <v>393</v>
       </c>
       <c r="I12" s="32"/>
-      <c r="J12" s="145"/>
-      <c r="K12" s="145"/>
+      <c r="J12" s="167"/>
+      <c r="K12" s="167"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
@@ -11833,8 +14051,8 @@
       <c r="G13" s="32"/>
       <c r="H13" s="32"/>
       <c r="I13" s="32"/>
-      <c r="J13" s="145"/>
-      <c r="K13" s="145"/>
+      <c r="J13" s="167"/>
+      <c r="K13" s="167"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
@@ -11850,8 +14068,8 @@
       <c r="G14" s="32"/>
       <c r="H14" s="32"/>
       <c r="I14" s="32"/>
-      <c r="J14" s="145"/>
-      <c r="K14" s="145"/>
+      <c r="J14" s="167"/>
+      <c r="K14" s="167"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
@@ -11870,8 +14088,8 @@
       <c r="G15" s="14"/>
       <c r="H15" s="32"/>
       <c r="I15" s="32"/>
-      <c r="J15" s="145"/>
-      <c r="K15" s="145"/>
+      <c r="J15" s="167"/>
+      <c r="K15" s="167"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
@@ -11889,8 +14107,8 @@
       <c r="G16" s="14"/>
       <c r="H16" s="32"/>
       <c r="I16" s="32"/>
-      <c r="J16" s="145"/>
-      <c r="K16" s="145"/>
+      <c r="J16" s="167"/>
+      <c r="K16" s="167"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
@@ -11908,8 +14126,8 @@
       <c r="G17" s="14"/>
       <c r="H17" s="32"/>
       <c r="I17" s="32"/>
-      <c r="J17" s="145"/>
-      <c r="K17" s="145"/>
+      <c r="J17" s="167"/>
+      <c r="K17" s="167"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
@@ -11921,8 +14139,8 @@
       <c r="G18" s="14"/>
       <c r="H18" s="32"/>
       <c r="I18" s="32"/>
-      <c r="J18" s="145"/>
-      <c r="K18" s="145"/>
+      <c r="J18" s="167"/>
+      <c r="K18" s="167"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
@@ -12035,76 +14253,76 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="148" t="s">
+      <c r="A25" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="149"/>
-      <c r="C25" s="149"/>
-      <c r="D25" s="139">
+      <c r="B25" s="154"/>
+      <c r="C25" s="154"/>
+      <c r="D25" s="176">
         <v>4110</v>
       </c>
-      <c r="E25" s="139"/>
-      <c r="F25" s="140"/>
+      <c r="E25" s="176"/>
+      <c r="F25" s="177"/>
       <c r="G25" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H25" s="160">
+      <c r="H25" s="180">
         <v>12239.388999999999</v>
       </c>
-      <c r="I25" s="161"/>
-      <c r="J25" s="135" t="s">
+      <c r="I25" s="181"/>
+      <c r="J25" s="172" t="s">
         <v>23</v>
       </c>
-      <c r="K25" s="136"/>
+      <c r="K25" s="173"/>
     </row>
     <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="150" t="s">
+      <c r="A26" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="151"/>
-      <c r="C26" s="151"/>
-      <c r="D26" s="141">
+      <c r="B26" s="156"/>
+      <c r="C26" s="156"/>
+      <c r="D26" s="178">
         <f>SUM(B5:B24)+SUM(E5:E24)</f>
         <v>2841</v>
       </c>
-      <c r="E26" s="141"/>
-      <c r="F26" s="142"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="179"/>
       <c r="G26" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="158">
+      <c r="H26" s="163">
         <f>SUM(H5:H24)</f>
         <v>-1939.4339999999997</v>
       </c>
-      <c r="I26" s="159"/>
-      <c r="J26" s="137">
+      <c r="I26" s="164"/>
+      <c r="J26" s="174">
         <f>D27+H27</f>
         <v>15447.822999999999</v>
       </c>
-      <c r="K26" s="138"/>
+      <c r="K26" s="175"/>
     </row>
     <row r="27" spans="1:12" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="152" t="s">
+      <c r="A27" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="153"/>
-      <c r="C27" s="153"/>
-      <c r="D27" s="154">
+      <c r="B27" s="158"/>
+      <c r="C27" s="158"/>
+      <c r="D27" s="159">
         <f>D25-D26</f>
         <v>1269</v>
       </c>
-      <c r="E27" s="154"/>
-      <c r="F27" s="155"/>
+      <c r="E27" s="159"/>
+      <c r="F27" s="160"/>
       <c r="G27" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="133">
+      <c r="H27" s="170">
         <f>H25-H26</f>
         <v>14178.822999999999</v>
       </c>
-      <c r="I27" s="134"/>
-      <c r="J27" s="137"/>
-      <c r="K27" s="138"/>
+      <c r="I27" s="171"/>
+      <c r="J27" s="174"/>
+      <c r="K27" s="175"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -12148,52 +14366,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="169" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="145" t="s">
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="167" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="144">
+      <c r="K1" s="166">
         <f>D26-B19</f>
         <v>3020</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="147"/>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="144"/>
+      <c r="A2" s="169"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="166"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146" t="s">
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
       <c r="J3" s="40" t="s">
         <v>25</v>
       </c>
@@ -12260,8 +14478,8 @@
       <c r="I5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="145"/>
-      <c r="K5" s="145"/>
+      <c r="J5" s="167"/>
+      <c r="K5" s="167"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
@@ -12286,8 +14504,8 @@
       <c r="I6" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="145"/>
-      <c r="K6" s="145"/>
+      <c r="J6" s="167"/>
+      <c r="K6" s="167"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
@@ -12309,8 +14527,8 @@
       <c r="I7" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="J7" s="145"/>
-      <c r="K7" s="145"/>
+      <c r="J7" s="167"/>
+      <c r="K7" s="167"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
@@ -12332,8 +14550,8 @@
       <c r="I8" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="145"/>
-      <c r="K8" s="145"/>
+      <c r="J8" s="167"/>
+      <c r="K8" s="167"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
@@ -12358,8 +14576,8 @@
       <c r="I9" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="J9" s="145"/>
-      <c r="K9" s="145"/>
+      <c r="J9" s="167"/>
+      <c r="K9" s="167"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
@@ -12384,8 +14602,8 @@
       <c r="I10" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="J10" s="145"/>
-      <c r="K10" s="145"/>
+      <c r="J10" s="167"/>
+      <c r="K10" s="167"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
@@ -12409,8 +14627,8 @@
       <c r="I11" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="J11" s="145"/>
-      <c r="K11" s="145"/>
+      <c r="J11" s="167"/>
+      <c r="K11" s="167"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
@@ -12436,8 +14654,8 @@
       <c r="I12" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="J12" s="145"/>
-      <c r="K12" s="145"/>
+      <c r="J12" s="167"/>
+      <c r="K12" s="167"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
@@ -12461,8 +14679,8 @@
       <c r="I13" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="J13" s="145"/>
-      <c r="K13" s="145"/>
+      <c r="J13" s="167"/>
+      <c r="K13" s="167"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
@@ -12485,8 +14703,8 @@
       <c r="I14" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="145"/>
-      <c r="K14" s="145"/>
+      <c r="J14" s="167"/>
+      <c r="K14" s="167"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
@@ -12512,8 +14730,8 @@
       <c r="I15" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="J15" s="145"/>
-      <c r="K15" s="145"/>
+      <c r="J15" s="167"/>
+      <c r="K15" s="167"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
@@ -12537,8 +14755,8 @@
       <c r="I16" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="J16" s="145"/>
-      <c r="K16" s="145"/>
+      <c r="J16" s="167"/>
+      <c r="K16" s="167"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
@@ -12557,8 +14775,8 @@
       <c r="G17" s="14"/>
       <c r="H17" s="37"/>
       <c r="I17" s="37"/>
-      <c r="J17" s="145"/>
-      <c r="K17" s="145"/>
+      <c r="J17" s="167"/>
+      <c r="K17" s="167"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
@@ -12574,8 +14792,8 @@
       <c r="G18" s="14"/>
       <c r="H18" s="37"/>
       <c r="I18" s="37"/>
-      <c r="J18" s="145"/>
-      <c r="K18" s="145"/>
+      <c r="J18" s="167"/>
+      <c r="K18" s="167"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
@@ -12691,77 +14909,77 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="148" t="s">
+      <c r="A25" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="149"/>
-      <c r="C25" s="149"/>
-      <c r="D25" s="139">
+      <c r="B25" s="154"/>
+      <c r="C25" s="154"/>
+      <c r="D25" s="176">
         <f>1269+5000+300</f>
         <v>6569</v>
       </c>
-      <c r="E25" s="139"/>
-      <c r="F25" s="140"/>
+      <c r="E25" s="176"/>
+      <c r="F25" s="177"/>
       <c r="G25" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H25" s="160">
+      <c r="H25" s="180">
         <v>12239.388999999999</v>
       </c>
-      <c r="I25" s="161"/>
-      <c r="J25" s="135" t="s">
+      <c r="I25" s="181"/>
+      <c r="J25" s="172" t="s">
         <v>23</v>
       </c>
-      <c r="K25" s="136"/>
+      <c r="K25" s="173"/>
     </row>
     <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="150" t="s">
+      <c r="A26" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="151"/>
-      <c r="C26" s="151"/>
-      <c r="D26" s="141">
+      <c r="B26" s="156"/>
+      <c r="C26" s="156"/>
+      <c r="D26" s="178">
         <f>SUM(B5:B24)+SUM(E5:E24)</f>
         <v>3370</v>
       </c>
-      <c r="E26" s="141"/>
-      <c r="F26" s="142"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="179"/>
       <c r="G26" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="158">
+      <c r="H26" s="163">
         <f>SUM(H5:H24)</f>
         <v>-757.34099999999899</v>
       </c>
-      <c r="I26" s="159"/>
-      <c r="J26" s="137">
+      <c r="I26" s="164"/>
+      <c r="J26" s="174">
         <f>D27+H27</f>
         <v>16195.729999999998</v>
       </c>
-      <c r="K26" s="138"/>
+      <c r="K26" s="175"/>
     </row>
     <row r="27" spans="1:12" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="152" t="s">
+      <c r="A27" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="153"/>
-      <c r="C27" s="153"/>
-      <c r="D27" s="154">
+      <c r="B27" s="158"/>
+      <c r="C27" s="158"/>
+      <c r="D27" s="159">
         <f>D25-D26</f>
         <v>3199</v>
       </c>
-      <c r="E27" s="154"/>
-      <c r="F27" s="155"/>
+      <c r="E27" s="159"/>
+      <c r="F27" s="160"/>
       <c r="G27" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="133">
+      <c r="H27" s="170">
         <f>H25-H26</f>
         <v>12996.729999999998</v>
       </c>
-      <c r="I27" s="134"/>
-      <c r="J27" s="137"/>
-      <c r="K27" s="138"/>
+      <c r="I27" s="171"/>
+      <c r="J27" s="174"/>
+      <c r="K27" s="175"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -12805,52 +15023,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="169" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="145" t="s">
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="167" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="144">
+      <c r="K1" s="166">
         <f>D26-B13</f>
         <v>3526</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="147"/>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="144"/>
+      <c r="A2" s="169"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="166"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146" t="s">
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
       <c r="J3" s="46" t="s">
         <v>25</v>
       </c>
@@ -12918,8 +15136,8 @@
       <c r="I5" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="145"/>
-      <c r="K5" s="145"/>
+      <c r="J5" s="167"/>
+      <c r="K5" s="167"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
@@ -12945,8 +15163,8 @@
       <c r="I6" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="J6" s="145"/>
-      <c r="K6" s="145"/>
+      <c r="J6" s="167"/>
+      <c r="K6" s="167"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
@@ -12967,8 +15185,8 @@
         <v>-7307.5</v>
       </c>
       <c r="I7" s="47"/>
-      <c r="J7" s="145"/>
-      <c r="K7" s="145"/>
+      <c r="J7" s="167"/>
+      <c r="K7" s="167"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
@@ -12989,8 +15207,8 @@
         <v>-3680</v>
       </c>
       <c r="I8" s="47"/>
-      <c r="J8" s="145"/>
-      <c r="K8" s="145"/>
+      <c r="J8" s="167"/>
+      <c r="K8" s="167"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
@@ -13015,8 +15233,8 @@
       <c r="I9" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="J9" s="145"/>
-      <c r="K9" s="145"/>
+      <c r="J9" s="167"/>
+      <c r="K9" s="167"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
@@ -13039,8 +15257,8 @@
       <c r="I10" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="145"/>
-      <c r="K10" s="145"/>
+      <c r="J10" s="167"/>
+      <c r="K10" s="167"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
@@ -13058,8 +15276,8 @@
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="47"/>
-      <c r="J11" s="145"/>
-      <c r="K11" s="145"/>
+      <c r="J11" s="167"/>
+      <c r="K11" s="167"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
@@ -13075,8 +15293,8 @@
       <c r="G12" s="14"/>
       <c r="H12" s="47"/>
       <c r="I12" s="47"/>
-      <c r="J12" s="145"/>
-      <c r="K12" s="145"/>
+      <c r="J12" s="167"/>
+      <c r="K12" s="167"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
@@ -13094,8 +15312,8 @@
       <c r="G13" s="14"/>
       <c r="H13" s="47"/>
       <c r="I13" s="47"/>
-      <c r="J13" s="145"/>
-      <c r="K13" s="145"/>
+      <c r="J13" s="167"/>
+      <c r="K13" s="167"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
@@ -13113,8 +15331,8 @@
       <c r="G14" s="47"/>
       <c r="H14" s="47"/>
       <c r="I14" s="47"/>
-      <c r="J14" s="145"/>
-      <c r="K14" s="145"/>
+      <c r="J14" s="167"/>
+      <c r="K14" s="167"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
@@ -13132,8 +15350,8 @@
       <c r="G15" s="14"/>
       <c r="H15" s="47"/>
       <c r="I15" s="47"/>
-      <c r="J15" s="145"/>
-      <c r="K15" s="145"/>
+      <c r="J15" s="167"/>
+      <c r="K15" s="167"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
@@ -13152,8 +15370,8 @@
       <c r="G16" s="14"/>
       <c r="H16" s="47"/>
       <c r="I16" s="47"/>
-      <c r="J16" s="145"/>
-      <c r="K16" s="145"/>
+      <c r="J16" s="167"/>
+      <c r="K16" s="167"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
@@ -13172,8 +15390,8 @@
       <c r="G17" s="14"/>
       <c r="H17" s="47"/>
       <c r="I17" s="47"/>
-      <c r="J17" s="145"/>
-      <c r="K17" s="145"/>
+      <c r="J17" s="167"/>
+      <c r="K17" s="167"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
@@ -13185,8 +15403,8 @@
       <c r="G18" s="14"/>
       <c r="H18" s="47"/>
       <c r="I18" s="47"/>
-      <c r="J18" s="145"/>
-      <c r="K18" s="145"/>
+      <c r="J18" s="167"/>
+      <c r="K18" s="167"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
@@ -13298,77 +15516,77 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="148" t="s">
+      <c r="A25" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="149"/>
-      <c r="C25" s="149"/>
-      <c r="D25" s="139">
+      <c r="B25" s="154"/>
+      <c r="C25" s="154"/>
+      <c r="D25" s="176">
         <f>3199+3000+1000</f>
         <v>7199</v>
       </c>
-      <c r="E25" s="139"/>
-      <c r="F25" s="140"/>
+      <c r="E25" s="176"/>
+      <c r="F25" s="177"/>
       <c r="G25" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H25" s="160">
+      <c r="H25" s="180">
         <v>12996.73</v>
       </c>
-      <c r="I25" s="161"/>
-      <c r="J25" s="135" t="s">
+      <c r="I25" s="181"/>
+      <c r="J25" s="172" t="s">
         <v>23</v>
       </c>
-      <c r="K25" s="136"/>
+      <c r="K25" s="173"/>
     </row>
     <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="150" t="s">
+      <c r="A26" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="151"/>
-      <c r="C26" s="151"/>
-      <c r="D26" s="141">
+      <c r="B26" s="156"/>
+      <c r="C26" s="156"/>
+      <c r="D26" s="178">
         <f>SUM(B5:B24)+SUM(E5:E24)</f>
         <v>3676</v>
       </c>
-      <c r="E26" s="141"/>
-      <c r="F26" s="142"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="179"/>
       <c r="G26" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="158">
+      <c r="H26" s="163">
         <f>SUM(H5:H24)</f>
         <v>-5589.7640000000001</v>
       </c>
-      <c r="I26" s="159"/>
-      <c r="J26" s="137">
+      <c r="I26" s="164"/>
+      <c r="J26" s="174">
         <f>D27+H27</f>
         <v>22109.493999999999</v>
       </c>
-      <c r="K26" s="138"/>
+      <c r="K26" s="175"/>
     </row>
     <row r="27" spans="1:12" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="152" t="s">
+      <c r="A27" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="153"/>
-      <c r="C27" s="153"/>
-      <c r="D27" s="154">
+      <c r="B27" s="158"/>
+      <c r="C27" s="158"/>
+      <c r="D27" s="159">
         <f>D25-D26</f>
         <v>3523</v>
       </c>
-      <c r="E27" s="154"/>
-      <c r="F27" s="155"/>
+      <c r="E27" s="159"/>
+      <c r="F27" s="160"/>
       <c r="G27" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="133">
+      <c r="H27" s="170">
         <f>H25-H26</f>
         <v>18586.493999999999</v>
       </c>
-      <c r="I27" s="134"/>
-      <c r="J27" s="137"/>
-      <c r="K27" s="138"/>
+      <c r="I27" s="171"/>
+      <c r="J27" s="174"/>
+      <c r="K27" s="175"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -13414,52 +15632,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="169" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="145" t="s">
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="167" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="144">
+      <c r="K1" s="166">
         <f>D26-B12</f>
         <v>2648</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="147"/>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="144"/>
+      <c r="A2" s="169"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="166"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146" t="s">
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
       <c r="J3" s="51" t="s">
         <v>25</v>
       </c>
@@ -13527,11 +15745,11 @@
       <c r="I5" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="162">
+      <c r="J5" s="182">
         <f>SUM(H5:H24)</f>
         <v>-2007.1869999999999</v>
       </c>
-      <c r="K5" s="145"/>
+      <c r="K5" s="167"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
@@ -13557,8 +15775,8 @@
       <c r="I6" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="J6" s="145"/>
-      <c r="K6" s="145"/>
+      <c r="J6" s="167"/>
+      <c r="K6" s="167"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
@@ -13580,8 +15798,8 @@
         <v>-7307.5</v>
       </c>
       <c r="I7" s="52"/>
-      <c r="J7" s="145"/>
-      <c r="K7" s="145"/>
+      <c r="J7" s="167"/>
+      <c r="K7" s="167"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
@@ -13603,8 +15821,8 @@
         <v>-3680</v>
       </c>
       <c r="I8" s="52"/>
-      <c r="J8" s="145"/>
-      <c r="K8" s="145"/>
+      <c r="J8" s="167"/>
+      <c r="K8" s="167"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
@@ -13629,8 +15847,8 @@
       <c r="I9" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="J9" s="145"/>
-      <c r="K9" s="145"/>
+      <c r="J9" s="167"/>
+      <c r="K9" s="167"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
@@ -13653,8 +15871,8 @@
       <c r="I10" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="145"/>
-      <c r="K10" s="145"/>
+      <c r="J10" s="167"/>
+      <c r="K10" s="167"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
@@ -13679,8 +15897,8 @@
       <c r="I11" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="J11" s="145"/>
-      <c r="K11" s="145"/>
+      <c r="J11" s="167"/>
+      <c r="K11" s="167"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
@@ -13700,8 +15918,8 @@
       <c r="I12" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="J12" s="145"/>
-      <c r="K12" s="145"/>
+      <c r="J12" s="167"/>
+      <c r="K12" s="167"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
@@ -13725,8 +15943,8 @@
       <c r="I13" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="145"/>
-      <c r="K13" s="145"/>
+      <c r="J13" s="167"/>
+      <c r="K13" s="167"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
@@ -13747,8 +15965,8 @@
       <c r="I14" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="J14" s="145"/>
-      <c r="K14" s="145"/>
+      <c r="J14" s="167"/>
+      <c r="K14" s="167"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
@@ -13773,8 +15991,8 @@
       <c r="I15" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="145"/>
-      <c r="K15" s="145"/>
+      <c r="J15" s="167"/>
+      <c r="K15" s="167"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
@@ -13798,8 +16016,8 @@
       <c r="I16" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="J16" s="145"/>
-      <c r="K16" s="145"/>
+      <c r="J16" s="167"/>
+      <c r="K16" s="167"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
@@ -13824,8 +16042,8 @@
       <c r="I17" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="J17" s="145"/>
-      <c r="K17" s="145"/>
+      <c r="J17" s="167"/>
+      <c r="K17" s="167"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
@@ -13843,8 +16061,8 @@
       <c r="I18" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="J18" s="145"/>
-      <c r="K18" s="145"/>
+      <c r="J18" s="167"/>
+      <c r="K18" s="167"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
@@ -13957,77 +16175,77 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="148" t="s">
+      <c r="A25" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="149"/>
-      <c r="C25" s="149"/>
-      <c r="D25" s="139">
+      <c r="B25" s="154"/>
+      <c r="C25" s="154"/>
+      <c r="D25" s="176">
         <f>3523</f>
         <v>3523</v>
       </c>
-      <c r="E25" s="139"/>
-      <c r="F25" s="140"/>
+      <c r="E25" s="176"/>
+      <c r="F25" s="177"/>
       <c r="G25" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H25" s="160">
+      <c r="H25" s="180">
         <v>12996.73</v>
       </c>
-      <c r="I25" s="161"/>
-      <c r="J25" s="135" t="s">
+      <c r="I25" s="181"/>
+      <c r="J25" s="172" t="s">
         <v>23</v>
       </c>
-      <c r="K25" s="136"/>
+      <c r="K25" s="173"/>
     </row>
     <row r="26" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="150" t="s">
+      <c r="A26" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="151"/>
-      <c r="C26" s="151"/>
-      <c r="D26" s="141">
+      <c r="B26" s="156"/>
+      <c r="C26" s="156"/>
+      <c r="D26" s="178">
         <f>SUM(B5:B24)+SUM(E5:E24)</f>
         <v>2998</v>
       </c>
-      <c r="E26" s="141"/>
-      <c r="F26" s="142"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="179"/>
       <c r="G26" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="158">
+      <c r="H26" s="163">
         <f>SUM(H5:H24)</f>
         <v>-2007.1869999999999</v>
       </c>
-      <c r="I26" s="159"/>
-      <c r="J26" s="137">
+      <c r="I26" s="164"/>
+      <c r="J26" s="174">
         <f>D27+H27</f>
         <v>15528.916999999999</v>
       </c>
-      <c r="K26" s="138"/>
+      <c r="K26" s="175"/>
     </row>
     <row r="27" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="152" t="s">
+      <c r="A27" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="153"/>
-      <c r="C27" s="153"/>
-      <c r="D27" s="154">
+      <c r="B27" s="158"/>
+      <c r="C27" s="158"/>
+      <c r="D27" s="159">
         <f>D25-D26</f>
         <v>525</v>
       </c>
-      <c r="E27" s="154"/>
-      <c r="F27" s="155"/>
+      <c r="E27" s="159"/>
+      <c r="F27" s="160"/>
       <c r="G27" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="133">
+      <c r="H27" s="170">
         <f>H25-H26</f>
         <v>15003.916999999999</v>
       </c>
-      <c r="I27" s="134"/>
-      <c r="J27" s="137"/>
-      <c r="K27" s="138"/>
+      <c r="I27" s="171"/>
+      <c r="J27" s="174"/>
+      <c r="K27" s="175"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -14073,52 +16291,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="169" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="145" t="s">
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="167" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="144">
+      <c r="K1" s="166">
         <f>D26-B14</f>
         <v>3525</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="147"/>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="144"/>
+      <c r="A2" s="169"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="166"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146" t="s">
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
       <c r="J3" s="62" t="s">
         <v>25</v>
       </c>
@@ -14186,8 +16404,8 @@
       <c r="I5" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="145"/>
-      <c r="K5" s="145"/>
+      <c r="J5" s="167"/>
+      <c r="K5" s="167"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
@@ -14210,8 +16428,8 @@
       <c r="I6" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="J6" s="145"/>
-      <c r="K6" s="145"/>
+      <c r="J6" s="167"/>
+      <c r="K6" s="167"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
@@ -14230,8 +16448,8 @@
         <v>-7307.5</v>
       </c>
       <c r="I7" s="59"/>
-      <c r="J7" s="145"/>
-      <c r="K7" s="145"/>
+      <c r="J7" s="167"/>
+      <c r="K7" s="167"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
@@ -14252,8 +16470,8 @@
         <v>-3680</v>
       </c>
       <c r="I8" s="59"/>
-      <c r="J8" s="145"/>
-      <c r="K8" s="145"/>
+      <c r="J8" s="167"/>
+      <c r="K8" s="167"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
@@ -14278,8 +16496,8 @@
       <c r="I9" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="J9" s="145"/>
-      <c r="K9" s="145"/>
+      <c r="J9" s="167"/>
+      <c r="K9" s="167"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
@@ -14304,8 +16522,8 @@
       <c r="I10" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="145"/>
-      <c r="K10" s="145"/>
+      <c r="J10" s="167"/>
+      <c r="K10" s="167"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
@@ -14330,8 +16548,8 @@
       <c r="I11" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="J11" s="145"/>
-      <c r="K11" s="145"/>
+      <c r="J11" s="167"/>
+      <c r="K11" s="167"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
@@ -14354,8 +16572,8 @@
       <c r="I12" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="J12" s="145"/>
-      <c r="K12" s="145"/>
+      <c r="J12" s="167"/>
+      <c r="K12" s="167"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
@@ -14377,8 +16595,8 @@
       <c r="I13" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="145"/>
-      <c r="K13" s="145"/>
+      <c r="J13" s="167"/>
+      <c r="K13" s="167"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
@@ -14398,8 +16616,8 @@
       <c r="I14" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="J14" s="145"/>
-      <c r="K14" s="145"/>
+      <c r="J14" s="167"/>
+      <c r="K14" s="167"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
@@ -14422,8 +16640,8 @@
       <c r="I15" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="145"/>
-      <c r="K15" s="145"/>
+      <c r="J15" s="167"/>
+      <c r="K15" s="167"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
@@ -14447,8 +16665,8 @@
       <c r="I16" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="J16" s="145"/>
-      <c r="K16" s="145"/>
+      <c r="J16" s="167"/>
+      <c r="K16" s="167"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
@@ -14470,8 +16688,8 @@
       <c r="I17" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="J17" s="145"/>
-      <c r="K17" s="145"/>
+      <c r="J17" s="167"/>
+      <c r="K17" s="167"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
@@ -14495,8 +16713,8 @@
       <c r="I18" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="J18" s="145"/>
-      <c r="K18" s="145"/>
+      <c r="J18" s="167"/>
+      <c r="K18" s="167"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
@@ -14634,77 +16852,77 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="148" t="s">
+      <c r="A25" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="149"/>
-      <c r="C25" s="149"/>
-      <c r="D25" s="139">
+      <c r="B25" s="154"/>
+      <c r="C25" s="154"/>
+      <c r="D25" s="176">
         <f>525+2500+1000</f>
         <v>4025</v>
       </c>
-      <c r="E25" s="139"/>
-      <c r="F25" s="140"/>
+      <c r="E25" s="176"/>
+      <c r="F25" s="177"/>
       <c r="G25" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H25" s="160">
+      <c r="H25" s="180">
         <v>12996.73</v>
       </c>
-      <c r="I25" s="161"/>
-      <c r="J25" s="135" t="s">
+      <c r="I25" s="181"/>
+      <c r="J25" s="172" t="s">
         <v>23</v>
       </c>
-      <c r="K25" s="136"/>
+      <c r="K25" s="173"/>
     </row>
     <row r="26" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="150" t="s">
+      <c r="A26" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="151"/>
-      <c r="C26" s="151"/>
-      <c r="D26" s="141">
+      <c r="B26" s="156"/>
+      <c r="C26" s="156"/>
+      <c r="D26" s="178">
         <f>SUM(B5:B24)+SUM(E5:E24)</f>
         <v>4025</v>
       </c>
-      <c r="E26" s="141"/>
-      <c r="F26" s="142"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="179"/>
       <c r="G26" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="158">
+      <c r="H26" s="163">
         <f>SUM(H5:H24)</f>
         <v>-4143.2699999999986</v>
       </c>
-      <c r="I26" s="159"/>
-      <c r="J26" s="137">
+      <c r="I26" s="164"/>
+      <c r="J26" s="174">
         <f>D27+H27</f>
         <v>17140</v>
       </c>
-      <c r="K26" s="138"/>
+      <c r="K26" s="175"/>
     </row>
     <row r="27" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="152" t="s">
+      <c r="A27" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="153"/>
-      <c r="C27" s="153"/>
-      <c r="D27" s="154">
+      <c r="B27" s="158"/>
+      <c r="C27" s="158"/>
+      <c r="D27" s="159">
         <f>D25-D26</f>
         <v>0</v>
       </c>
-      <c r="E27" s="154"/>
-      <c r="F27" s="155"/>
+      <c r="E27" s="159"/>
+      <c r="F27" s="160"/>
       <c r="G27" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="133">
+      <c r="H27" s="170">
         <f>H25-H26</f>
         <v>17140</v>
       </c>
-      <c r="I27" s="134"/>
-      <c r="J27" s="137"/>
-      <c r="K27" s="138"/>
+      <c r="I27" s="171"/>
+      <c r="J27" s="174"/>
+      <c r="K27" s="175"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -14753,52 +16971,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="169" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="165" t="s">
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="185" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="166">
+      <c r="K1" s="186">
         <f>SUM(H5:H19)-H6-H9-H16-H17-H8</f>
         <v>2010.2999999999993</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="147"/>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="166"/>
+      <c r="A2" s="169"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="186"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146" t="s">
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
       <c r="J3" s="71" t="s">
         <v>25</v>
       </c>
@@ -14867,11 +17085,11 @@
         <v>-200</v>
       </c>
       <c r="I5" s="68"/>
-      <c r="J5" s="163">
+      <c r="J5" s="183">
         <f>-SUM(H5:H19)</f>
         <v>13360.071</v>
       </c>
-      <c r="K5" s="164"/>
+      <c r="K5" s="184"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
@@ -14897,8 +17115,8 @@
       <c r="I6" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="J6" s="164"/>
-      <c r="K6" s="164"/>
+      <c r="J6" s="184"/>
+      <c r="K6" s="184"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
@@ -14922,8 +17140,8 @@
         <v>-100.15</v>
       </c>
       <c r="I7" s="68"/>
-      <c r="J7" s="164"/>
-      <c r="K7" s="164"/>
+      <c r="J7" s="184"/>
+      <c r="K7" s="184"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
@@ -14949,8 +17167,8 @@
       <c r="I8" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="J8" s="164"/>
-      <c r="K8" s="164"/>
+      <c r="J8" s="184"/>
+      <c r="K8" s="184"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
@@ -14977,8 +17195,8 @@
       <c r="I9" s="68" t="s">
         <v>133</v>
       </c>
-      <c r="J9" s="164"/>
-      <c r="K9" s="164"/>
+      <c r="J9" s="184"/>
+      <c r="K9" s="184"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
@@ -15006,8 +17224,8 @@
       <c r="I10" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="164"/>
-      <c r="K10" s="164"/>
+      <c r="J10" s="184"/>
+      <c r="K10" s="184"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
@@ -15034,8 +17252,8 @@
       <c r="I11" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="164"/>
-      <c r="K11" s="164"/>
+      <c r="J11" s="184"/>
+      <c r="K11" s="184"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
@@ -15062,8 +17280,8 @@
       <c r="I12" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="J12" s="164"/>
-      <c r="K12" s="164"/>
+      <c r="J12" s="184"/>
+      <c r="K12" s="184"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
@@ -15089,8 +17307,8 @@
       <c r="I13" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="J13" s="164"/>
-      <c r="K13" s="164"/>
+      <c r="J13" s="184"/>
+      <c r="K13" s="184"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
@@ -15277,77 +17495,77 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="148" t="s">
+      <c r="A20" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="149"/>
-      <c r="C20" s="149"/>
-      <c r="D20" s="139">
+      <c r="B20" s="154"/>
+      <c r="C20" s="154"/>
+      <c r="D20" s="176">
         <f>3000+1000+550</f>
         <v>4550</v>
       </c>
-      <c r="E20" s="139"/>
-      <c r="F20" s="140"/>
+      <c r="E20" s="176"/>
+      <c r="F20" s="177"/>
       <c r="G20" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H20" s="160">
+      <c r="H20" s="180">
         <v>17140</v>
       </c>
-      <c r="I20" s="161"/>
-      <c r="J20" s="135" t="s">
+      <c r="I20" s="181"/>
+      <c r="J20" s="172" t="s">
         <v>23</v>
       </c>
-      <c r="K20" s="136"/>
+      <c r="K20" s="173"/>
     </row>
     <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="150" t="s">
+      <c r="A21" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="151"/>
-      <c r="C21" s="151"/>
-      <c r="D21" s="141">
+      <c r="B21" s="156"/>
+      <c r="C21" s="156"/>
+      <c r="D21" s="178">
         <f>SUM(B5:B19)+SUM(E5:E19)</f>
         <v>4099</v>
       </c>
-      <c r="E21" s="141"/>
-      <c r="F21" s="142"/>
+      <c r="E21" s="178"/>
+      <c r="F21" s="179"/>
       <c r="G21" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="158">
+      <c r="H21" s="163">
         <f>SUM(H5:H19)</f>
         <v>-13360.071</v>
       </c>
-      <c r="I21" s="159"/>
-      <c r="J21" s="137">
+      <c r="I21" s="164"/>
+      <c r="J21" s="174">
         <f>D22+H22</f>
         <v>30951.071</v>
       </c>
-      <c r="K21" s="138"/>
+      <c r="K21" s="175"/>
     </row>
     <row r="22" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="152" t="s">
+      <c r="A22" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="153"/>
-      <c r="C22" s="153"/>
-      <c r="D22" s="154">
+      <c r="B22" s="158"/>
+      <c r="C22" s="158"/>
+      <c r="D22" s="159">
         <f>D20-D21</f>
         <v>451</v>
       </c>
-      <c r="E22" s="154"/>
-      <c r="F22" s="155"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="160"/>
       <c r="G22" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="133">
+      <c r="H22" s="170">
         <f>H20-H21</f>
         <v>30500.071</v>
       </c>
-      <c r="I22" s="134"/>
-      <c r="J22" s="137"/>
-      <c r="K22" s="138"/>
+      <c r="I22" s="171"/>
+      <c r="J22" s="174"/>
+      <c r="K22" s="175"/>
     </row>
   </sheetData>
   <mergeCells count="17">

--- a/EM KẾ TOÁN .xlsx
+++ b/EM KẾ TOÁN .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F006EF-4AC2-4480-8CB5-5DD89C139E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498D9709-9827-48A8-B40B-8F0F92EFA1BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38955" yWindow="1590" windowWidth="14400" windowHeight="11385" firstSheet="18" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41670" yWindow="1035" windowWidth="13305" windowHeight="11850" firstSheet="18" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tháng4" sheetId="2" r:id="rId1"/>
@@ -32,9 +32,10 @@
     <sheet name="Tháng_9_22" sheetId="19" r:id="rId17"/>
     <sheet name="Tháng_10_22" sheetId="20" r:id="rId18"/>
     <sheet name="Tháng_11_22" sheetId="21" r:id="rId19"/>
-    <sheet name="Phân tích" sheetId="1" r:id="rId20"/>
-    <sheet name="Tiết kiệm" sheetId="22" r:id="rId21"/>
-    <sheet name="Phong bì" sheetId="15" r:id="rId22"/>
+    <sheet name="Tháng_12_22" sheetId="23" r:id="rId20"/>
+    <sheet name="Phân tích" sheetId="1" r:id="rId21"/>
+    <sheet name="Tiết kiệm" sheetId="22" r:id="rId22"/>
+    <sheet name="Phong bì" sheetId="15" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,14 +48,14 @@
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId23" roundtripDataSignature="AMtx7mj6XPDsJvypGO3puwhUzgbakyIu7w=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId24" roundtripDataSignature="AMtx7mj6XPDsJvypGO3puwhUzgbakyIu7w=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="254">
   <si>
     <t>Money</t>
   </si>
@@ -804,6 +805,18 @@
   </si>
   <si>
     <t>An, sp</t>
+  </si>
+  <si>
+    <t>xang, an</t>
+  </si>
+  <si>
+    <t>Mang</t>
+  </si>
+  <si>
+    <t>tra lai tien gui</t>
+  </si>
+  <si>
+    <t>gui tk</t>
   </si>
 </sst>
 </file>
@@ -1329,7 +1342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1773,6 +1786,45 @@
     <xf numFmtId="0" fontId="17" fillId="13" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1809,51 +1861,12 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1942,6 +1955,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2312,7 +2331,7 @@
                   <c:v>4420.9400000000005</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0">
-                  <c:v>3340.4809999999998</c:v>
+                  <c:v>4302.4799999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2523,10 +2542,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>136.54470500000002</c:v>
+                  <c:v>72.735500000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>682.45529499999998</c:v>
+                  <c:v>746.2645</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4044,52 +4063,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="165" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="165" t="s">
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="161" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="166">
+      <c r="K1" s="162">
         <f>D26-200-200</f>
         <v>3090</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="169"/>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="166"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="162"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168" t="s">
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
       <c r="J3" s="8" t="s">
         <v>25</v>
       </c>
@@ -4159,8 +4178,8 @@
         <v>-0.127</v>
       </c>
       <c r="I5" s="4"/>
-      <c r="J5" s="167"/>
-      <c r="K5" s="167"/>
+      <c r="J5" s="163"/>
+      <c r="K5" s="163"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
@@ -4190,8 +4209,8 @@
       <c r="I6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="167"/>
-      <c r="K6" s="167"/>
+      <c r="J6" s="163"/>
+      <c r="K6" s="163"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
@@ -4219,8 +4238,8 @@
       <c r="I7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="167"/>
-      <c r="K7" s="167"/>
+      <c r="J7" s="163"/>
+      <c r="K7" s="163"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
@@ -4248,8 +4267,8 @@
       <c r="I8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="167"/>
-      <c r="K8" s="167"/>
+      <c r="J8" s="163"/>
+      <c r="K8" s="163"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
@@ -4273,8 +4292,8 @@
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="167"/>
-      <c r="K9" s="167"/>
+      <c r="J9" s="163"/>
+      <c r="K9" s="163"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
@@ -4297,8 +4316,8 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="167"/>
-      <c r="K10" s="167"/>
+      <c r="J10" s="163"/>
+      <c r="K10" s="163"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
@@ -4323,8 +4342,8 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="167"/>
-      <c r="K11" s="167"/>
+      <c r="J11" s="163"/>
+      <c r="K11" s="163"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
@@ -4344,8 +4363,8 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="167"/>
-      <c r="K12" s="167"/>
+      <c r="J12" s="163"/>
+      <c r="K12" s="163"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
@@ -4363,8 +4382,8 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="167"/>
-      <c r="K13" s="167"/>
+      <c r="J13" s="163"/>
+      <c r="K13" s="163"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
@@ -4380,8 +4399,8 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="167"/>
-      <c r="K14" s="167"/>
+      <c r="J14" s="163"/>
+      <c r="K14" s="163"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
@@ -4399,8 +4418,8 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="167"/>
-      <c r="K15" s="167"/>
+      <c r="J15" s="163"/>
+      <c r="K15" s="163"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
@@ -4418,8 +4437,8 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="167"/>
-      <c r="K16" s="167"/>
+      <c r="J16" s="163"/>
+      <c r="K16" s="163"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
@@ -4438,8 +4457,8 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="167"/>
-      <c r="K17" s="167"/>
+      <c r="J17" s="163"/>
+      <c r="K17" s="163"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
@@ -4458,8 +4477,8 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="167"/>
-      <c r="K18" s="167"/>
+      <c r="J18" s="163"/>
+      <c r="K18" s="163"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
@@ -4600,80 +4619,81 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="153" t="s">
+      <c r="A25" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="154"/>
-      <c r="C25" s="154"/>
-      <c r="D25" s="176">
+      <c r="B25" s="167"/>
+      <c r="C25" s="167"/>
+      <c r="D25" s="157">
         <f>3090+1500</f>
         <v>4590</v>
       </c>
-      <c r="E25" s="176"/>
-      <c r="F25" s="177"/>
+      <c r="E25" s="157"/>
+      <c r="F25" s="158"/>
       <c r="G25" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H25" s="161">
+      <c r="H25" s="174">
         <v>7431.75</v>
       </c>
-      <c r="I25" s="162"/>
-      <c r="J25" s="172" t="s">
+      <c r="I25" s="175"/>
+      <c r="J25" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="K25" s="173"/>
+      <c r="K25" s="154"/>
     </row>
     <row r="26" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="155" t="s">
+      <c r="A26" s="168" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="156"/>
-      <c r="C26" s="156"/>
-      <c r="D26" s="178">
+      <c r="B26" s="169"/>
+      <c r="C26" s="169"/>
+      <c r="D26" s="159">
         <f>SUM(B5:B24)+SUM(E5:E24)</f>
         <v>3490</v>
       </c>
-      <c r="E26" s="178"/>
-      <c r="F26" s="179"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="160"/>
       <c r="G26" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="163">
+      <c r="H26" s="176">
         <f>SUM(H5:H24)</f>
         <v>1799.873</v>
       </c>
-      <c r="I26" s="164"/>
-      <c r="J26" s="174">
+      <c r="I26" s="177"/>
+      <c r="J26" s="155">
         <f>D27+H27</f>
         <v>6731.8770000000004</v>
       </c>
-      <c r="K26" s="175"/>
+      <c r="K26" s="156"/>
     </row>
     <row r="27" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="157" t="s">
+      <c r="A27" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="158"/>
-      <c r="C27" s="158"/>
-      <c r="D27" s="159">
+      <c r="B27" s="171"/>
+      <c r="C27" s="171"/>
+      <c r="D27" s="172">
         <f>D25-D26-L24</f>
         <v>1100</v>
       </c>
-      <c r="E27" s="159"/>
-      <c r="F27" s="160"/>
+      <c r="E27" s="172"/>
+      <c r="F27" s="173"/>
       <c r="G27" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="170">
+      <c r="H27" s="178">
         <f>H25-H26</f>
         <v>5631.8770000000004</v>
       </c>
-      <c r="I27" s="171"/>
-      <c r="J27" s="174"/>
-      <c r="K27" s="175"/>
+      <c r="I27" s="179"/>
+      <c r="J27" s="155"/>
+      <c r="K27" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="H27:I27"/>
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="J26:K27"/>
     <mergeCell ref="D25:F25"/>
@@ -4690,7 +4710,6 @@
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -4717,17 +4736,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="165" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
       <c r="J1" s="185" t="s">
         <v>24</v>
       </c>
@@ -4737,32 +4756,32 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="169"/>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
       <c r="J2" s="185"/>
       <c r="K2" s="186"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168" t="s">
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
       <c r="J3" s="77" t="s">
         <v>25</v>
       </c>
@@ -5141,17 +5160,17 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="153" t="s">
+      <c r="A20" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="154"/>
-      <c r="C20" s="154"/>
-      <c r="D20" s="176">
+      <c r="B20" s="167"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="157">
         <f>451+520+3000-500</f>
         <v>3471</v>
       </c>
-      <c r="E20" s="176"/>
-      <c r="F20" s="177"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="158"/>
       <c r="G20" s="19" t="s">
         <v>1</v>
       </c>
@@ -5159,68 +5178,62 @@
         <v>30500.071</v>
       </c>
       <c r="I20" s="181"/>
-      <c r="J20" s="172" t="s">
+      <c r="J20" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="K20" s="173"/>
+      <c r="K20" s="154"/>
     </row>
     <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="155" t="s">
+      <c r="A21" s="168" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="156"/>
-      <c r="C21" s="156"/>
-      <c r="D21" s="178">
+      <c r="B21" s="169"/>
+      <c r="C21" s="169"/>
+      <c r="D21" s="159">
         <f>SUM(B5:B19)+SUM(E5:E19)</f>
         <v>3048</v>
       </c>
-      <c r="E21" s="178"/>
-      <c r="F21" s="179"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="160"/>
       <c r="G21" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="163">
+      <c r="H21" s="176">
         <f>SUM(H5:H19)</f>
         <v>-1192.6699999999998</v>
       </c>
-      <c r="I21" s="164"/>
-      <c r="J21" s="174">
+      <c r="I21" s="177"/>
+      <c r="J21" s="155">
         <f>D22+H22</f>
         <v>32115.740999999998</v>
       </c>
-      <c r="K21" s="175"/>
+      <c r="K21" s="156"/>
     </row>
     <row r="22" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="157" t="s">
+      <c r="A22" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="158"/>
-      <c r="C22" s="158"/>
-      <c r="D22" s="159">
+      <c r="B22" s="171"/>
+      <c r="C22" s="171"/>
+      <c r="D22" s="172">
         <f>D20-D21</f>
         <v>423</v>
       </c>
-      <c r="E22" s="159"/>
-      <c r="F22" s="160"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="173"/>
       <c r="G22" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="170">
+      <c r="H22" s="178">
         <f>H20-H21</f>
         <v>31692.740999999998</v>
       </c>
-      <c r="I22" s="171"/>
-      <c r="J22" s="174"/>
-      <c r="K22" s="175"/>
+      <c r="I22" s="179"/>
+      <c r="J22" s="155"/>
+      <c r="K22" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="J5:K13"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:I3"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="D20:F20"/>
@@ -5232,6 +5245,12 @@
     <mergeCell ref="J21:K22"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="D22:F22"/>
+    <mergeCell ref="J5:K13"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5257,17 +5276,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="165" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
       <c r="J1" s="185" t="s">
         <v>24</v>
       </c>
@@ -5277,32 +5296,32 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="169"/>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
       <c r="J2" s="185"/>
       <c r="K2" s="186"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168" t="s">
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
       <c r="J3" s="83" t="s">
         <v>25</v>
       </c>
@@ -5714,17 +5733,17 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="153" t="s">
+      <c r="A20" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="154"/>
-      <c r="C20" s="154"/>
-      <c r="D20" s="176">
+      <c r="B20" s="167"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="157">
         <f>423+2000+500-220+100+500</f>
         <v>3303</v>
       </c>
-      <c r="E20" s="176"/>
-      <c r="F20" s="177"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="158"/>
       <c r="G20" s="19" t="s">
         <v>1</v>
       </c>
@@ -5732,68 +5751,62 @@
         <v>31692.741000000002</v>
       </c>
       <c r="I20" s="181"/>
-      <c r="J20" s="172" t="s">
+      <c r="J20" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="K20" s="173"/>
+      <c r="K20" s="154"/>
     </row>
     <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="155" t="s">
+      <c r="A21" s="168" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="156"/>
-      <c r="C21" s="156"/>
-      <c r="D21" s="178">
+      <c r="B21" s="169"/>
+      <c r="C21" s="169"/>
+      <c r="D21" s="159">
         <f>SUM(B5:B19)+SUM(E5:E19)</f>
         <v>3291</v>
       </c>
-      <c r="E21" s="178"/>
-      <c r="F21" s="179"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="160"/>
       <c r="G21" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="163">
+      <c r="H21" s="176">
         <f>SUM(H5:H19)</f>
         <v>1469.068</v>
       </c>
-      <c r="I21" s="164"/>
-      <c r="J21" s="174">
+      <c r="I21" s="177"/>
+      <c r="J21" s="155">
         <f>D22+H22</f>
         <v>30235.673000000003</v>
       </c>
-      <c r="K21" s="175"/>
+      <c r="K21" s="156"/>
     </row>
     <row r="22" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="157" t="s">
+      <c r="A22" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="158"/>
-      <c r="C22" s="158"/>
-      <c r="D22" s="159">
+      <c r="B22" s="171"/>
+      <c r="C22" s="171"/>
+      <c r="D22" s="172">
         <f>D20-D21</f>
         <v>12</v>
       </c>
-      <c r="E22" s="159"/>
-      <c r="F22" s="160"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="173"/>
       <c r="G22" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="170">
+      <c r="H22" s="178">
         <f>H20-H21</f>
         <v>30223.673000000003</v>
       </c>
-      <c r="I22" s="171"/>
-      <c r="J22" s="174"/>
-      <c r="K22" s="175"/>
+      <c r="I22" s="179"/>
+      <c r="J22" s="155"/>
+      <c r="K22" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="J5:K13"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:I3"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="D20:F20"/>
@@ -5805,6 +5818,12 @@
     <mergeCell ref="J21:K22"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="D22:F22"/>
+    <mergeCell ref="J5:K13"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5831,17 +5850,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="165" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
       <c r="J1" s="185" t="s">
         <v>24</v>
       </c>
@@ -5851,32 +5870,32 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="169"/>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
       <c r="J2" s="185"/>
       <c r="K2" s="187"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168" t="s">
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
       <c r="J3" s="88" t="s">
         <v>25</v>
       </c>
@@ -6284,16 +6303,16 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="153" t="s">
+      <c r="A20" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="154"/>
-      <c r="C20" s="154"/>
-      <c r="D20" s="176">
+      <c r="B20" s="167"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="157">
         <v>3212</v>
       </c>
-      <c r="E20" s="176"/>
-      <c r="F20" s="177"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="158"/>
       <c r="G20" s="19" t="s">
         <v>1</v>
       </c>
@@ -6301,62 +6320,68 @@
         <v>30223.672999999999</v>
       </c>
       <c r="I20" s="181"/>
-      <c r="J20" s="172" t="s">
+      <c r="J20" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="K20" s="173"/>
+      <c r="K20" s="154"/>
     </row>
     <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="155" t="s">
+      <c r="A21" s="168" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="156"/>
-      <c r="C21" s="156"/>
-      <c r="D21" s="178">
+      <c r="B21" s="169"/>
+      <c r="C21" s="169"/>
+      <c r="D21" s="159">
         <f>SUM(B5:B19)+SUM(E5:E19)</f>
         <v>3212</v>
       </c>
-      <c r="E21" s="178"/>
-      <c r="F21" s="179"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="160"/>
       <c r="G21" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="163">
+      <c r="H21" s="176">
         <f>SUM(H5:H19)</f>
         <v>-16813.327000000001</v>
       </c>
-      <c r="I21" s="164"/>
-      <c r="J21" s="174">
+      <c r="I21" s="177"/>
+      <c r="J21" s="155">
         <f>D22+H22</f>
         <v>47037</v>
       </c>
-      <c r="K21" s="175"/>
+      <c r="K21" s="156"/>
     </row>
     <row r="22" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="157" t="s">
+      <c r="A22" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="158"/>
-      <c r="C22" s="158"/>
-      <c r="D22" s="159">
+      <c r="B22" s="171"/>
+      <c r="C22" s="171"/>
+      <c r="D22" s="172">
         <f>D20-D21</f>
         <v>0</v>
       </c>
-      <c r="E22" s="159"/>
-      <c r="F22" s="160"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="173"/>
       <c r="G22" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="170">
+      <c r="H22" s="178">
         <f>H20-H21</f>
         <v>47037</v>
       </c>
-      <c r="I22" s="171"/>
-      <c r="J22" s="174"/>
-      <c r="K22" s="175"/>
+      <c r="I22" s="179"/>
+      <c r="J22" s="155"/>
+      <c r="K22" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="J5:K13"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:I3"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="D20:F20"/>
@@ -6368,12 +6393,6 @@
     <mergeCell ref="J21:K22"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="D22:F22"/>
-    <mergeCell ref="J5:K13"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6399,17 +6418,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="165" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
       <c r="J1" s="185" t="s">
         <v>24</v>
       </c>
@@ -6419,32 +6438,32 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="169"/>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
       <c r="J2" s="185"/>
       <c r="K2" s="186"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168" t="s">
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
       <c r="J3" s="94" t="s">
         <v>25</v>
       </c>
@@ -6823,14 +6842,14 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="153"/>
-      <c r="B20" s="154"/>
-      <c r="C20" s="154"/>
-      <c r="D20" s="176">
+      <c r="A20" s="166"/>
+      <c r="B20" s="167"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="157">
         <v>3200</v>
       </c>
-      <c r="E20" s="176"/>
-      <c r="F20" s="177"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="158"/>
       <c r="G20" s="19" t="s">
         <v>1</v>
       </c>
@@ -6839,23 +6858,23 @@
         <v>47038.175999999999</v>
       </c>
       <c r="I20" s="181"/>
-      <c r="J20" s="172" t="s">
+      <c r="J20" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="K20" s="173"/>
+      <c r="K20" s="154"/>
     </row>
     <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="155" t="s">
+      <c r="A21" s="168" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="156"/>
-      <c r="C21" s="156"/>
-      <c r="D21" s="178">
+      <c r="B21" s="169"/>
+      <c r="C21" s="169"/>
+      <c r="D21" s="159">
         <f>SUM(B5:B19)+SUM(E5:E19)</f>
         <v>3200</v>
       </c>
-      <c r="E21" s="178"/>
-      <c r="F21" s="179"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="160"/>
       <c r="G21" s="20" t="s">
         <v>22</v>
       </c>
@@ -6863,44 +6882,38 @@
         <f>SUM(H5:H19)</f>
         <v>-6279.6200000000008</v>
       </c>
-      <c r="I21" s="164"/>
-      <c r="J21" s="174">
+      <c r="I21" s="177"/>
+      <c r="J21" s="155">
         <f>D22+H22</f>
         <v>53317.796000000002</v>
       </c>
-      <c r="K21" s="175"/>
+      <c r="K21" s="156"/>
     </row>
     <row r="22" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="157" t="s">
+      <c r="A22" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="158"/>
-      <c r="C22" s="158"/>
-      <c r="D22" s="159">
+      <c r="B22" s="171"/>
+      <c r="C22" s="171"/>
+      <c r="D22" s="172">
         <f>D20-D21</f>
         <v>0</v>
       </c>
-      <c r="E22" s="159"/>
-      <c r="F22" s="160"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="173"/>
       <c r="G22" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="170">
+      <c r="H22" s="178">
         <f>H20-H21</f>
         <v>53317.796000000002</v>
       </c>
-      <c r="I22" s="171"/>
-      <c r="J22" s="174"/>
-      <c r="K22" s="175"/>
+      <c r="I22" s="179"/>
+      <c r="J22" s="155"/>
+      <c r="K22" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="J5:K13"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:I3"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="D20:F20"/>
@@ -6912,6 +6925,12 @@
     <mergeCell ref="J21:K22"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="D22:F22"/>
+    <mergeCell ref="J5:K13"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6937,17 +6956,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="165" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
       <c r="J1" s="185" t="s">
         <v>24</v>
       </c>
@@ -6957,32 +6976,32 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="169"/>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
       <c r="J2" s="185"/>
       <c r="K2" s="186"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168" t="s">
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
       <c r="J3" s="105" t="s">
         <v>25</v>
       </c>
@@ -7393,16 +7412,16 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="153" t="s">
+      <c r="A20" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="154"/>
-      <c r="C20" s="154"/>
-      <c r="D20" s="176">
+      <c r="B20" s="167"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="157">
         <v>3000</v>
       </c>
-      <c r="E20" s="176"/>
-      <c r="F20" s="177"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="158"/>
       <c r="G20" s="19" t="s">
         <v>1</v>
       </c>
@@ -7410,23 +7429,23 @@
         <v>53317.796000000002</v>
       </c>
       <c r="I20" s="181"/>
-      <c r="J20" s="172" t="s">
+      <c r="J20" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="K20" s="173"/>
+      <c r="K20" s="154"/>
     </row>
     <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="155" t="s">
+      <c r="A21" s="168" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="156"/>
-      <c r="C21" s="156"/>
-      <c r="D21" s="178">
+      <c r="B21" s="169"/>
+      <c r="C21" s="169"/>
+      <c r="D21" s="159">
         <f>SUM(B5:B19)+SUM(E5:E19)</f>
         <v>3000</v>
       </c>
-      <c r="E21" s="178"/>
-      <c r="F21" s="179"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="160"/>
       <c r="G21" s="20" t="s">
         <v>22</v>
       </c>
@@ -7434,38 +7453,44 @@
         <f>SUM(H5:H19)</f>
         <v>-3172.8290000000002</v>
       </c>
-      <c r="I21" s="164"/>
-      <c r="J21" s="174">
+      <c r="I21" s="177"/>
+      <c r="J21" s="155">
         <f>D22+H22</f>
         <v>56490.625</v>
       </c>
-      <c r="K21" s="175"/>
+      <c r="K21" s="156"/>
     </row>
     <row r="22" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="157" t="s">
+      <c r="A22" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="158"/>
-      <c r="C22" s="158"/>
-      <c r="D22" s="159">
+      <c r="B22" s="171"/>
+      <c r="C22" s="171"/>
+      <c r="D22" s="172">
         <f>D20-D21</f>
         <v>0</v>
       </c>
-      <c r="E22" s="159"/>
-      <c r="F22" s="160"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="173"/>
       <c r="G22" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="170">
+      <c r="H22" s="178">
         <f>H20-H21</f>
         <v>56490.625</v>
       </c>
-      <c r="I22" s="171"/>
-      <c r="J22" s="174"/>
-      <c r="K22" s="175"/>
+      <c r="I22" s="179"/>
+      <c r="J22" s="155"/>
+      <c r="K22" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="J5:K13"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:I3"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="D20:F20"/>
@@ -7477,12 +7502,6 @@
     <mergeCell ref="J21:K22"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="D22:F22"/>
-    <mergeCell ref="J5:K13"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7540,19 +7559,19 @@
       <c r="K2" s="194"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168" t="s">
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
       <c r="J3" s="195" t="s">
         <v>192</v>
       </c>
@@ -7977,17 +7996,17 @@
       <c r="K19" s="111"/>
     </row>
     <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="153" t="s">
+      <c r="A20" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="154"/>
-      <c r="C20" s="154"/>
-      <c r="D20" s="176">
+      <c r="B20" s="167"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="157">
         <f>4050+160</f>
         <v>4210</v>
       </c>
-      <c r="E20" s="176"/>
-      <c r="F20" s="177"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="158"/>
       <c r="G20" s="19" t="s">
         <v>1</v>
       </c>
@@ -7999,17 +8018,17 @@
       <c r="K20" s="111"/>
     </row>
     <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="155" t="s">
+      <c r="A21" s="168" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="156"/>
-      <c r="C21" s="156"/>
-      <c r="D21" s="178">
+      <c r="B21" s="169"/>
+      <c r="C21" s="169"/>
+      <c r="D21" s="159">
         <f>SUM(B5:B19)+SUM(E5:E19)</f>
         <v>4192</v>
       </c>
-      <c r="E21" s="178"/>
-      <c r="F21" s="179"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="160"/>
       <c r="G21" s="20" t="s">
         <v>193</v>
       </c>
@@ -8025,17 +8044,17 @@
       <c r="K21" s="111"/>
     </row>
     <row r="22" spans="1:12" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="157" t="s">
+      <c r="A22" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="158"/>
-      <c r="C22" s="158"/>
-      <c r="D22" s="159">
+      <c r="B22" s="171"/>
+      <c r="C22" s="171"/>
+      <c r="D22" s="172">
         <f>D20-D21</f>
         <v>18</v>
       </c>
-      <c r="E22" s="159"/>
-      <c r="F22" s="160"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="173"/>
       <c r="G22" s="21" t="s">
         <v>7</v>
       </c>
@@ -8119,19 +8138,19 @@
       <c r="K2" s="194"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168" t="s">
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
       <c r="J3" s="195" t="s">
         <v>192</v>
       </c>
@@ -8491,16 +8510,16 @@
       <c r="K19" s="117"/>
     </row>
     <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="153" t="s">
+      <c r="A20" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="154"/>
-      <c r="C20" s="154"/>
-      <c r="D20" s="176">
+      <c r="B20" s="167"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="157">
         <v>4135</v>
       </c>
-      <c r="E20" s="176"/>
-      <c r="F20" s="177"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="158"/>
       <c r="G20" s="19" t="s">
         <v>1</v>
       </c>
@@ -8512,17 +8531,17 @@
       <c r="K20" s="117"/>
     </row>
     <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="155" t="s">
+      <c r="A21" s="168" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="156"/>
-      <c r="C21" s="156"/>
-      <c r="D21" s="178">
+      <c r="B21" s="169"/>
+      <c r="C21" s="169"/>
+      <c r="D21" s="159">
         <f>SUM(B5:B19)+SUM(E5:E19)</f>
         <v>4125</v>
       </c>
-      <c r="E21" s="178"/>
-      <c r="F21" s="179"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="160"/>
       <c r="G21" s="20" t="s">
         <v>193</v>
       </c>
@@ -8538,17 +8557,17 @@
       <c r="K21" s="117"/>
     </row>
     <row r="22" spans="1:12" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="157" t="s">
+      <c r="A22" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="158"/>
-      <c r="C22" s="158"/>
-      <c r="D22" s="159">
+      <c r="B22" s="171"/>
+      <c r="C22" s="171"/>
+      <c r="D22" s="172">
         <f>D20-D21</f>
         <v>10</v>
       </c>
-      <c r="E22" s="159"/>
-      <c r="F22" s="160"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="173"/>
       <c r="G22" s="21" t="s">
         <v>7</v>
       </c>
@@ -8562,6 +8581,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="H22:I22"/>
     <mergeCell ref="A1:K2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:I3"/>
@@ -8569,11 +8593,6 @@
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="D20:F20"/>
     <mergeCell ref="H20:I20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="H22:I22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8631,19 +8650,19 @@
       <c r="K2" s="194"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168" t="s">
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
       <c r="J3" s="195" t="s">
         <v>192</v>
       </c>
@@ -9026,17 +9045,17 @@
       <c r="K19" s="124"/>
     </row>
     <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="153" t="s">
+      <c r="A20" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="154"/>
-      <c r="C20" s="154"/>
-      <c r="D20" s="176">
+      <c r="B20" s="167"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="157">
         <f>3010-200-200+50+1000-82</f>
         <v>3578</v>
       </c>
-      <c r="E20" s="176"/>
-      <c r="F20" s="177"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="158"/>
       <c r="G20" s="19" t="s">
         <v>1</v>
       </c>
@@ -9049,17 +9068,17 @@
       <c r="K20" s="124"/>
     </row>
     <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="155" t="s">
+      <c r="A21" s="168" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="156"/>
-      <c r="C21" s="156"/>
-      <c r="D21" s="178">
+      <c r="B21" s="169"/>
+      <c r="C21" s="169"/>
+      <c r="D21" s="159">
         <f>SUM(B5:B19)+SUM(E5:E19)</f>
         <v>3578</v>
       </c>
-      <c r="E21" s="178"/>
-      <c r="F21" s="179"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="160"/>
       <c r="G21" s="20" t="s">
         <v>193</v>
       </c>
@@ -9075,17 +9094,17 @@
       <c r="K21" s="124"/>
     </row>
     <row r="22" spans="1:12" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="157" t="s">
+      <c r="A22" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="158"/>
-      <c r="C22" s="158"/>
-      <c r="D22" s="159">
+      <c r="B22" s="171"/>
+      <c r="C22" s="171"/>
+      <c r="D22" s="172">
         <f>D20-D21</f>
         <v>0</v>
       </c>
-      <c r="E22" s="159"/>
-      <c r="F22" s="160"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="173"/>
       <c r="G22" s="21" t="s">
         <v>7</v>
       </c>
@@ -9099,11 +9118,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="H22:I22"/>
     <mergeCell ref="A1:K2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:I3"/>
@@ -9111,6 +9125,11 @@
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="D20:F20"/>
     <mergeCell ref="H20:I20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="H22:I22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9169,19 +9188,19 @@
       <c r="K2" s="194"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168" t="s">
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
       <c r="J3" s="195" t="s">
         <v>192</v>
       </c>
@@ -9596,16 +9615,16 @@
       <c r="K19" s="129"/>
     </row>
     <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="153" t="s">
+      <c r="A20" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="154"/>
-      <c r="C20" s="154"/>
-      <c r="D20" s="176">
+      <c r="B20" s="167"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="157">
         <v>4800</v>
       </c>
-      <c r="E20" s="176"/>
-      <c r="F20" s="177"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="158"/>
       <c r="G20" s="19" t="s">
         <v>1</v>
       </c>
@@ -9617,17 +9636,17 @@
       <c r="K20" s="129"/>
     </row>
     <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="155" t="s">
+      <c r="A21" s="168" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="156"/>
-      <c r="C21" s="156"/>
-      <c r="D21" s="178">
+      <c r="B21" s="169"/>
+      <c r="C21" s="169"/>
+      <c r="D21" s="159">
         <f>SUM(B5:B19)+SUM(E5:E19)</f>
         <v>3767</v>
       </c>
-      <c r="E21" s="178"/>
-      <c r="F21" s="179"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="160"/>
       <c r="G21" s="20" t="s">
         <v>193</v>
       </c>
@@ -9643,17 +9662,17 @@
       <c r="K21" s="129"/>
     </row>
     <row r="22" spans="1:12" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="157" t="s">
+      <c r="A22" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="158"/>
-      <c r="C22" s="158"/>
-      <c r="D22" s="159">
+      <c r="B22" s="171"/>
+      <c r="C22" s="171"/>
+      <c r="D22" s="172">
         <f>D20-D21</f>
         <v>1033</v>
       </c>
-      <c r="E22" s="159"/>
-      <c r="F22" s="160"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="173"/>
       <c r="G22" s="21" t="s">
         <v>7</v>
       </c>
@@ -9667,11 +9686,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="H22:I22"/>
     <mergeCell ref="A1:K2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:I3"/>
@@ -9679,6 +9693,11 @@
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="D20:F20"/>
     <mergeCell ref="H20:I20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="H22:I22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9689,7 +9708,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -9737,19 +9756,19 @@
       <c r="K2" s="194"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168" t="s">
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
       <c r="J3" s="195" t="s">
         <v>192</v>
       </c>
@@ -9952,7 +9971,9 @@
       <c r="E11" s="53"/>
       <c r="F11" s="57"/>
       <c r="G11" s="14"/>
-      <c r="H11" s="97"/>
+      <c r="H11" s="97">
+        <v>-20</v>
+      </c>
       <c r="I11" s="135"/>
       <c r="J11" s="136"/>
       <c r="K11" s="136"/>
@@ -9970,9 +9991,15 @@
       <c r="D12" s="13"/>
       <c r="E12" s="53"/>
       <c r="F12" s="57"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="135"/>
+      <c r="G12" s="14">
+        <v>44893</v>
+      </c>
+      <c r="H12" s="97">
+        <v>765</v>
+      </c>
+      <c r="I12" s="135" t="s">
+        <v>251</v>
+      </c>
       <c r="J12" s="136"/>
       <c r="K12" s="136"/>
     </row>
@@ -9988,8 +10015,12 @@
       <c r="E13" s="53"/>
       <c r="F13" s="57"/>
       <c r="G13" s="14"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="135"/>
+      <c r="H13" s="97">
+        <v>-47.500999999999998</v>
+      </c>
+      <c r="I13" s="135" t="s">
+        <v>252</v>
+      </c>
       <c r="J13" s="136"/>
       <c r="K13" s="136"/>
     </row>
@@ -10004,8 +10035,13 @@
       <c r="D14" s="138"/>
       <c r="E14" s="53"/>
       <c r="F14" s="57"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="97"/>
+      <c r="G14" s="14">
+        <v>44895</v>
+      </c>
+      <c r="H14" s="97">
+        <f>50+214.5</f>
+        <v>264.5</v>
+      </c>
       <c r="I14" s="135"/>
       <c r="J14" s="136"/>
       <c r="K14" s="136"/>
@@ -10031,9 +10067,16 @@
       <c r="K15" s="136"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="57"/>
+      <c r="A16" s="13">
+        <v>44886</v>
+      </c>
+      <c r="B16" s="53">
+        <f>80+67+20</f>
+        <v>167</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>250</v>
+      </c>
       <c r="D16" s="138"/>
       <c r="E16" s="53"/>
       <c r="F16" s="57"/>
@@ -10044,8 +10087,12 @@
       <c r="K16" s="136"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
-      <c r="B17" s="53"/>
+      <c r="A17" s="13">
+        <v>44888</v>
+      </c>
+      <c r="B17" s="53">
+        <v>20</v>
+      </c>
       <c r="C17" s="57"/>
       <c r="D17" s="138"/>
       <c r="E17" s="53"/>
@@ -10078,23 +10125,27 @@
       <c r="E19" s="54"/>
       <c r="F19" s="58"/>
       <c r="G19" s="121"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="18"/>
+      <c r="H19" s="98">
+        <v>47847.205999999998</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>253</v>
+      </c>
       <c r="J19" s="136"/>
       <c r="K19" s="136"/>
     </row>
     <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="153" t="s">
+      <c r="A20" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="154"/>
-      <c r="C20" s="154"/>
-      <c r="D20" s="176">
+      <c r="B20" s="167"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="157">
         <f>3033-795+500</f>
         <v>2738</v>
       </c>
-      <c r="E20" s="176"/>
-      <c r="F20" s="177"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="158"/>
       <c r="G20" s="19" t="s">
         <v>1</v>
       </c>
@@ -10106,17 +10157,17 @@
       <c r="K20" s="136"/>
     </row>
     <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="155" t="s">
+      <c r="A21" s="168" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="156"/>
-      <c r="C21" s="156"/>
-      <c r="D21" s="178">
+      <c r="B21" s="169"/>
+      <c r="C21" s="169"/>
+      <c r="D21" s="159">
         <f>SUM(B5:B19)+SUM(E5:E19)</f>
-        <v>2538</v>
-      </c>
-      <c r="E21" s="178"/>
-      <c r="F21" s="179"/>
+        <v>2725</v>
+      </c>
+      <c r="E21" s="159"/>
+      <c r="F21" s="160"/>
       <c r="G21" s="20" t="s">
         <v>193</v>
       </c>
@@ -10126,41 +10177,36 @@
       </c>
       <c r="I21" s="133">
         <f>SUM(H6:H18)</f>
-        <v>3340.4809999999998</v>
+        <v>4302.4799999999996</v>
       </c>
       <c r="J21" s="113"/>
       <c r="K21" s="136"/>
     </row>
     <row r="22" spans="1:12" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="157" t="s">
+      <c r="A22" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="158"/>
-      <c r="C22" s="158"/>
-      <c r="D22" s="159">
+      <c r="B22" s="171"/>
+      <c r="C22" s="171"/>
+      <c r="D22" s="172">
         <f>D20-D21</f>
-        <v>200</v>
-      </c>
-      <c r="E22" s="159"/>
-      <c r="F22" s="160"/>
+        <v>13</v>
+      </c>
+      <c r="E22" s="172"/>
+      <c r="F22" s="173"/>
       <c r="G22" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="197">
+      <c r="H22" s="210">
         <f>H20+H21-SUM(H6:H19)</f>
-        <v>71544.705000000002</v>
-      </c>
-      <c r="I22" s="198"/>
+        <v>22735.5</v>
+      </c>
+      <c r="I22" s="211"/>
       <c r="J22" s="113"/>
       <c r="K22" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="H22:I22"/>
     <mergeCell ref="A1:K2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:I3"/>
@@ -10168,6 +10214,11 @@
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="D20:F20"/>
     <mergeCell ref="H20:I20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="H22:I22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10191,52 +10242,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="165" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="167" t="s">
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="163" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="166">
+      <c r="K1" s="162">
         <f>D26-B7</f>
         <v>4173</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="169"/>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="166"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="162"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168" t="s">
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
       <c r="J3" s="9" t="s">
         <v>25</v>
       </c>
@@ -10307,8 +10358,8 @@
         <v>-0.127</v>
       </c>
       <c r="I5" s="25"/>
-      <c r="J5" s="167"/>
-      <c r="K5" s="167"/>
+      <c r="J5" s="163"/>
+      <c r="K5" s="163"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
@@ -10334,8 +10385,8 @@
       <c r="I6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="167"/>
-      <c r="K6" s="167"/>
+      <c r="J6" s="163"/>
+      <c r="K6" s="163"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
@@ -10364,8 +10415,8 @@
       <c r="I7" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="167"/>
-      <c r="K7" s="167"/>
+      <c r="J7" s="163"/>
+      <c r="K7" s="163"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
@@ -10389,8 +10440,8 @@
       <c r="I8" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="167"/>
-      <c r="K8" s="167"/>
+      <c r="J8" s="163"/>
+      <c r="K8" s="163"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
@@ -10414,8 +10465,8 @@
       <c r="I9" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="167"/>
-      <c r="K9" s="167"/>
+      <c r="J9" s="163"/>
+      <c r="K9" s="163"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
@@ -10437,8 +10488,8 @@
       <c r="I10" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="167"/>
-      <c r="K10" s="167"/>
+      <c r="J10" s="163"/>
+      <c r="K10" s="163"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
@@ -10464,8 +10515,8 @@
       <c r="I11" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="167"/>
-      <c r="K11" s="167"/>
+      <c r="J11" s="163"/>
+      <c r="K11" s="163"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
@@ -10488,8 +10539,8 @@
       <c r="I12" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="J12" s="167"/>
-      <c r="K12" s="167"/>
+      <c r="J12" s="163"/>
+      <c r="K12" s="163"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
@@ -10512,8 +10563,8 @@
       <c r="I13" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="J13" s="167"/>
-      <c r="K13" s="167"/>
+      <c r="J13" s="163"/>
+      <c r="K13" s="163"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
@@ -10535,8 +10586,8 @@
       <c r="I14" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="J14" s="167"/>
-      <c r="K14" s="167"/>
+      <c r="J14" s="163"/>
+      <c r="K14" s="163"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
@@ -10559,8 +10610,8 @@
       <c r="I15" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J15" s="167"/>
-      <c r="K15" s="167"/>
+      <c r="J15" s="163"/>
+      <c r="K15" s="163"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
@@ -10585,8 +10636,8 @@
       <c r="I16" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="J16" s="167"/>
-      <c r="K16" s="167"/>
+      <c r="J16" s="163"/>
+      <c r="K16" s="163"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
@@ -10611,8 +10662,8 @@
       <c r="I17" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="J17" s="167"/>
-      <c r="K17" s="167"/>
+      <c r="J17" s="163"/>
+      <c r="K17" s="163"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
@@ -10636,8 +10687,8 @@
       <c r="I18" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="J18" s="167"/>
-      <c r="K18" s="167"/>
+      <c r="J18" s="163"/>
+      <c r="K18" s="163"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
@@ -10790,86 +10841,80 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="153" t="s">
+      <c r="A25" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="154"/>
-      <c r="C25" s="154"/>
-      <c r="D25" s="176">
+      <c r="B25" s="167"/>
+      <c r="C25" s="167"/>
+      <c r="D25" s="157">
         <f>1600+2900+3000</f>
         <v>7500</v>
       </c>
-      <c r="E25" s="176"/>
-      <c r="F25" s="177"/>
+      <c r="E25" s="157"/>
+      <c r="F25" s="158"/>
       <c r="G25" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H25" s="161">
+      <c r="H25" s="174">
         <v>7431.75</v>
       </c>
-      <c r="I25" s="162"/>
-      <c r="J25" s="172" t="s">
+      <c r="I25" s="175"/>
+      <c r="J25" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="K25" s="173"/>
+      <c r="K25" s="154"/>
     </row>
     <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="155" t="s">
+      <c r="A26" s="168" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="156"/>
-      <c r="C26" s="156"/>
-      <c r="D26" s="178">
+      <c r="B26" s="169"/>
+      <c r="C26" s="169"/>
+      <c r="D26" s="159">
         <f>SUM(B5:B24)+SUM(E5:E24)</f>
         <v>4500</v>
       </c>
-      <c r="E26" s="178"/>
-      <c r="F26" s="179"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="160"/>
       <c r="G26" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="163">
+      <c r="H26" s="176">
         <f>SUM(H5:H24)</f>
         <v>1645.7410000000004</v>
       </c>
-      <c r="I26" s="164"/>
-      <c r="J26" s="174">
+      <c r="I26" s="177"/>
+      <c r="J26" s="155">
         <f>D27+H27</f>
         <v>8786.009</v>
       </c>
-      <c r="K26" s="175"/>
+      <c r="K26" s="156"/>
     </row>
     <row r="27" spans="1:12" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="157" t="s">
+      <c r="A27" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="158"/>
-      <c r="C27" s="158"/>
-      <c r="D27" s="159">
+      <c r="B27" s="171"/>
+      <c r="C27" s="171"/>
+      <c r="D27" s="172">
         <f>D25-D26-L24</f>
         <v>3000</v>
       </c>
-      <c r="E27" s="159"/>
-      <c r="F27" s="160"/>
+      <c r="E27" s="172"/>
+      <c r="F27" s="173"/>
       <c r="G27" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="170">
+      <c r="H27" s="178">
         <f>H25-H26</f>
         <v>5786.009</v>
       </c>
-      <c r="I27" s="171"/>
-      <c r="J27" s="174"/>
-      <c r="K27" s="175"/>
+      <c r="I27" s="179"/>
+      <c r="J27" s="155"/>
+      <c r="K27" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="J5:K18"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:I3"/>
     <mergeCell ref="H27:I27"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
@@ -10881,12 +10926,30 @@
     <mergeCell ref="J26:K27"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="D27:F27"/>
+    <mergeCell ref="J5:K18"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC4BE87-36C9-4B53-A292-DC3B21731D28}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:T1000"/>
   <sheetViews>
@@ -11394,7 +11457,7 @@
       </c>
       <c r="B21" s="99">
         <f>Tháng_11_22!I21</f>
-        <v>3340.4809999999998</v>
+        <v>4302.4799999999996</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -12478,12 +12541,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A68A7E-F097-4085-B2D7-209459DBD406}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12497,12 +12560,12 @@
         <v>241</v>
       </c>
       <c r="C1" s="143">
-        <f>(Tháng_11_22!H22+15000+50000)/1000</f>
-        <v>136.54470500000002</v>
+        <f>(Tháng_11_22!H22+50000)/1000</f>
+        <v>72.735500000000002</v>
       </c>
       <c r="D1" s="141">
         <f>C2-C1</f>
-        <v>682.45529499999998</v>
+        <v>746.2645</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
@@ -12519,7 +12582,7 @@
       </c>
       <c r="C3" s="144">
         <f>C1/C2*100</f>
-        <v>16.672125152625156</v>
+        <v>8.8810134310134305</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
@@ -12962,7 +13025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1573CC19-198F-48CD-8002-17E41717BCB9}">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -13077,52 +13140,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="165" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="167" t="s">
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="163" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="166">
+      <c r="K1" s="162">
         <f>D26-B15-B8-B12-B16-B9-B11-E5</f>
         <v>3395</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="169"/>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="166"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="162"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168" t="s">
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
       <c r="J3" s="30" t="s">
         <v>25</v>
       </c>
@@ -13195,8 +13258,8 @@
       <c r="I5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="167"/>
-      <c r="K5" s="167"/>
+      <c r="J5" s="163"/>
+      <c r="K5" s="163"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
@@ -13228,8 +13291,8 @@
       <c r="I6" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="167"/>
-      <c r="K6" s="167"/>
+      <c r="J6" s="163"/>
+      <c r="K6" s="163"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
@@ -13258,8 +13321,8 @@
       <c r="I7" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="J7" s="167"/>
-      <c r="K7" s="167"/>
+      <c r="J7" s="163"/>
+      <c r="K7" s="163"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
@@ -13281,8 +13344,8 @@
       <c r="G8" s="14"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
-      <c r="J8" s="167"/>
-      <c r="K8" s="167"/>
+      <c r="J8" s="163"/>
+      <c r="K8" s="163"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
@@ -13302,8 +13365,8 @@
       <c r="G9" s="14"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="167"/>
-      <c r="K9" s="167"/>
+      <c r="J9" s="163"/>
+      <c r="K9" s="163"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
@@ -13325,8 +13388,8 @@
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="167"/>
-      <c r="K10" s="167"/>
+      <c r="J10" s="163"/>
+      <c r="K10" s="163"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
@@ -13350,8 +13413,8 @@
       <c r="G11" s="14"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
-      <c r="J11" s="167"/>
-      <c r="K11" s="167"/>
+      <c r="J11" s="163"/>
+      <c r="K11" s="163"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
@@ -13372,8 +13435,8 @@
       <c r="G12" s="14"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="167"/>
-      <c r="K12" s="167"/>
+      <c r="J12" s="163"/>
+      <c r="K12" s="163"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
@@ -13395,8 +13458,8 @@
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="167"/>
-      <c r="K13" s="167"/>
+      <c r="J13" s="163"/>
+      <c r="K13" s="163"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
@@ -13420,8 +13483,8 @@
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
-      <c r="J14" s="167"/>
-      <c r="K14" s="167"/>
+      <c r="J14" s="163"/>
+      <c r="K14" s="163"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
@@ -13444,8 +13507,8 @@
       <c r="G15" s="14"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
-      <c r="J15" s="167"/>
-      <c r="K15" s="167"/>
+      <c r="J15" s="163"/>
+      <c r="K15" s="163"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
@@ -13463,8 +13526,8 @@
       <c r="G16" s="14"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
-      <c r="J16" s="167"/>
-      <c r="K16" s="167"/>
+      <c r="J16" s="163"/>
+      <c r="K16" s="163"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
@@ -13480,8 +13543,8 @@
       <c r="G17" s="14"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
-      <c r="J17" s="167"/>
-      <c r="K17" s="167"/>
+      <c r="J17" s="163"/>
+      <c r="K17" s="163"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
@@ -13497,8 +13560,8 @@
       <c r="G18" s="14"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="167"/>
-      <c r="K18" s="167"/>
+      <c r="J18" s="163"/>
+      <c r="K18" s="163"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
@@ -13642,16 +13705,16 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="153" t="s">
+      <c r="A25" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="154"/>
-      <c r="C25" s="154"/>
-      <c r="D25" s="176">
+      <c r="B25" s="167"/>
+      <c r="C25" s="167"/>
+      <c r="D25" s="157">
         <v>3500</v>
       </c>
-      <c r="E25" s="176"/>
-      <c r="F25" s="177"/>
+      <c r="E25" s="157"/>
+      <c r="F25" s="158"/>
       <c r="G25" s="19" t="s">
         <v>1</v>
       </c>
@@ -13659,59 +13722,1327 @@
         <v>12239.388999999999</v>
       </c>
       <c r="I25" s="181"/>
-      <c r="J25" s="172" t="s">
+      <c r="J25" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="K25" s="173"/>
+      <c r="K25" s="154"/>
     </row>
     <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="155" t="s">
+      <c r="A26" s="168" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="156"/>
-      <c r="C26" s="156"/>
-      <c r="D26" s="178">
+      <c r="B26" s="169"/>
+      <c r="C26" s="169"/>
+      <c r="D26" s="159">
         <f>SUM(B5:B24)+SUM(E5:E24)</f>
         <v>3390</v>
       </c>
-      <c r="E26" s="178"/>
-      <c r="F26" s="179"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="160"/>
       <c r="G26" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="163">
+      <c r="H26" s="176">
         <f>SUM(H5:H24)</f>
         <v>384</v>
       </c>
-      <c r="I26" s="164"/>
-      <c r="J26" s="174">
+      <c r="I26" s="177"/>
+      <c r="J26" s="155">
         <f>D27+H27</f>
         <v>11965.388999999999</v>
       </c>
-      <c r="K26" s="175"/>
+      <c r="K26" s="156"/>
     </row>
     <row r="27" spans="1:12" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="157" t="s">
+      <c r="A27" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="158"/>
-      <c r="C27" s="158"/>
-      <c r="D27" s="159">
+      <c r="B27" s="171"/>
+      <c r="C27" s="171"/>
+      <c r="D27" s="172">
         <f>D25-D26-L24</f>
         <v>110</v>
       </c>
-      <c r="E27" s="159"/>
-      <c r="F27" s="160"/>
+      <c r="E27" s="172"/>
+      <c r="F27" s="173"/>
       <c r="G27" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="170">
+      <c r="H27" s="178">
         <f>H25-H26</f>
         <v>11855.388999999999</v>
       </c>
-      <c r="I27" s="171"/>
-      <c r="J27" s="174"/>
-      <c r="K27" s="175"/>
+      <c r="I27" s="179"/>
+      <c r="J27" s="155"/>
+      <c r="K27" s="156"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K27"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="J5:K18"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:I3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="9" width="9" style="2"/>
+    <col min="10" max="10" width="11.375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10" style="2" customWidth="1"/>
+    <col min="12" max="12" width="18.875" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="165" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="163" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="162">
+        <f>D26-B10</f>
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="162"/>
+    </row>
+    <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="164" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="11">
+        <f>DATEDIF(A5,A17,"d")+1</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="34">
+        <f>K1/K3</f>
+        <v>85.193548387096769</v>
+      </c>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>44409</v>
+      </c>
+      <c r="B5" s="6">
+        <v>20</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="14">
+        <v>44397</v>
+      </c>
+      <c r="H5" s="32">
+        <v>84</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="163"/>
+      <c r="K5" s="163"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>44415</v>
+      </c>
+      <c r="B6" s="6">
+        <f>15+28</f>
+        <v>43</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="14">
+        <v>44400</v>
+      </c>
+      <c r="H6" s="32">
+        <v>500</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="163"/>
+      <c r="K6" s="163"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="13">
+        <v>44416</v>
+      </c>
+      <c r="B7" s="36">
+        <f>65+42+26</f>
+        <v>133</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="32">
+        <v>-200.30199999999999</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="163"/>
+      <c r="K7" s="163"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
+        <v>44420</v>
+      </c>
+      <c r="B8" s="36">
+        <v>1674</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="32">
+        <v>4000</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="163"/>
+      <c r="K8" s="163"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="13"/>
+      <c r="B9" s="36">
+        <f>16+10+47</f>
+        <v>73</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="14">
+        <v>44415</v>
+      </c>
+      <c r="H9" s="32">
+        <v>275</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="163"/>
+      <c r="K9" s="163"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="13">
+        <v>44423</v>
+      </c>
+      <c r="B10" s="36">
+        <v>200</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="14">
+        <v>44418</v>
+      </c>
+      <c r="H10" s="32">
+        <v>-6937.5</v>
+      </c>
+      <c r="I10" s="32"/>
+      <c r="J10" s="163"/>
+      <c r="K10" s="163"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="13"/>
+      <c r="B11" s="36">
+        <f>60+60+186</f>
+        <v>306</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="32">
+        <f>-53.341-0.291</f>
+        <v>-53.631999999999998</v>
+      </c>
+      <c r="I11" s="32"/>
+      <c r="J11" s="163"/>
+      <c r="K11" s="163"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="13"/>
+      <c r="B12" s="36">
+        <v>76</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="14">
+        <v>44442</v>
+      </c>
+      <c r="H12" s="32">
+        <f>200+143+50</f>
+        <v>393</v>
+      </c>
+      <c r="I12" s="32"/>
+      <c r="J12" s="163"/>
+      <c r="K12" s="163"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="13">
+        <v>44426</v>
+      </c>
+      <c r="B13" s="36">
+        <f>55+12+12+6</f>
+        <v>85</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="163"/>
+      <c r="K13" s="163"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="13"/>
+      <c r="B14" s="36">
+        <v>4</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="163"/>
+      <c r="K14" s="163"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="13">
+        <v>44428</v>
+      </c>
+      <c r="B15" s="36">
+        <f>40+130</f>
+        <v>170</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="163"/>
+      <c r="K15" s="163"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="13">
+        <v>44433</v>
+      </c>
+      <c r="B16" s="36">
+        <v>38</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="163"/>
+      <c r="K16" s="163"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="13">
+        <v>44439</v>
+      </c>
+      <c r="B17" s="36">
+        <v>19</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="163"/>
+      <c r="K17" s="163"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="13"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="163"/>
+      <c r="K18" s="163"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="13"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="35">
+        <v>8219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="13"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="35">
+        <f>8293+21</f>
+        <v>8314</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="13"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="35">
+        <f>K20-K19</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="13"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="K22" s="35">
+        <f>K21*3.5</f>
+        <v>332.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="13"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="35">
+        <f>1400+80</f>
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="33">
+        <f>K23+K22</f>
+        <v>1812.5</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="167"/>
+      <c r="C25" s="167"/>
+      <c r="D25" s="157">
+        <v>4110</v>
+      </c>
+      <c r="E25" s="157"/>
+      <c r="F25" s="158"/>
+      <c r="G25" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="180">
+        <v>12239.388999999999</v>
+      </c>
+      <c r="I25" s="181"/>
+      <c r="J25" s="153" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="154"/>
+    </row>
+    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="168" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="169"/>
+      <c r="C26" s="169"/>
+      <c r="D26" s="159">
+        <f>SUM(B5:B24)+SUM(E5:E24)</f>
+        <v>2841</v>
+      </c>
+      <c r="E26" s="159"/>
+      <c r="F26" s="160"/>
+      <c r="G26" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="176">
+        <f>SUM(H5:H24)</f>
+        <v>-1939.4339999999997</v>
+      </c>
+      <c r="I26" s="177"/>
+      <c r="J26" s="155">
+        <f>D27+H27</f>
+        <v>15447.822999999999</v>
+      </c>
+      <c r="K26" s="156"/>
+    </row>
+    <row r="27" spans="1:12" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="170" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="171"/>
+      <c r="C27" s="171"/>
+      <c r="D27" s="172">
+        <f>D25-D26</f>
+        <v>1269</v>
+      </c>
+      <c r="E27" s="172"/>
+      <c r="F27" s="173"/>
+      <c r="G27" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="178">
+        <f>H25-H26</f>
+        <v>14178.822999999999</v>
+      </c>
+      <c r="I27" s="179"/>
+      <c r="J27" s="155"/>
+      <c r="K27" s="156"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K27"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="J5:K18"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:I3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="9" width="9" style="2"/>
+    <col min="10" max="10" width="11.375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10" style="2" customWidth="1"/>
+    <col min="12" max="12" width="18.875" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="165" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="163" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="162">
+        <f>D26-B19</f>
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="162"/>
+    </row>
+    <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="164" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="39">
+        <f>K1/K3</f>
+        <v>100.66666666666667</v>
+      </c>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="13">
+        <v>44440</v>
+      </c>
+      <c r="B5" s="41">
+        <v>140</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="14">
+        <v>44397</v>
+      </c>
+      <c r="H5" s="37">
+        <v>84</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="163"/>
+      <c r="K5" s="163"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="13">
+        <v>44441</v>
+      </c>
+      <c r="B6" s="41">
+        <f>24+35</f>
+        <v>59</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="14">
+        <v>44400</v>
+      </c>
+      <c r="H6" s="37">
+        <v>500</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="163"/>
+      <c r="K6" s="163"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="13">
+        <v>44442</v>
+      </c>
+      <c r="B7" s="41">
+        <v>40</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="37">
+        <v>-200.30199999999999</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="163"/>
+      <c r="K7" s="163"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
+        <v>44443</v>
+      </c>
+      <c r="B8" s="41">
+        <v>366</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="37">
+        <v>4000</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="163"/>
+      <c r="K8" s="163"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="13">
+        <v>44444</v>
+      </c>
+      <c r="B9" s="41">
+        <f>50+17</f>
+        <v>67</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="14">
+        <v>44415</v>
+      </c>
+      <c r="H9" s="37">
+        <v>275</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="163"/>
+      <c r="K9" s="163"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="13">
+        <v>44445</v>
+      </c>
+      <c r="B10" s="41">
+        <f>23+13</f>
+        <v>36</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="14">
+        <v>44418</v>
+      </c>
+      <c r="H10" s="37">
+        <v>-6937.5</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" s="163"/>
+      <c r="K10" s="163"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="13">
+        <v>44449</v>
+      </c>
+      <c r="B11" s="41">
+        <f>27+25+12+14</f>
+        <v>78</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="37">
+        <f>-53.341-0.291</f>
+        <v>-53.631999999999998</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="163"/>
+      <c r="K11" s="163"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="13">
+        <v>44450</v>
+      </c>
+      <c r="B12" s="41">
+        <f>91+25</f>
+        <v>116</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="14">
+        <v>44442</v>
+      </c>
+      <c r="H12" s="37">
+        <f>200+143+50</f>
+        <v>393</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" s="163"/>
+      <c r="K12" s="163"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="13">
+        <v>44452</v>
+      </c>
+      <c r="B13" s="41">
+        <v>57</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="14">
+        <v>44445</v>
+      </c>
+      <c r="H13" s="42">
+        <v>-6937.5</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="J13" s="163"/>
+      <c r="K13" s="163"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
+        <v>44454</v>
+      </c>
+      <c r="B14" s="41">
+        <f>15+18</f>
+        <v>33</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37">
+        <v>28.1</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="163"/>
+      <c r="K14" s="163"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="13">
+        <v>44459</v>
+      </c>
+      <c r="B15" s="41">
+        <f>16+22+60</f>
+        <v>98</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="14">
+        <v>44459</v>
+      </c>
+      <c r="H15" s="37">
+        <f>5000+2000+200+231-2050</f>
+        <v>5381</v>
+      </c>
+      <c r="I15" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="J15" s="163"/>
+      <c r="K15" s="163"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="13"/>
+      <c r="B16" s="41">
+        <f>1755</f>
+        <v>1755</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="14">
+        <v>44466</v>
+      </c>
+      <c r="H16" s="37">
+        <f>400+2000-0.397+310.89</f>
+        <v>2710.4929999999999</v>
+      </c>
+      <c r="I16" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="J16" s="163"/>
+      <c r="K16" s="163"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="13">
+        <v>44466</v>
+      </c>
+      <c r="B17" s="41">
+        <f>20+22+23+40</f>
+        <v>105</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="163"/>
+      <c r="K17" s="163"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="13"/>
+      <c r="B18" s="41">
+        <v>70</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="163"/>
+      <c r="K18" s="163"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="13"/>
+      <c r="B19" s="41">
+        <v>350</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="40">
+        <v>8219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="13"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="40">
+        <v>8326</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="13"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="40">
+        <f>K20-K19</f>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="13"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="K22" s="40">
+        <f>K21*3.5</f>
+        <v>374.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="13"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="40">
+        <f>1300+80</f>
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="38">
+        <f>K23+K22</f>
+        <v>1754.5</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="167"/>
+      <c r="C25" s="167"/>
+      <c r="D25" s="157">
+        <f>1269+5000+300</f>
+        <v>6569</v>
+      </c>
+      <c r="E25" s="157"/>
+      <c r="F25" s="158"/>
+      <c r="G25" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="180">
+        <v>12239.388999999999</v>
+      </c>
+      <c r="I25" s="181"/>
+      <c r="J25" s="153" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="154"/>
+    </row>
+    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="168" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="169"/>
+      <c r="C26" s="169"/>
+      <c r="D26" s="159">
+        <f>SUM(B5:B24)+SUM(E5:E24)</f>
+        <v>3370</v>
+      </c>
+      <c r="E26" s="159"/>
+      <c r="F26" s="160"/>
+      <c r="G26" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="176">
+        <f>SUM(H5:H24)</f>
+        <v>-757.34099999999899</v>
+      </c>
+      <c r="I26" s="177"/>
+      <c r="J26" s="155">
+        <f>D27+H27</f>
+        <v>16195.729999999998</v>
+      </c>
+      <c r="K26" s="156"/>
+    </row>
+    <row r="27" spans="1:12" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="170" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="171"/>
+      <c r="C27" s="171"/>
+      <c r="D27" s="172">
+        <f>D25-D26</f>
+        <v>3199</v>
+      </c>
+      <c r="E27" s="172"/>
+      <c r="F27" s="173"/>
+      <c r="G27" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="178">
+        <f>H25-H26</f>
+        <v>12996.729999999998</v>
+      </c>
+      <c r="I27" s="179"/>
+      <c r="J27" s="155"/>
+      <c r="K27" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -13737,12 +15068,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -13755,57 +15086,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="169" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="167" t="s">
+      <c r="A1" s="165" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="163" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="166">
-        <f>D26-B10</f>
-        <v>2641</v>
+      <c r="K1" s="162">
+        <f>D26-B13</f>
+        <v>3526</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="169"/>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="166"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="162"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168" t="s">
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="35" t="s">
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="46" t="s">
         <v>25</v>
       </c>
       <c r="K3" s="11">
-        <f>DATEDIF(A5,A17,"d")+1</f>
         <v>31</v>
       </c>
     </row>
@@ -13837,396 +15167,392 @@
       <c r="I4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="J4" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="34">
+      <c r="K4" s="45">
         <f>K1/K3</f>
-        <v>85.193548387096769</v>
+        <v>113.74193548387096</v>
       </c>
       <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>44409</v>
-      </c>
-      <c r="B5" s="6">
-        <v>20</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>72</v>
+      <c r="A5" s="13">
+        <v>44470</v>
+      </c>
+      <c r="B5" s="43">
+        <f>106</f>
+        <v>106</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>36</v>
       </c>
       <c r="D5" s="13"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
       <c r="G5" s="14">
-        <v>44397</v>
-      </c>
-      <c r="H5" s="32">
-        <v>84</v>
-      </c>
-      <c r="I5" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="167"/>
-      <c r="K5" s="167"/>
+        <v>44470</v>
+      </c>
+      <c r="H5" s="47">
+        <v>124</v>
+      </c>
+      <c r="I5" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="163"/>
+      <c r="K5" s="163"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>44415</v>
-      </c>
-      <c r="B6" s="6">
-        <f>15+28</f>
-        <v>43</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>73</v>
+      <c r="A6" s="13">
+        <v>44471</v>
+      </c>
+      <c r="B6" s="43">
+        <f>371+55+13+20+10+514+8</f>
+        <v>991</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>92</v>
       </c>
       <c r="D6" s="13"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
       <c r="G6" s="14">
-        <v>44400</v>
-      </c>
-      <c r="H6" s="32">
-        <v>500</v>
-      </c>
-      <c r="I6" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="167"/>
-      <c r="K6" s="167"/>
+        <v>44471</v>
+      </c>
+      <c r="H6" s="47">
+        <f>79.2+3000+90</f>
+        <v>3169.2</v>
+      </c>
+      <c r="I6" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" s="163"/>
+      <c r="K6" s="163"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
-        <v>44416</v>
-      </c>
-      <c r="B7" s="36">
-        <f>65+42+26</f>
-        <v>133</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>74</v>
+        <v>44474</v>
+      </c>
+      <c r="B7" s="43">
+        <v>1772</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>48</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="32">
-        <v>-200.30199999999999</v>
-      </c>
-      <c r="I7" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="J7" s="167"/>
-      <c r="K7" s="167"/>
+      <c r="H7" s="47">
+        <f>-6937.5-400+30</f>
+        <v>-7307.5</v>
+      </c>
+      <c r="I7" s="47"/>
+      <c r="J7" s="163"/>
+      <c r="K7" s="163"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
-        <v>44420</v>
-      </c>
-      <c r="B8" s="36">
-        <v>1674</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>48</v>
+        <v>44477</v>
+      </c>
+      <c r="B8" s="43">
+        <v>194</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>8</v>
       </c>
       <c r="D8" s="13"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
       <c r="G8" s="14"/>
-      <c r="H8" s="32">
-        <v>4000</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="167"/>
-      <c r="K8" s="167"/>
+      <c r="H8" s="47">
+        <f>-1800-2000+120</f>
+        <v>-3680</v>
+      </c>
+      <c r="I8" s="47"/>
+      <c r="J8" s="163"/>
+      <c r="K8" s="163"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
-      <c r="B9" s="36">
-        <f>16+10+47</f>
-        <v>73</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>76</v>
+      <c r="A9" s="13">
+        <v>44479</v>
+      </c>
+      <c r="B9" s="43">
+        <f>17+27</f>
+        <v>44</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>74</v>
       </c>
       <c r="D9" s="13"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
       <c r="G9" s="14">
-        <v>44415</v>
-      </c>
-      <c r="H9" s="32">
-        <v>275</v>
-      </c>
-      <c r="I9" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="J9" s="167"/>
-      <c r="K9" s="167"/>
+        <v>44496</v>
+      </c>
+      <c r="H9" s="47">
+        <v>2000</v>
+      </c>
+      <c r="I9" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" s="163"/>
+      <c r="K9" s="163"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="13">
-        <v>44423</v>
-      </c>
-      <c r="B10" s="36">
-        <v>200</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>77</v>
+      <c r="A10" s="13"/>
+      <c r="B10" s="43">
+        <v>30</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>45</v>
       </c>
       <c r="D10" s="13"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
       <c r="G10" s="14">
-        <v>44418</v>
-      </c>
-      <c r="H10" s="32">
-        <v>-6937.5</v>
-      </c>
-      <c r="I10" s="32"/>
-      <c r="J10" s="167"/>
-      <c r="K10" s="167"/>
+        <v>11628</v>
+      </c>
+      <c r="H10" s="47">
+        <f>105-0.464</f>
+        <v>104.536</v>
+      </c>
+      <c r="I10" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="163"/>
+      <c r="K10" s="163"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
-      <c r="B11" s="36">
-        <f>60+60+186</f>
-        <v>306</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>10</v>
+      <c r="A11" s="13">
+        <v>44488</v>
+      </c>
+      <c r="B11" s="43">
+        <v>30</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>93</v>
       </c>
       <c r="D11" s="13"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
       <c r="G11" s="14"/>
-      <c r="H11" s="32">
-        <f>-53.341-0.291</f>
-        <v>-53.631999999999998</v>
-      </c>
-      <c r="I11" s="32"/>
-      <c r="J11" s="167"/>
-      <c r="K11" s="167"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="163"/>
+      <c r="K11" s="163"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
-      <c r="B12" s="36">
-        <v>76</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>10</v>
+      <c r="B12" s="43">
+        <v>132</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>94</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="14">
-        <v>44442</v>
-      </c>
-      <c r="H12" s="32">
-        <f>200+143+50</f>
-        <v>393</v>
-      </c>
-      <c r="I12" s="32"/>
-      <c r="J12" s="167"/>
-      <c r="K12" s="167"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="163"/>
+      <c r="K12" s="163"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
-        <v>44426</v>
-      </c>
-      <c r="B13" s="36">
-        <f>55+12+12+6</f>
-        <v>85</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>10</v>
+        <v>44490</v>
+      </c>
+      <c r="B13" s="43">
+        <v>150</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>95</v>
       </c>
       <c r="D13" s="13"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="167"/>
-      <c r="K13" s="167"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="163"/>
+      <c r="K13" s="163"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
-      <c r="B14" s="36">
-        <v>4</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>78</v>
+      <c r="A14" s="13">
+        <v>44494</v>
+      </c>
+      <c r="B14" s="43">
+        <v>45</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>45</v>
       </c>
       <c r="D14" s="13"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="167"/>
-      <c r="K14" s="167"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="163"/>
+      <c r="K14" s="163"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
-        <v>44428</v>
-      </c>
-      <c r="B15" s="36">
-        <f>40+130</f>
-        <v>170</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>79</v>
+        <v>44497</v>
+      </c>
+      <c r="B15" s="43">
+        <v>22</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>10</v>
       </c>
       <c r="D15" s="13"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
       <c r="G15" s="14"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="167"/>
-      <c r="K15" s="167"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="163"/>
+      <c r="K15" s="163"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
-        <v>44433</v>
-      </c>
-      <c r="B16" s="36">
-        <v>38</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
+        <v>44498</v>
+      </c>
+      <c r="B16" s="43">
+        <f>5+27</f>
+        <v>32</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
       <c r="G16" s="14"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="167"/>
-      <c r="K16" s="167"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="163"/>
+      <c r="K16" s="163"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
-        <v>44439</v>
-      </c>
-      <c r="B17" s="36">
-        <v>19</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
+        <v>44500</v>
+      </c>
+      <c r="B17" s="43">
+        <f>65+43+20</f>
+        <v>128</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="167"/>
-      <c r="K17" s="167"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="163"/>
+      <c r="K17" s="163"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
       <c r="G18" s="14"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="167"/>
-      <c r="K18" s="167"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="163"/>
+      <c r="K18" s="163"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
       <c r="G19" s="14"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="33" t="s">
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="K19" s="35">
-        <v>8219</v>
+      <c r="K19" s="46">
+        <v>8410</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="33" t="s">
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="35">
-        <f>8293+21</f>
-        <v>8314</v>
+      <c r="K20" s="46">
+        <v>8482</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="33" t="s">
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="K21" s="35">
+      <c r="K21" s="46">
         <f>K20-K19</f>
-        <v>95</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="33" t="s">
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="K22" s="35">
+      <c r="K22" s="46">
         <f>K21*3.5</f>
-        <v>332.5</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="33" t="s">
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="K23" s="35">
+      <c r="K23" s="46">
         <f>1400+80</f>
         <v>1480</v>
       </c>
@@ -14241,745 +15567,89 @@
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
       <c r="I24" s="18"/>
-      <c r="J24" s="33" t="s">
+      <c r="J24" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="K24" s="33">
+      <c r="K24" s="44">
         <f>K23+K22</f>
-        <v>1812.5</v>
+        <v>1732</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="153" t="s">
+      <c r="A25" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="154"/>
-      <c r="C25" s="154"/>
-      <c r="D25" s="176">
-        <v>4110</v>
-      </c>
-      <c r="E25" s="176"/>
-      <c r="F25" s="177"/>
+      <c r="B25" s="167"/>
+      <c r="C25" s="167"/>
+      <c r="D25" s="157">
+        <f>3199+3000+1000</f>
+        <v>7199</v>
+      </c>
+      <c r="E25" s="157"/>
+      <c r="F25" s="158"/>
       <c r="G25" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H25" s="180">
-        <v>12239.388999999999</v>
+        <v>12996.73</v>
       </c>
       <c r="I25" s="181"/>
-      <c r="J25" s="172" t="s">
+      <c r="J25" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="K25" s="173"/>
+      <c r="K25" s="154"/>
     </row>
     <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="155" t="s">
+      <c r="A26" s="168" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="156"/>
-      <c r="C26" s="156"/>
-      <c r="D26" s="178">
+      <c r="B26" s="169"/>
+      <c r="C26" s="169"/>
+      <c r="D26" s="159">
         <f>SUM(B5:B24)+SUM(E5:E24)</f>
-        <v>2841</v>
-      </c>
-      <c r="E26" s="178"/>
-      <c r="F26" s="179"/>
+        <v>3676</v>
+      </c>
+      <c r="E26" s="159"/>
+      <c r="F26" s="160"/>
       <c r="G26" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="163">
+      <c r="H26" s="176">
         <f>SUM(H5:H24)</f>
-        <v>-1939.4339999999997</v>
-      </c>
-      <c r="I26" s="164"/>
-      <c r="J26" s="174">
+        <v>-5589.7640000000001</v>
+      </c>
+      <c r="I26" s="177"/>
+      <c r="J26" s="155">
         <f>D27+H27</f>
-        <v>15447.822999999999</v>
-      </c>
-      <c r="K26" s="175"/>
+        <v>22109.493999999999</v>
+      </c>
+      <c r="K26" s="156"/>
     </row>
     <row r="27" spans="1:12" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="157" t="s">
+      <c r="A27" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="158"/>
-      <c r="C27" s="158"/>
-      <c r="D27" s="159">
+      <c r="B27" s="171"/>
+      <c r="C27" s="171"/>
+      <c r="D27" s="172">
         <f>D25-D26</f>
-        <v>1269</v>
-      </c>
-      <c r="E27" s="159"/>
-      <c r="F27" s="160"/>
+        <v>3523</v>
+      </c>
+      <c r="E27" s="172"/>
+      <c r="F27" s="173"/>
       <c r="G27" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="170">
+      <c r="H27" s="178">
         <f>H25-H26</f>
-        <v>14178.822999999999</v>
-      </c>
-      <c r="I27" s="171"/>
-      <c r="J27" s="174"/>
-      <c r="K27" s="175"/>
-    </row>
-  </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="J5:K18"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K27"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:F27"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:L27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="9" width="9" style="2"/>
-    <col min="10" max="10" width="11.375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10" style="2" customWidth="1"/>
-    <col min="12" max="12" width="18.875" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="169" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="167" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="166">
-        <f>D26-B19</f>
-        <v>3020</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="169"/>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="166"/>
-    </row>
-    <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="168" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="11">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="39">
-        <f>K1/K3</f>
-        <v>100.66666666666667</v>
-      </c>
-      <c r="L4" s="10"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
-        <v>44440</v>
-      </c>
-      <c r="B5" s="41">
-        <v>140</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="14">
-        <v>44397</v>
-      </c>
-      <c r="H5" s="37">
-        <v>84</v>
-      </c>
-      <c r="I5" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="167"/>
-      <c r="K5" s="167"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
-        <v>44441</v>
-      </c>
-      <c r="B6" s="41">
-        <f>24+35</f>
-        <v>59</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="14">
-        <v>44400</v>
-      </c>
-      <c r="H6" s="37">
-        <v>500</v>
-      </c>
-      <c r="I6" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="167"/>
-      <c r="K6" s="167"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
-        <v>44442</v>
-      </c>
-      <c r="B7" s="41">
-        <v>40</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="37">
-        <v>-200.30199999999999</v>
-      </c>
-      <c r="I7" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="J7" s="167"/>
-      <c r="K7" s="167"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="13">
-        <v>44443</v>
-      </c>
-      <c r="B8" s="41">
-        <v>366</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="37">
-        <v>4000</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="167"/>
-      <c r="K8" s="167"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="13">
-        <v>44444</v>
-      </c>
-      <c r="B9" s="41">
-        <f>50+17</f>
-        <v>67</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="14">
-        <v>44415</v>
-      </c>
-      <c r="H9" s="37">
-        <v>275</v>
-      </c>
-      <c r="I9" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="J9" s="167"/>
-      <c r="K9" s="167"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="13">
-        <v>44445</v>
-      </c>
-      <c r="B10" s="41">
-        <f>23+13</f>
-        <v>36</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="14">
-        <v>44418</v>
-      </c>
-      <c r="H10" s="37">
-        <v>-6937.5</v>
-      </c>
-      <c r="I10" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="J10" s="167"/>
-      <c r="K10" s="167"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
-        <v>44449</v>
-      </c>
-      <c r="B11" s="41">
-        <f>27+25+12+14</f>
-        <v>78</v>
-      </c>
-      <c r="C11" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="37">
-        <f>-53.341-0.291</f>
-        <v>-53.631999999999998</v>
-      </c>
-      <c r="I11" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="J11" s="167"/>
-      <c r="K11" s="167"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="13">
-        <v>44450</v>
-      </c>
-      <c r="B12" s="41">
-        <f>91+25</f>
-        <v>116</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="14">
-        <v>44442</v>
-      </c>
-      <c r="H12" s="37">
-        <f>200+143+50</f>
-        <v>393</v>
-      </c>
-      <c r="I12" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="J12" s="167"/>
-      <c r="K12" s="167"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
-        <v>44452</v>
-      </c>
-      <c r="B13" s="41">
-        <v>57</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="14">
-        <v>44445</v>
-      </c>
-      <c r="H13" s="42">
-        <v>-6937.5</v>
-      </c>
-      <c r="I13" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="J13" s="167"/>
-      <c r="K13" s="167"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
-        <v>44454</v>
-      </c>
-      <c r="B14" s="41">
-        <f>15+18</f>
-        <v>33</v>
-      </c>
-      <c r="C14" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37">
-        <v>28.1</v>
-      </c>
-      <c r="I14" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="167"/>
-      <c r="K14" s="167"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="13">
-        <v>44459</v>
-      </c>
-      <c r="B15" s="41">
-        <f>16+22+60</f>
-        <v>98</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="14">
-        <v>44459</v>
-      </c>
-      <c r="H15" s="37">
-        <f>5000+2000+200+231-2050</f>
-        <v>5381</v>
-      </c>
-      <c r="I15" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="J15" s="167"/>
-      <c r="K15" s="167"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
-      <c r="B16" s="41">
-        <f>1755</f>
-        <v>1755</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="14">
-        <v>44466</v>
-      </c>
-      <c r="H16" s="37">
-        <f>400+2000-0.397+310.89</f>
-        <v>2710.4929999999999</v>
-      </c>
-      <c r="I16" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="J16" s="167"/>
-      <c r="K16" s="167"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="13">
-        <v>44466</v>
-      </c>
-      <c r="B17" s="41">
-        <f>20+22+23+40</f>
-        <v>105</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="167"/>
-      <c r="K17" s="167"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
-      <c r="B18" s="41">
-        <v>70</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="167"/>
-      <c r="K18" s="167"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
-      <c r="B19" s="41">
-        <v>350</v>
-      </c>
-      <c r="C19" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="K19" s="40">
-        <v>8219</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="K20" s="40">
-        <v>8326</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="K21" s="40">
-        <f>K20-K19</f>
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="K22" s="40">
-        <f>K21*3.5</f>
-        <v>374.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="13"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="K23" s="40">
-        <f>1300+80</f>
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="K24" s="38">
-        <f>K23+K22</f>
-        <v>1754.5</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="154"/>
-      <c r="C25" s="154"/>
-      <c r="D25" s="176">
-        <f>1269+5000+300</f>
-        <v>6569</v>
-      </c>
-      <c r="E25" s="176"/>
-      <c r="F25" s="177"/>
-      <c r="G25" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H25" s="180">
-        <v>12239.388999999999</v>
-      </c>
-      <c r="I25" s="181"/>
-      <c r="J25" s="172" t="s">
-        <v>23</v>
-      </c>
-      <c r="K25" s="173"/>
-    </row>
-    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="155" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="156"/>
-      <c r="C26" s="156"/>
-      <c r="D26" s="178">
-        <f>SUM(B5:B24)+SUM(E5:E24)</f>
-        <v>3370</v>
-      </c>
-      <c r="E26" s="178"/>
-      <c r="F26" s="179"/>
-      <c r="G26" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" s="163">
-        <f>SUM(H5:H24)</f>
-        <v>-757.34099999999899</v>
-      </c>
-      <c r="I26" s="164"/>
-      <c r="J26" s="174">
-        <f>D27+H27</f>
-        <v>16195.729999999998</v>
-      </c>
-      <c r="K26" s="175"/>
-    </row>
-    <row r="27" spans="1:12" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="157" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="158"/>
-      <c r="C27" s="158"/>
-      <c r="D27" s="159">
-        <f>D25-D26</f>
-        <v>3199</v>
-      </c>
-      <c r="E27" s="159"/>
-      <c r="F27" s="160"/>
-      <c r="G27" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="170">
-        <f>H25-H26</f>
-        <v>12996.729999999998</v>
-      </c>
-      <c r="I27" s="171"/>
-      <c r="J27" s="174"/>
-      <c r="K27" s="175"/>
+        <v>18586.493999999999</v>
+      </c>
+      <c r="I27" s="179"/>
+      <c r="J27" s="155"/>
+      <c r="K27" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -15000,613 +15670,6 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:I3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:L27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="9" width="9" style="2"/>
-    <col min="10" max="10" width="11.375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10" style="2" customWidth="1"/>
-    <col min="12" max="12" width="18.875" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="169" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="167" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="166">
-        <f>D26-B13</f>
-        <v>3526</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="169"/>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="166"/>
-    </row>
-    <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="168" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="11">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="45">
-        <f>K1/K3</f>
-        <v>113.74193548387096</v>
-      </c>
-      <c r="L4" s="10"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
-        <v>44470</v>
-      </c>
-      <c r="B5" s="43">
-        <f>106</f>
-        <v>106</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="14">
-        <v>44470</v>
-      </c>
-      <c r="H5" s="47">
-        <v>124</v>
-      </c>
-      <c r="I5" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="167"/>
-      <c r="K5" s="167"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
-        <v>44471</v>
-      </c>
-      <c r="B6" s="43">
-        <f>371+55+13+20+10+514+8</f>
-        <v>991</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="14">
-        <v>44471</v>
-      </c>
-      <c r="H6" s="47">
-        <f>79.2+3000+90</f>
-        <v>3169.2</v>
-      </c>
-      <c r="I6" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="J6" s="167"/>
-      <c r="K6" s="167"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
-        <v>44474</v>
-      </c>
-      <c r="B7" s="43">
-        <v>1772</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="47">
-        <f>-6937.5-400+30</f>
-        <v>-7307.5</v>
-      </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="167"/>
-      <c r="K7" s="167"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="13">
-        <v>44477</v>
-      </c>
-      <c r="B8" s="43">
-        <v>194</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="47">
-        <f>-1800-2000+120</f>
-        <v>-3680</v>
-      </c>
-      <c r="I8" s="47"/>
-      <c r="J8" s="167"/>
-      <c r="K8" s="167"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="13">
-        <v>44479</v>
-      </c>
-      <c r="B9" s="43">
-        <f>17+27</f>
-        <v>44</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="14">
-        <v>44496</v>
-      </c>
-      <c r="H9" s="47">
-        <v>2000</v>
-      </c>
-      <c r="I9" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="J9" s="167"/>
-      <c r="K9" s="167"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
-      <c r="B10" s="43">
-        <v>30</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="14">
-        <v>11628</v>
-      </c>
-      <c r="H10" s="47">
-        <f>105-0.464</f>
-        <v>104.536</v>
-      </c>
-      <c r="I10" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="167"/>
-      <c r="K10" s="167"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
-        <v>44488</v>
-      </c>
-      <c r="B11" s="43">
-        <v>30</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="167"/>
-      <c r="K11" s="167"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
-      <c r="B12" s="43">
-        <v>132</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="167"/>
-      <c r="K12" s="167"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
-        <v>44490</v>
-      </c>
-      <c r="B13" s="43">
-        <v>150</v>
-      </c>
-      <c r="C13" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="167"/>
-      <c r="K13" s="167"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
-        <v>44494</v>
-      </c>
-      <c r="B14" s="43">
-        <v>45</v>
-      </c>
-      <c r="C14" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="167"/>
-      <c r="K14" s="167"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="13">
-        <v>44497</v>
-      </c>
-      <c r="B15" s="43">
-        <v>22</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="167"/>
-      <c r="K15" s="167"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="13">
-        <v>44498</v>
-      </c>
-      <c r="B16" s="43">
-        <f>5+27</f>
-        <v>32</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="167"/>
-      <c r="K16" s="167"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="13">
-        <v>44500</v>
-      </c>
-      <c r="B17" s="43">
-        <f>65+43+20</f>
-        <v>128</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="167"/>
-      <c r="K17" s="167"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="167"/>
-      <c r="K18" s="167"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="K19" s="46">
-        <v>8410</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="K20" s="46">
-        <v>8482</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="K21" s="46">
-        <f>K20-K19</f>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="K22" s="46">
-        <f>K21*3.5</f>
-        <v>252</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="13"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="K23" s="46">
-        <f>1400+80</f>
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="K24" s="44">
-        <f>K23+K22</f>
-        <v>1732</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="154"/>
-      <c r="C25" s="154"/>
-      <c r="D25" s="176">
-        <f>3199+3000+1000</f>
-        <v>7199</v>
-      </c>
-      <c r="E25" s="176"/>
-      <c r="F25" s="177"/>
-      <c r="G25" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H25" s="180">
-        <v>12996.73</v>
-      </c>
-      <c r="I25" s="181"/>
-      <c r="J25" s="172" t="s">
-        <v>23</v>
-      </c>
-      <c r="K25" s="173"/>
-    </row>
-    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="155" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="156"/>
-      <c r="C26" s="156"/>
-      <c r="D26" s="178">
-        <f>SUM(B5:B24)+SUM(E5:E24)</f>
-        <v>3676</v>
-      </c>
-      <c r="E26" s="178"/>
-      <c r="F26" s="179"/>
-      <c r="G26" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" s="163">
-        <f>SUM(H5:H24)</f>
-        <v>-5589.7640000000001</v>
-      </c>
-      <c r="I26" s="164"/>
-      <c r="J26" s="174">
-        <f>D27+H27</f>
-        <v>22109.493999999999</v>
-      </c>
-      <c r="K26" s="175"/>
-    </row>
-    <row r="27" spans="1:12" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="157" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="158"/>
-      <c r="C27" s="158"/>
-      <c r="D27" s="159">
-        <f>D25-D26</f>
-        <v>3523</v>
-      </c>
-      <c r="E27" s="159"/>
-      <c r="F27" s="160"/>
-      <c r="G27" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="170">
-        <f>H25-H26</f>
-        <v>18586.493999999999</v>
-      </c>
-      <c r="I27" s="171"/>
-      <c r="J27" s="174"/>
-      <c r="K27" s="175"/>
-    </row>
-  </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="J5:K18"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K27"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:F27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15632,52 +15695,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="165" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="167" t="s">
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="163" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="166">
+      <c r="K1" s="162">
         <f>D26-B12</f>
         <v>2648</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="169"/>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="166"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="162"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168" t="s">
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
       <c r="J3" s="51" t="s">
         <v>25</v>
       </c>
@@ -15749,7 +15812,7 @@
         <f>SUM(H5:H24)</f>
         <v>-2007.1869999999999</v>
       </c>
-      <c r="K5" s="167"/>
+      <c r="K5" s="163"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
@@ -15775,8 +15838,8 @@
       <c r="I6" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="J6" s="167"/>
-      <c r="K6" s="167"/>
+      <c r="J6" s="163"/>
+      <c r="K6" s="163"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
@@ -15798,8 +15861,8 @@
         <v>-7307.5</v>
       </c>
       <c r="I7" s="52"/>
-      <c r="J7" s="167"/>
-      <c r="K7" s="167"/>
+      <c r="J7" s="163"/>
+      <c r="K7" s="163"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
@@ -15821,8 +15884,8 @@
         <v>-3680</v>
       </c>
       <c r="I8" s="52"/>
-      <c r="J8" s="167"/>
-      <c r="K8" s="167"/>
+      <c r="J8" s="163"/>
+      <c r="K8" s="163"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
@@ -15847,8 +15910,8 @@
       <c r="I9" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="J9" s="167"/>
-      <c r="K9" s="167"/>
+      <c r="J9" s="163"/>
+      <c r="K9" s="163"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
@@ -15871,8 +15934,8 @@
       <c r="I10" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="167"/>
-      <c r="K10" s="167"/>
+      <c r="J10" s="163"/>
+      <c r="K10" s="163"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
@@ -15897,8 +15960,8 @@
       <c r="I11" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="J11" s="167"/>
-      <c r="K11" s="167"/>
+      <c r="J11" s="163"/>
+      <c r="K11" s="163"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
@@ -15918,8 +15981,8 @@
       <c r="I12" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="J12" s="167"/>
-      <c r="K12" s="167"/>
+      <c r="J12" s="163"/>
+      <c r="K12" s="163"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
@@ -15943,8 +16006,8 @@
       <c r="I13" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="167"/>
-      <c r="K13" s="167"/>
+      <c r="J13" s="163"/>
+      <c r="K13" s="163"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
@@ -15965,8 +16028,8 @@
       <c r="I14" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="J14" s="167"/>
-      <c r="K14" s="167"/>
+      <c r="J14" s="163"/>
+      <c r="K14" s="163"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
@@ -15991,8 +16054,8 @@
       <c r="I15" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="167"/>
-      <c r="K15" s="167"/>
+      <c r="J15" s="163"/>
+      <c r="K15" s="163"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
@@ -16016,8 +16079,8 @@
       <c r="I16" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="J16" s="167"/>
-      <c r="K16" s="167"/>
+      <c r="J16" s="163"/>
+      <c r="K16" s="163"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
@@ -16042,8 +16105,8 @@
       <c r="I17" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="J17" s="167"/>
-      <c r="K17" s="167"/>
+      <c r="J17" s="163"/>
+      <c r="K17" s="163"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
@@ -16061,8 +16124,8 @@
       <c r="I18" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="J18" s="167"/>
-      <c r="K18" s="167"/>
+      <c r="J18" s="163"/>
+      <c r="K18" s="163"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
@@ -16175,17 +16238,17 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="153" t="s">
+      <c r="A25" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="154"/>
-      <c r="C25" s="154"/>
-      <c r="D25" s="176">
+      <c r="B25" s="167"/>
+      <c r="C25" s="167"/>
+      <c r="D25" s="157">
         <f>3523</f>
         <v>3523</v>
       </c>
-      <c r="E25" s="176"/>
-      <c r="F25" s="177"/>
+      <c r="E25" s="157"/>
+      <c r="F25" s="158"/>
       <c r="G25" s="19" t="s">
         <v>1</v>
       </c>
@@ -16193,62 +16256,68 @@
         <v>12996.73</v>
       </c>
       <c r="I25" s="181"/>
-      <c r="J25" s="172" t="s">
+      <c r="J25" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="K25" s="173"/>
+      <c r="K25" s="154"/>
     </row>
     <row r="26" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="155" t="s">
+      <c r="A26" s="168" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="156"/>
-      <c r="C26" s="156"/>
-      <c r="D26" s="178">
+      <c r="B26" s="169"/>
+      <c r="C26" s="169"/>
+      <c r="D26" s="159">
         <f>SUM(B5:B24)+SUM(E5:E24)</f>
         <v>2998</v>
       </c>
-      <c r="E26" s="178"/>
-      <c r="F26" s="179"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="160"/>
       <c r="G26" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="163">
+      <c r="H26" s="176">
         <f>SUM(H5:H24)</f>
         <v>-2007.1869999999999</v>
       </c>
-      <c r="I26" s="164"/>
-      <c r="J26" s="174">
+      <c r="I26" s="177"/>
+      <c r="J26" s="155">
         <f>D27+H27</f>
         <v>15528.916999999999</v>
       </c>
-      <c r="K26" s="175"/>
+      <c r="K26" s="156"/>
     </row>
     <row r="27" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="157" t="s">
+      <c r="A27" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="158"/>
-      <c r="C27" s="158"/>
-      <c r="D27" s="159">
+      <c r="B27" s="171"/>
+      <c r="C27" s="171"/>
+      <c r="D27" s="172">
         <f>D25-D26</f>
         <v>525</v>
       </c>
-      <c r="E27" s="159"/>
-      <c r="F27" s="160"/>
+      <c r="E27" s="172"/>
+      <c r="F27" s="173"/>
       <c r="G27" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="170">
+      <c r="H27" s="178">
         <f>H25-H26</f>
         <v>15003.916999999999</v>
       </c>
-      <c r="I27" s="171"/>
-      <c r="J27" s="174"/>
-      <c r="K27" s="175"/>
+      <c r="I27" s="179"/>
+      <c r="J27" s="155"/>
+      <c r="K27" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="J5:K18"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:I3"/>
     <mergeCell ref="H27:I27"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
@@ -16260,12 +16329,6 @@
     <mergeCell ref="J26:K27"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="D27:F27"/>
-    <mergeCell ref="J5:K18"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16291,52 +16354,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="165" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="167" t="s">
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="163" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="166">
+      <c r="K1" s="162">
         <f>D26-B14</f>
         <v>3525</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="169"/>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="166"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="162"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168" t="s">
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
       <c r="J3" s="62" t="s">
         <v>25</v>
       </c>
@@ -16404,8 +16467,8 @@
       <c r="I5" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="167"/>
-      <c r="K5" s="167"/>
+      <c r="J5" s="163"/>
+      <c r="K5" s="163"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
@@ -16428,8 +16491,8 @@
       <c r="I6" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="J6" s="167"/>
-      <c r="K6" s="167"/>
+      <c r="J6" s="163"/>
+      <c r="K6" s="163"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
@@ -16448,8 +16511,8 @@
         <v>-7307.5</v>
       </c>
       <c r="I7" s="59"/>
-      <c r="J7" s="167"/>
-      <c r="K7" s="167"/>
+      <c r="J7" s="163"/>
+      <c r="K7" s="163"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
@@ -16470,8 +16533,8 @@
         <v>-3680</v>
       </c>
       <c r="I8" s="59"/>
-      <c r="J8" s="167"/>
-      <c r="K8" s="167"/>
+      <c r="J8" s="163"/>
+      <c r="K8" s="163"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
@@ -16496,8 +16559,8 @@
       <c r="I9" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="J9" s="167"/>
-      <c r="K9" s="167"/>
+      <c r="J9" s="163"/>
+      <c r="K9" s="163"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
@@ -16522,8 +16585,8 @@
       <c r="I10" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="167"/>
-      <c r="K10" s="167"/>
+      <c r="J10" s="163"/>
+      <c r="K10" s="163"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
@@ -16548,8 +16611,8 @@
       <c r="I11" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="J11" s="167"/>
-      <c r="K11" s="167"/>
+      <c r="J11" s="163"/>
+      <c r="K11" s="163"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
@@ -16572,8 +16635,8 @@
       <c r="I12" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="J12" s="167"/>
-      <c r="K12" s="167"/>
+      <c r="J12" s="163"/>
+      <c r="K12" s="163"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
@@ -16595,8 +16658,8 @@
       <c r="I13" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="167"/>
-      <c r="K13" s="167"/>
+      <c r="J13" s="163"/>
+      <c r="K13" s="163"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
@@ -16616,8 +16679,8 @@
       <c r="I14" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="J14" s="167"/>
-      <c r="K14" s="167"/>
+      <c r="J14" s="163"/>
+      <c r="K14" s="163"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
@@ -16640,8 +16703,8 @@
       <c r="I15" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="167"/>
-      <c r="K15" s="167"/>
+      <c r="J15" s="163"/>
+      <c r="K15" s="163"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
@@ -16665,8 +16728,8 @@
       <c r="I16" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="J16" s="167"/>
-      <c r="K16" s="167"/>
+      <c r="J16" s="163"/>
+      <c r="K16" s="163"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
@@ -16688,8 +16751,8 @@
       <c r="I17" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="J17" s="167"/>
-      <c r="K17" s="167"/>
+      <c r="J17" s="163"/>
+      <c r="K17" s="163"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
@@ -16713,8 +16776,8 @@
       <c r="I18" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="J18" s="167"/>
-      <c r="K18" s="167"/>
+      <c r="J18" s="163"/>
+      <c r="K18" s="163"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
@@ -16852,17 +16915,17 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="153" t="s">
+      <c r="A25" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="154"/>
-      <c r="C25" s="154"/>
-      <c r="D25" s="176">
+      <c r="B25" s="167"/>
+      <c r="C25" s="167"/>
+      <c r="D25" s="157">
         <f>525+2500+1000</f>
         <v>4025</v>
       </c>
-      <c r="E25" s="176"/>
-      <c r="F25" s="177"/>
+      <c r="E25" s="157"/>
+      <c r="F25" s="158"/>
       <c r="G25" s="19" t="s">
         <v>1</v>
       </c>
@@ -16870,62 +16933,68 @@
         <v>12996.73</v>
       </c>
       <c r="I25" s="181"/>
-      <c r="J25" s="172" t="s">
+      <c r="J25" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="K25" s="173"/>
+      <c r="K25" s="154"/>
     </row>
     <row r="26" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="155" t="s">
+      <c r="A26" s="168" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="156"/>
-      <c r="C26" s="156"/>
-      <c r="D26" s="178">
+      <c r="B26" s="169"/>
+      <c r="C26" s="169"/>
+      <c r="D26" s="159">
         <f>SUM(B5:B24)+SUM(E5:E24)</f>
         <v>4025</v>
       </c>
-      <c r="E26" s="178"/>
-      <c r="F26" s="179"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="160"/>
       <c r="G26" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="163">
+      <c r="H26" s="176">
         <f>SUM(H5:H24)</f>
         <v>-4143.2699999999986</v>
       </c>
-      <c r="I26" s="164"/>
-      <c r="J26" s="174">
+      <c r="I26" s="177"/>
+      <c r="J26" s="155">
         <f>D27+H27</f>
         <v>17140</v>
       </c>
-      <c r="K26" s="175"/>
+      <c r="K26" s="156"/>
     </row>
     <row r="27" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="157" t="s">
+      <c r="A27" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="158"/>
-      <c r="C27" s="158"/>
-      <c r="D27" s="159">
+      <c r="B27" s="171"/>
+      <c r="C27" s="171"/>
+      <c r="D27" s="172">
         <f>D25-D26</f>
         <v>0</v>
       </c>
-      <c r="E27" s="159"/>
-      <c r="F27" s="160"/>
+      <c r="E27" s="172"/>
+      <c r="F27" s="173"/>
       <c r="G27" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="170">
+      <c r="H27" s="178">
         <f>H25-H26</f>
         <v>17140</v>
       </c>
-      <c r="I27" s="171"/>
-      <c r="J27" s="174"/>
-      <c r="K27" s="175"/>
+      <c r="I27" s="179"/>
+      <c r="J27" s="155"/>
+      <c r="K27" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="J5:K18"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:I3"/>
     <mergeCell ref="H27:I27"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
@@ -16937,12 +17006,6 @@
     <mergeCell ref="J26:K27"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="D27:F27"/>
-    <mergeCell ref="J5:K18"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16971,17 +17034,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="165" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
       <c r="J1" s="185" t="s">
         <v>24</v>
       </c>
@@ -16991,32 +17054,32 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="169"/>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
       <c r="J2" s="185"/>
       <c r="K2" s="186"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168" t="s">
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
       <c r="J3" s="71" t="s">
         <v>25</v>
       </c>
@@ -17495,17 +17558,17 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="153" t="s">
+      <c r="A20" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="154"/>
-      <c r="C20" s="154"/>
-      <c r="D20" s="176">
+      <c r="B20" s="167"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="157">
         <f>3000+1000+550</f>
         <v>4550</v>
       </c>
-      <c r="E20" s="176"/>
-      <c r="F20" s="177"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="158"/>
       <c r="G20" s="19" t="s">
         <v>1</v>
       </c>
@@ -17513,68 +17576,62 @@
         <v>17140</v>
       </c>
       <c r="I20" s="181"/>
-      <c r="J20" s="172" t="s">
+      <c r="J20" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="K20" s="173"/>
+      <c r="K20" s="154"/>
     </row>
     <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="155" t="s">
+      <c r="A21" s="168" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="156"/>
-      <c r="C21" s="156"/>
-      <c r="D21" s="178">
+      <c r="B21" s="169"/>
+      <c r="C21" s="169"/>
+      <c r="D21" s="159">
         <f>SUM(B5:B19)+SUM(E5:E19)</f>
         <v>4099</v>
       </c>
-      <c r="E21" s="178"/>
-      <c r="F21" s="179"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="160"/>
       <c r="G21" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="163">
+      <c r="H21" s="176">
         <f>SUM(H5:H19)</f>
         <v>-13360.071</v>
       </c>
-      <c r="I21" s="164"/>
-      <c r="J21" s="174">
+      <c r="I21" s="177"/>
+      <c r="J21" s="155">
         <f>D22+H22</f>
         <v>30951.071</v>
       </c>
-      <c r="K21" s="175"/>
+      <c r="K21" s="156"/>
     </row>
     <row r="22" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="157" t="s">
+      <c r="A22" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="158"/>
-      <c r="C22" s="158"/>
-      <c r="D22" s="159">
+      <c r="B22" s="171"/>
+      <c r="C22" s="171"/>
+      <c r="D22" s="172">
         <f>D20-D21</f>
         <v>451</v>
       </c>
-      <c r="E22" s="159"/>
-      <c r="F22" s="160"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="173"/>
       <c r="G22" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="170">
+      <c r="H22" s="178">
         <f>H20-H21</f>
         <v>30500.071</v>
       </c>
-      <c r="I22" s="171"/>
-      <c r="J22" s="174"/>
-      <c r="K22" s="175"/>
+      <c r="I22" s="179"/>
+      <c r="J22" s="155"/>
+      <c r="K22" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="J5:K13"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:I3"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="D20:F20"/>
@@ -17586,6 +17643,12 @@
     <mergeCell ref="J21:K22"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="D22:F22"/>
+    <mergeCell ref="J5:K13"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/EM KẾ TOÁN .xlsx
+++ b/EM KẾ TOÁN .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5860B748-B5B6-4786-B154-2BCC88304C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F20FC5B-7DAB-4BBC-A387-90BAF11BC87C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6525" yWindow="3030" windowWidth="15495" windowHeight="11385" firstSheet="19" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="19" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tháng4" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="269">
   <si>
     <t>Money</t>
   </si>
@@ -849,6 +849,12 @@
   </si>
   <si>
     <t>Nhau, qua</t>
+  </si>
+  <si>
+    <t>lixi</t>
+  </si>
+  <si>
+    <t>Tiêu Tết</t>
   </si>
 </sst>
 </file>
@@ -1654,7 +1660,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1870,10 +1876,7 @@
     <xf numFmtId="165" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1949,6 +1952,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3096,52 +3105,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="89" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="90">
+      <c r="K1" s="89">
         <f>D26-200-200</f>
         <v>3090</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="90"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92" t="s">
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
       <c r="J3" s="8" t="s">
         <v>25</v>
       </c>
@@ -3211,8 +3220,8 @@
         <v>-0.127</v>
       </c>
       <c r="I5" s="4"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
@@ -3242,8 +3251,8 @@
       <c r="I6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
@@ -3271,8 +3280,8 @@
       <c r="I7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
@@ -3300,8 +3309,8 @@
       <c r="I8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="91"/>
-      <c r="K8" s="91"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
@@ -3325,8 +3334,8 @@
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="91"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
@@ -3349,8 +3358,8 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="91"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
@@ -3375,8 +3384,8 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="91"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="90"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
@@ -3396,8 +3405,8 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="91"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
@@ -3415,8 +3424,8 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="90"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
@@ -3432,8 +3441,8 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
@@ -3451,8 +3460,8 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="91"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
@@ -3470,8 +3479,8 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="90"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
@@ -3490,8 +3499,8 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
@@ -3510,8 +3519,8 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="91"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="90"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
@@ -3652,97 +3661,97 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="94" t="s">
+      <c r="A25" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="95"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="85">
+      <c r="B25" s="94"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="84">
         <f>3090+1500</f>
         <v>4590</v>
       </c>
-      <c r="E25" s="85"/>
-      <c r="F25" s="86"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="85"/>
       <c r="G25" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H25" s="102">
+      <c r="H25" s="101">
         <v>7431.75</v>
       </c>
-      <c r="I25" s="103"/>
-      <c r="J25" s="81" t="s">
+      <c r="I25" s="102"/>
+      <c r="J25" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="K25" s="82"/>
+      <c r="K25" s="81"/>
     </row>
     <row r="26" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="96" t="s">
+      <c r="A26" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="97"/>
-      <c r="C26" s="97"/>
-      <c r="D26" s="87">
+      <c r="B26" s="96"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="86">
         <f>SUM(B5:B24)+SUM(E5:E24)</f>
         <v>3490</v>
       </c>
-      <c r="E26" s="87"/>
-      <c r="F26" s="88"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="87"/>
       <c r="G26" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="104">
+      <c r="H26" s="103">
         <f>SUM(H5:H24)</f>
         <v>1799.873</v>
       </c>
-      <c r="I26" s="105"/>
-      <c r="J26" s="83">
+      <c r="I26" s="104"/>
+      <c r="J26" s="82">
         <f>D27+H27</f>
         <v>6731.8770000000004</v>
       </c>
-      <c r="K26" s="84"/>
+      <c r="K26" s="83"/>
     </row>
     <row r="27" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="98" t="s">
+      <c r="A27" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="99"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="100">
+      <c r="B27" s="98"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="99">
         <f>D25-D26-L24</f>
         <v>1100</v>
       </c>
-      <c r="E27" s="100"/>
-      <c r="F27" s="101"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="100"/>
       <c r="G27" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="79">
+      <c r="H27" s="105">
         <f>H25-H26</f>
         <v>5631.8770000000004</v>
       </c>
-      <c r="I27" s="80"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="84"/>
+      <c r="I27" s="106"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K27"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="J5:K18"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A1:I2"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="J5:K18"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K27"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -3769,52 +3778,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="111" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="112">
+      <c r="K1" s="113">
         <f>SUM(H5:H19)-H7-H15</f>
         <v>3825.5789999999997</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="112"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="113"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92" t="s">
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
       <c r="J3" s="9" t="s">
         <v>25</v>
       </c>
@@ -3880,11 +3889,11 @@
       <c r="I5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="109">
+      <c r="J5" s="110">
         <f>-SUM(H5:H19)</f>
         <v>1192.6699999999998</v>
       </c>
-      <c r="K5" s="110"/>
+      <c r="K5" s="111"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
@@ -3906,8 +3915,8 @@
       <c r="I6" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
@@ -3927,8 +3936,8 @@
       <c r="I7" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
@@ -3951,8 +3960,8 @@
       <c r="I8" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
@@ -3972,8 +3981,8 @@
       <c r="I9" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="J9" s="110"/>
-      <c r="K9" s="110"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
@@ -3995,8 +4004,8 @@
       <c r="I10" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="J10" s="110"/>
-      <c r="K10" s="110"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="111"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
@@ -4019,8 +4028,8 @@
       <c r="I11" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="J11" s="110"/>
-      <c r="K11" s="110"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
@@ -4043,8 +4052,8 @@
       <c r="I12" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="J12" s="110"/>
-      <c r="K12" s="110"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
@@ -4066,8 +4075,8 @@
       <c r="I13" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="J13" s="110"/>
-      <c r="K13" s="110"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
@@ -4193,77 +4202,77 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="94" t="s">
+      <c r="A20" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="95"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="85">
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="84">
         <f>451+520+3000-500</f>
         <v>3471</v>
       </c>
-      <c r="E20" s="85"/>
-      <c r="F20" s="86"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="85"/>
       <c r="G20" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H20" s="106">
+      <c r="H20" s="107">
         <v>30500.071</v>
       </c>
-      <c r="I20" s="107"/>
-      <c r="J20" s="81" t="s">
+      <c r="I20" s="108"/>
+      <c r="J20" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="K20" s="82"/>
+      <c r="K20" s="81"/>
     </row>
     <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="96" t="s">
+      <c r="A21" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="97"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="87">
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="86">
         <f>SUM(B5:B19)+SUM(E5:E19)</f>
         <v>3048</v>
       </c>
-      <c r="E21" s="87"/>
-      <c r="F21" s="88"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="87"/>
       <c r="G21" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="104">
+      <c r="H21" s="103">
         <f>SUM(H5:H19)</f>
         <v>-1192.6699999999998</v>
       </c>
-      <c r="I21" s="105"/>
-      <c r="J21" s="83">
+      <c r="I21" s="104"/>
+      <c r="J21" s="82">
         <f>D22+H22</f>
         <v>32115.740999999998</v>
       </c>
-      <c r="K21" s="84"/>
+      <c r="K21" s="83"/>
     </row>
     <row r="22" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="98" t="s">
+      <c r="A22" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="99"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="100">
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="99">
         <f>D20-D21</f>
         <v>423</v>
       </c>
-      <c r="E22" s="100"/>
-      <c r="F22" s="101"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="100"/>
       <c r="G22" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="79">
+      <c r="H22" s="105">
         <f>H20-H21</f>
         <v>31692.740999999998</v>
       </c>
-      <c r="I22" s="80"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="84"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -4309,52 +4318,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="111" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="112">
+      <c r="K1" s="113">
         <f>SUM(H6:H16)-H7-H10+1799</f>
         <v>3942.0679999999993</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="112"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="113"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92" t="s">
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
       <c r="J3" s="9" t="s">
         <v>25</v>
       </c>
@@ -4425,11 +4434,11 @@
         <v>-10674</v>
       </c>
       <c r="I5" s="4"/>
-      <c r="J5" s="109">
+      <c r="J5" s="110">
         <f>-SUM(H5:H19)</f>
         <v>-1469.068</v>
       </c>
-      <c r="K5" s="110"/>
+      <c r="K5" s="111"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
@@ -4452,8 +4461,8 @@
         <v>-233.25900000000001</v>
       </c>
       <c r="I6" s="4"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
@@ -4481,8 +4490,8 @@
       <c r="I7" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
@@ -4502,8 +4511,8 @@
       <c r="I8" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
@@ -4523,8 +4532,8 @@
       <c r="I9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="110"/>
-      <c r="K9" s="110"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
       <c r="L9" s="28"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -4547,8 +4556,8 @@
       <c r="I10" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="J10" s="110"/>
-      <c r="K10" s="110"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="111"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
@@ -4571,8 +4580,8 @@
       <c r="I11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J11" s="110"/>
-      <c r="K11" s="110"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
@@ -4596,8 +4605,8 @@
       <c r="I12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J12" s="110"/>
-      <c r="K12" s="110"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
@@ -4620,8 +4629,8 @@
       <c r="I13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J13" s="110"/>
-      <c r="K13" s="110"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
@@ -4766,77 +4775,77 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="94" t="s">
+      <c r="A20" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="95"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="85">
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="84">
         <f>423+2000+500-220+100+500</f>
         <v>3303</v>
       </c>
-      <c r="E20" s="85"/>
-      <c r="F20" s="86"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="85"/>
       <c r="G20" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H20" s="106">
+      <c r="H20" s="107">
         <v>31692.741000000002</v>
       </c>
-      <c r="I20" s="107"/>
-      <c r="J20" s="81" t="s">
+      <c r="I20" s="108"/>
+      <c r="J20" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="K20" s="82"/>
+      <c r="K20" s="81"/>
     </row>
     <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="96" t="s">
+      <c r="A21" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="97"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="87">
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="86">
         <f>SUM(B5:B19)+SUM(E5:E19)</f>
         <v>3291</v>
       </c>
-      <c r="E21" s="87"/>
-      <c r="F21" s="88"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="87"/>
       <c r="G21" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="104">
+      <c r="H21" s="103">
         <f>SUM(H5:H19)</f>
         <v>1469.068</v>
       </c>
-      <c r="I21" s="105"/>
-      <c r="J21" s="83">
+      <c r="I21" s="104"/>
+      <c r="J21" s="82">
         <f>D22+H22</f>
         <v>30235.673000000003</v>
       </c>
-      <c r="K21" s="84"/>
+      <c r="K21" s="83"/>
     </row>
     <row r="22" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="98" t="s">
+      <c r="A22" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="99"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="100">
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="99">
         <f>D20-D21</f>
         <v>12</v>
       </c>
-      <c r="E22" s="100"/>
-      <c r="F22" s="101"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="100"/>
       <c r="G22" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="79">
+      <c r="H22" s="105">
         <f>H20-H21</f>
         <v>30223.673000000003</v>
       </c>
-      <c r="I22" s="80"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="84"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -4883,52 +4892,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="111" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="113">
+      <c r="K1" s="114">
         <f>SUM(H6:H19)</f>
         <v>4160.6729999999998</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="113"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="114"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92" t="s">
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
       <c r="J3" s="9" t="s">
         <v>25</v>
       </c>
@@ -5002,11 +5011,11 @@
       <c r="I5" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="J5" s="109">
+      <c r="J5" s="110">
         <f>-SUM(H5:H19)</f>
         <v>16813.327000000001</v>
       </c>
-      <c r="K5" s="110"/>
+      <c r="K5" s="111"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
@@ -5035,8 +5044,8 @@
       <c r="I6" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
@@ -5060,8 +5069,8 @@
         <v>330.673</v>
       </c>
       <c r="I7" s="4"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
@@ -5085,8 +5094,8 @@
       <c r="I8" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
@@ -5108,8 +5117,8 @@
       <c r="I9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="110"/>
-      <c r="K9" s="110"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
@@ -5131,8 +5140,8 @@
       <c r="I10" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="J10" s="110"/>
-      <c r="K10" s="110"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="111"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
@@ -5151,8 +5160,8 @@
       <c r="G11" s="14"/>
       <c r="H11" s="23"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="110"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
@@ -5168,8 +5177,8 @@
       <c r="G12" s="14"/>
       <c r="H12" s="23"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="110"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
@@ -5187,8 +5196,8 @@
       <c r="G13" s="14"/>
       <c r="H13" s="23"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="110"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
@@ -5336,76 +5345,76 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="94" t="s">
+      <c r="A20" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="95"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="85">
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="84">
         <v>3212</v>
       </c>
-      <c r="E20" s="85"/>
-      <c r="F20" s="86"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="85"/>
       <c r="G20" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H20" s="106">
+      <c r="H20" s="107">
         <v>30223.672999999999</v>
       </c>
-      <c r="I20" s="107"/>
-      <c r="J20" s="81" t="s">
+      <c r="I20" s="108"/>
+      <c r="J20" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="K20" s="82"/>
+      <c r="K20" s="81"/>
     </row>
     <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="96" t="s">
+      <c r="A21" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="97"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="87">
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="86">
         <f>SUM(B5:B19)+SUM(E5:E19)</f>
         <v>3212</v>
       </c>
-      <c r="E21" s="87"/>
-      <c r="F21" s="88"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="87"/>
       <c r="G21" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="104">
+      <c r="H21" s="103">
         <f>SUM(H5:H19)</f>
         <v>-16813.327000000001</v>
       </c>
-      <c r="I21" s="105"/>
-      <c r="J21" s="83">
+      <c r="I21" s="104"/>
+      <c r="J21" s="82">
         <f>D22+H22</f>
         <v>47037</v>
       </c>
-      <c r="K21" s="84"/>
+      <c r="K21" s="83"/>
     </row>
     <row r="22" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="98" t="s">
+      <c r="A22" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="99"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="100">
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="99">
         <f>D20-D21</f>
         <v>0</v>
       </c>
-      <c r="E22" s="100"/>
-      <c r="F22" s="101"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="100"/>
       <c r="G22" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="79">
+      <c r="H22" s="105">
         <f>H20-H21</f>
         <v>47037</v>
       </c>
-      <c r="I22" s="80"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="84"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -5451,52 +5460,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="111" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="112">
+      <c r="K1" s="113">
         <f>SUM(H6:H19)-H10</f>
         <v>3288</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="112"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="113"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92" t="s">
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
       <c r="J3" s="9" t="s">
         <v>25</v>
       </c>
@@ -5563,11 +5572,11 @@
       <c r="I5" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="J5" s="109">
+      <c r="J5" s="110">
         <f>-SUM(H5:H19)</f>
         <v>6279.6200000000008</v>
       </c>
-      <c r="K5" s="110"/>
+      <c r="K5" s="111"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
@@ -5587,8 +5596,8 @@
       <c r="I6" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
@@ -5608,8 +5617,8 @@
       <c r="I7" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
@@ -5633,8 +5642,8 @@
       <c r="I8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
@@ -5658,8 +5667,8 @@
       <c r="I9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="110"/>
-      <c r="K9" s="110"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
@@ -5681,8 +5690,8 @@
       <c r="I10" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="J10" s="110"/>
-      <c r="K10" s="110"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="111"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
@@ -5700,8 +5709,8 @@
       <c r="G11" s="14"/>
       <c r="H11" s="29"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="110"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
@@ -5720,8 +5729,8 @@
       <c r="G12" s="14"/>
       <c r="H12" s="29"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="110"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
@@ -5739,8 +5748,8 @@
       <c r="G13" s="14"/>
       <c r="H13" s="29"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="110"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
@@ -5875,75 +5884,75 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="94"/>
-      <c r="B20" s="95"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="85">
+      <c r="A20" s="93"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="84">
         <v>3200</v>
       </c>
-      <c r="E20" s="85"/>
-      <c r="F20" s="86"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="85"/>
       <c r="G20" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H20" s="106">
+      <c r="H20" s="107">
         <f>47037+1.176</f>
         <v>47038.175999999999</v>
       </c>
-      <c r="I20" s="107"/>
-      <c r="J20" s="81" t="s">
+      <c r="I20" s="108"/>
+      <c r="J20" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="K20" s="82"/>
+      <c r="K20" s="81"/>
     </row>
     <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="96" t="s">
+      <c r="A21" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="97"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="87">
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="86">
         <f>SUM(B5:B19)+SUM(E5:E19)</f>
         <v>3200</v>
       </c>
-      <c r="E21" s="87"/>
-      <c r="F21" s="88"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="87"/>
       <c r="G21" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="114">
+      <c r="H21" s="115">
         <f>SUM(H5:H19)</f>
         <v>-6279.6200000000008</v>
       </c>
-      <c r="I21" s="105"/>
-      <c r="J21" s="83">
+      <c r="I21" s="104"/>
+      <c r="J21" s="82">
         <f>D22+H22</f>
         <v>53317.796000000002</v>
       </c>
-      <c r="K21" s="84"/>
+      <c r="K21" s="83"/>
     </row>
     <row r="22" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="98" t="s">
+      <c r="A22" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="99"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="100">
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="99">
         <f>D20-D21</f>
         <v>0</v>
       </c>
-      <c r="E22" s="100"/>
-      <c r="F22" s="101"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="100"/>
       <c r="G22" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="79">
+      <c r="H22" s="105">
         <f>H20-H21</f>
         <v>53317.796000000002</v>
       </c>
-      <c r="I22" s="80"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="84"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -5989,52 +5998,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="92" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="111" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="112">
+      <c r="K1" s="113">
         <f>SUM(H5:H18)-H10-H11-H14-H15</f>
         <v>4480.9560000000001</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="112"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="113"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92" t="s">
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
       <c r="J3" s="9" t="s">
         <v>25</v>
       </c>
@@ -6101,11 +6110,11 @@
       <c r="I5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="109">
+      <c r="J5" s="110">
         <f>-SUM(H5:H19)</f>
         <v>3172.8290000000002</v>
       </c>
-      <c r="K5" s="110"/>
+      <c r="K5" s="111"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
@@ -6125,8 +6134,8 @@
         <v>-1.1739999999999999</v>
       </c>
       <c r="I6" s="4"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
@@ -6150,8 +6159,8 @@
       <c r="I7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
@@ -6173,8 +6182,8 @@
       <c r="I8" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
@@ -6198,8 +6207,8 @@
       <c r="I9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="110"/>
-      <c r="K9" s="110"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
@@ -6219,8 +6228,8 @@
       <c r="I10" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="J10" s="110"/>
-      <c r="K10" s="110"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="111"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
@@ -6243,8 +6252,8 @@
         <v>-11753.785</v>
       </c>
       <c r="I11" s="4"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="110"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
@@ -6267,8 +6276,8 @@
       <c r="I12" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="J12" s="110"/>
-      <c r="K12" s="110"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
@@ -6290,8 +6299,8 @@
       <c r="I13" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="J13" s="110"/>
-      <c r="K13" s="110"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
@@ -6445,76 +6454,76 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="94" t="s">
+      <c r="A20" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="95"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="85">
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="84">
         <v>3000</v>
       </c>
-      <c r="E20" s="85"/>
-      <c r="F20" s="86"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="85"/>
       <c r="G20" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H20" s="106">
+      <c r="H20" s="107">
         <v>53317.796000000002</v>
       </c>
-      <c r="I20" s="107"/>
-      <c r="J20" s="81" t="s">
+      <c r="I20" s="108"/>
+      <c r="J20" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="K20" s="82"/>
+      <c r="K20" s="81"/>
     </row>
     <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="96" t="s">
+      <c r="A21" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="97"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="87">
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="86">
         <f>SUM(B5:B19)+SUM(E5:E19)</f>
         <v>3000</v>
       </c>
-      <c r="E21" s="87"/>
-      <c r="F21" s="88"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="87"/>
       <c r="G21" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="114">
+      <c r="H21" s="115">
         <f>SUM(H5:H19)</f>
         <v>-3172.8290000000002</v>
       </c>
-      <c r="I21" s="105"/>
-      <c r="J21" s="83">
+      <c r="I21" s="104"/>
+      <c r="J21" s="82">
         <f>D22+H22</f>
         <v>56490.625</v>
       </c>
-      <c r="K21" s="84"/>
+      <c r="K21" s="83"/>
     </row>
     <row r="22" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="98" t="s">
+      <c r="A22" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="99"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="100">
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="99">
         <f>D20-D21</f>
         <v>0</v>
       </c>
-      <c r="E22" s="100"/>
-      <c r="F22" s="101"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="100"/>
       <c r="G22" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="79">
+      <c r="H22" s="105">
         <f>H20-H21</f>
         <v>56490.625</v>
       </c>
-      <c r="I22" s="80"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="84"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -6564,51 +6573,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="116" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="117"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="118"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="118"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="120"/>
+      <c r="A2" s="119"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92" t="s">
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="121" t="s">
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="122" t="s">
         <v>192</v>
       </c>
-      <c r="K3" s="122"/>
+      <c r="K3" s="123"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -7029,39 +7038,39 @@
       <c r="K19" s="8"/>
     </row>
     <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="94" t="s">
+      <c r="A20" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="95"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="85">
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="84">
         <f>4050+160</f>
         <v>4210</v>
       </c>
-      <c r="E20" s="85"/>
-      <c r="F20" s="86"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="85"/>
       <c r="G20" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H20" s="125">
+      <c r="H20" s="126">
         <v>56490.625</v>
       </c>
-      <c r="I20" s="126"/>
+      <c r="I20" s="127"/>
       <c r="J20" s="34"/>
       <c r="K20" s="8"/>
     </row>
     <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="96" t="s">
+      <c r="A21" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="97"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="87">
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="86">
         <f>SUM(B5:B19)+SUM(E5:E19)</f>
         <v>4192</v>
       </c>
-      <c r="E21" s="87"/>
-      <c r="F21" s="88"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="87"/>
       <c r="G21" s="19" t="s">
         <v>193</v>
       </c>
@@ -7077,25 +7086,25 @@
       <c r="K21" s="8"/>
     </row>
     <row r="22" spans="1:12" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="98" t="s">
+      <c r="A22" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="99"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="100">
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="99">
         <f>D20-D21</f>
         <v>18</v>
       </c>
-      <c r="E22" s="100"/>
-      <c r="F22" s="101"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="100"/>
       <c r="G22" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="123">
+      <c r="H22" s="124">
         <f>H20-SUM(H5:H19)</f>
         <v>65273</v>
       </c>
-      <c r="I22" s="124"/>
+      <c r="I22" s="125"/>
       <c r="J22" s="34"/>
       <c r="K22" s="8"/>
     </row>
@@ -7143,51 +7152,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="116" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="117"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="118"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="118"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="120"/>
+      <c r="A2" s="119"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92" t="s">
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="121" t="s">
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="122" t="s">
         <v>192</v>
       </c>
-      <c r="K3" s="122"/>
+      <c r="K3" s="123"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -7543,38 +7552,38 @@
       <c r="K19" s="8"/>
     </row>
     <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="94" t="s">
+      <c r="A20" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="95"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="85">
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="84">
         <v>4135</v>
       </c>
-      <c r="E20" s="85"/>
-      <c r="F20" s="86"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="85"/>
       <c r="G20" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H20" s="125">
+      <c r="H20" s="126">
         <v>65273</v>
       </c>
-      <c r="I20" s="126"/>
+      <c r="I20" s="127"/>
       <c r="J20" s="34"/>
       <c r="K20" s="8"/>
     </row>
     <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="96" t="s">
+      <c r="A21" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="97"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="87">
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="86">
         <f>SUM(B5:B19)+SUM(E5:E19)</f>
         <v>4125</v>
       </c>
-      <c r="E21" s="87"/>
-      <c r="F21" s="88"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="87"/>
       <c r="G21" s="19" t="s">
         <v>193</v>
       </c>
@@ -7590,25 +7599,25 @@
       <c r="K21" s="8"/>
     </row>
     <row r="22" spans="1:12" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="98" t="s">
+      <c r="A22" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="99"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="100">
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="99">
         <f>D20-D21</f>
         <v>10</v>
       </c>
-      <c r="E22" s="100"/>
-      <c r="F22" s="101"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="100"/>
       <c r="G22" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="123">
+      <c r="H22" s="124">
         <f>H20+H21-I21</f>
         <v>101201.87</v>
       </c>
-      <c r="I22" s="124"/>
+      <c r="I22" s="125"/>
       <c r="J22" s="34"/>
       <c r="K22" s="8"/>
     </row>
@@ -7655,51 +7664,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="116" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="117"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="118"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="118"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="120"/>
+      <c r="A2" s="119"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92" t="s">
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="121" t="s">
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="122" t="s">
         <v>192</v>
       </c>
-      <c r="K3" s="122"/>
+      <c r="K3" s="123"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -8078,40 +8087,40 @@
       <c r="K19" s="8"/>
     </row>
     <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="94" t="s">
+      <c r="A20" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="95"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="85">
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="84">
         <f>3010-200-200+50+1000-82</f>
         <v>3578</v>
       </c>
-      <c r="E20" s="85"/>
-      <c r="F20" s="86"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="85"/>
       <c r="G20" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H20" s="125">
+      <c r="H20" s="126">
         <f>101201.87-50000-15000</f>
         <v>36201.869999999995</v>
       </c>
-      <c r="I20" s="126"/>
+      <c r="I20" s="127"/>
       <c r="J20" s="34"/>
       <c r="K20" s="8"/>
     </row>
     <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="96" t="s">
+      <c r="A21" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="97"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="87">
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="86">
         <f>SUM(B5:B19)+SUM(E5:E19)</f>
         <v>3578</v>
       </c>
-      <c r="E21" s="87"/>
-      <c r="F21" s="88"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="87"/>
       <c r="G21" s="19" t="s">
         <v>193</v>
       </c>
@@ -8127,25 +8136,25 @@
       <c r="K21" s="8"/>
     </row>
     <row r="22" spans="1:12" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="98" t="s">
+      <c r="A22" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="99"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="100">
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="99">
         <f>D20-D21</f>
         <v>0</v>
       </c>
-      <c r="E22" s="100"/>
-      <c r="F22" s="101"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="100"/>
       <c r="G22" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="123">
+      <c r="H22" s="124">
         <f>H20+H21-I21</f>
         <v>52402.420999999995</v>
       </c>
-      <c r="I22" s="124"/>
+      <c r="I22" s="125"/>
       <c r="J22" s="34"/>
       <c r="K22" s="8"/>
     </row>
@@ -8193,51 +8202,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="116" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="117"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="118"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="118"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="120"/>
+      <c r="A2" s="119"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92" t="s">
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="121" t="s">
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="122" t="s">
         <v>192</v>
       </c>
-      <c r="K3" s="122"/>
+      <c r="K3" s="123"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -8648,38 +8657,38 @@
       <c r="K19" s="8"/>
     </row>
     <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="94" t="s">
+      <c r="A20" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="95"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="85">
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="84">
         <v>4800</v>
       </c>
-      <c r="E20" s="85"/>
-      <c r="F20" s="86"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="85"/>
       <c r="G20" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H20" s="125">
+      <c r="H20" s="126">
         <v>52402.421000000002</v>
       </c>
-      <c r="I20" s="126"/>
+      <c r="I20" s="127"/>
       <c r="J20" s="34"/>
       <c r="K20" s="8"/>
     </row>
     <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="96" t="s">
+      <c r="A21" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="97"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="87">
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="86">
         <f>SUM(B5:B19)+SUM(E5:E19)</f>
         <v>3767</v>
       </c>
-      <c r="E21" s="87"/>
-      <c r="F21" s="88"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="87"/>
       <c r="G21" s="19" t="s">
         <v>193</v>
       </c>
@@ -8695,25 +8704,25 @@
       <c r="K21" s="8"/>
     </row>
     <row r="22" spans="1:12" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="98" t="s">
+      <c r="A22" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="99"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="100">
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="99">
         <f>D20-D21</f>
         <v>1033</v>
       </c>
-      <c r="E22" s="100"/>
-      <c r="F22" s="101"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="100"/>
       <c r="G22" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="123">
+      <c r="H22" s="124">
         <f>H20+H21-SUM(H6:H19)</f>
         <v>43671.481</v>
       </c>
-      <c r="I22" s="124"/>
+      <c r="I22" s="125"/>
       <c r="J22" s="34"/>
       <c r="K22" s="8"/>
     </row>
@@ -8761,51 +8770,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="116" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="117"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="118"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="118"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="120"/>
+      <c r="A2" s="119"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92" t="s">
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="121" t="s">
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="122" t="s">
         <v>192</v>
       </c>
-      <c r="K3" s="122"/>
+      <c r="K3" s="123"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -9168,39 +9177,39 @@
       <c r="K19" s="8"/>
     </row>
     <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="94" t="s">
+      <c r="A20" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="95"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="85">
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="84">
         <f>3033-795+500</f>
         <v>2738</v>
       </c>
-      <c r="E20" s="85"/>
-      <c r="F20" s="86"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="85"/>
       <c r="G20" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H20" s="125">
+      <c r="H20" s="126">
         <v>43671.481</v>
       </c>
-      <c r="I20" s="126"/>
+      <c r="I20" s="127"/>
       <c r="J20" s="34"/>
       <c r="K20" s="8"/>
     </row>
     <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="96" t="s">
+      <c r="A21" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="97"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="87">
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="86">
         <f>SUM(B5:B19)+SUM(E5:E19)</f>
         <v>2725</v>
       </c>
-      <c r="E21" s="87"/>
-      <c r="F21" s="88"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="87"/>
       <c r="G21" s="19" t="s">
         <v>193</v>
       </c>
@@ -9216,25 +9225,25 @@
       <c r="K21" s="8"/>
     </row>
     <row r="22" spans="1:12" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="98" t="s">
+      <c r="A22" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="99"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="100">
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="99">
         <f>D20-D21</f>
         <v>13</v>
       </c>
-      <c r="E22" s="100"/>
-      <c r="F22" s="101"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="100"/>
       <c r="G22" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="127">
+      <c r="H22" s="128">
         <f>H20+H21-SUM(H6:H19)</f>
         <v>22735.5</v>
       </c>
-      <c r="I22" s="128"/>
+      <c r="I22" s="129"/>
       <c r="J22" s="34"/>
       <c r="K22" s="8"/>
     </row>
@@ -9275,52 +9284,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="91" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="90">
+      <c r="K1" s="89">
         <f>D26-B7</f>
         <v>4173</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="90"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="89"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92" t="s">
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
       <c r="J3" s="9" t="s">
         <v>25</v>
       </c>
@@ -9391,8 +9400,8 @@
         <v>-0.127</v>
       </c>
       <c r="I5" s="4"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
@@ -9418,8 +9427,8 @@
       <c r="I6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
@@ -9448,8 +9457,8 @@
       <c r="I7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
@@ -9473,8 +9482,8 @@
       <c r="I8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="91"/>
-      <c r="K8" s="91"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
@@ -9498,8 +9507,8 @@
       <c r="I9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="91"/>
-      <c r="K9" s="91"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
@@ -9521,8 +9530,8 @@
       <c r="I10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="91"/>
-      <c r="K10" s="91"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
@@ -9548,8 +9557,8 @@
       <c r="I11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="91"/>
-      <c r="K11" s="91"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="90"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
@@ -9572,8 +9581,8 @@
       <c r="I12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J12" s="91"/>
-      <c r="K12" s="91"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
@@ -9596,8 +9605,8 @@
       <c r="I13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="90"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
@@ -9619,8 +9628,8 @@
       <c r="I14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
@@ -9643,8 +9652,8 @@
       <c r="I15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J15" s="91"/>
-      <c r="K15" s="91"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
@@ -9669,8 +9678,8 @@
       <c r="I16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="90"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
@@ -9695,8 +9704,8 @@
       <c r="I17" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
@@ -9720,8 +9729,8 @@
       <c r="I18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J18" s="91"/>
-      <c r="K18" s="91"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="90"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
@@ -9874,77 +9883,77 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="94" t="s">
+      <c r="A25" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="95"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="85">
+      <c r="B25" s="94"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="84">
         <f>1600+2900+3000</f>
         <v>7500</v>
       </c>
-      <c r="E25" s="85"/>
-      <c r="F25" s="86"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="85"/>
       <c r="G25" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H25" s="102">
+      <c r="H25" s="101">
         <v>7431.75</v>
       </c>
-      <c r="I25" s="103"/>
-      <c r="J25" s="81" t="s">
+      <c r="I25" s="102"/>
+      <c r="J25" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="K25" s="82"/>
+      <c r="K25" s="81"/>
     </row>
     <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="96" t="s">
+      <c r="A26" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="97"/>
-      <c r="C26" s="97"/>
-      <c r="D26" s="87">
+      <c r="B26" s="96"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="86">
         <f>SUM(B5:B24)+SUM(E5:E24)</f>
         <v>4500</v>
       </c>
-      <c r="E26" s="87"/>
-      <c r="F26" s="88"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="87"/>
       <c r="G26" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="104">
+      <c r="H26" s="103">
         <f>SUM(H5:H24)</f>
         <v>1645.7410000000004</v>
       </c>
-      <c r="I26" s="105"/>
-      <c r="J26" s="83">
+      <c r="I26" s="104"/>
+      <c r="J26" s="82">
         <f>D27+H27</f>
         <v>8786.009</v>
       </c>
-      <c r="K26" s="84"/>
+      <c r="K26" s="83"/>
     </row>
     <row r="27" spans="1:12" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="98" t="s">
+      <c r="A27" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="99"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="100">
+      <c r="B27" s="98"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="99">
         <f>D25-D26-L24</f>
         <v>3000</v>
       </c>
-      <c r="E27" s="100"/>
-      <c r="F27" s="101"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="100"/>
       <c r="G27" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="79">
+      <c r="H27" s="105">
         <f>H25-H26</f>
         <v>5786.009</v>
       </c>
-      <c r="I27" s="80"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="84"/>
+      <c r="I27" s="106"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -9995,51 +10004,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="116" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="117"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="118"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="118"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="120"/>
+      <c r="A2" s="119"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92" t="s">
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="121" t="s">
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="122" t="s">
         <v>192</v>
       </c>
-      <c r="K3" s="122"/>
+      <c r="K3" s="123"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -10404,40 +10413,40 @@
       <c r="K19" s="8"/>
     </row>
     <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="94" t="s">
+      <c r="A20" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="95"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="85">
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="84">
         <f>13+2000+215+800+13+437</f>
         <v>3478</v>
       </c>
-      <c r="E20" s="85"/>
-      <c r="F20" s="86"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="85"/>
       <c r="G20" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H20" s="125">
+      <c r="H20" s="126">
         <f>22735.5+47847.206</f>
         <v>70582.706000000006</v>
       </c>
-      <c r="I20" s="126"/>
+      <c r="I20" s="127"/>
       <c r="J20" s="34"/>
       <c r="K20" s="8"/>
     </row>
     <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="96" t="s">
+      <c r="A21" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="97"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="87">
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="86">
         <f>SUM(B5:B19)+SUM(E5:E19)</f>
         <v>3478</v>
       </c>
-      <c r="E21" s="87"/>
-      <c r="F21" s="88"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="87"/>
       <c r="G21" s="19" t="s">
         <v>193</v>
       </c>
@@ -10453,25 +10462,25 @@
       <c r="K21" s="8"/>
     </row>
     <row r="22" spans="1:13" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="98" t="s">
+      <c r="A22" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="99"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="100">
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="99">
         <f>D20-D21</f>
         <v>0</v>
       </c>
-      <c r="E22" s="100"/>
-      <c r="F22" s="101"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="100"/>
       <c r="G22" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="127">
+      <c r="H22" s="128">
         <f>H20+H21-I21</f>
         <v>81604.194000000003</v>
       </c>
-      <c r="I22" s="128"/>
+      <c r="I22" s="129"/>
       <c r="J22" s="34"/>
       <c r="K22" s="8"/>
     </row>
@@ -10498,8 +10507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5FB3ADA-537D-42F3-BC4D-9C76E83D1D6F}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -10519,51 +10528,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="116" t="s">
         <v>260</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="117"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="118"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="118"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="120"/>
+      <c r="A2" s="119"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92" t="s">
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="121" t="s">
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="122" t="s">
         <v>192</v>
       </c>
-      <c r="K3" s="122"/>
+      <c r="K3" s="123"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -10790,7 +10799,9 @@
       <c r="E12" s="21"/>
       <c r="F12" s="25"/>
       <c r="G12" s="14"/>
-      <c r="H12" s="29"/>
+      <c r="H12" s="29">
+        <v>-34.198</v>
+      </c>
       <c r="I12" s="4"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -10807,8 +10818,12 @@
       <c r="E13" s="21"/>
       <c r="F13" s="25"/>
       <c r="G13" s="14"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="4"/>
+      <c r="H13" s="29">
+        <v>-300</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
     </row>
@@ -10832,9 +10847,15 @@
       <c r="K14" s="8"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="25"/>
+      <c r="A15" s="13">
+        <v>44956</v>
+      </c>
+      <c r="B15" s="21">
+        <v>787</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>268</v>
+      </c>
       <c r="D15" s="7"/>
       <c r="E15" s="21"/>
       <c r="F15" s="25"/>
@@ -10846,8 +10867,12 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="25"/>
+      <c r="B16" s="21">
+        <v>40</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>109</v>
+      </c>
       <c r="D16" s="7"/>
       <c r="E16" s="21"/>
       <c r="F16" s="25"/>
@@ -10861,9 +10886,7 @@
       <c r="A17" s="13"/>
       <c r="B17" s="21"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="7">
-        <v>415</v>
-      </c>
+      <c r="D17" s="7"/>
       <c r="E17" s="21"/>
       <c r="F17" s="25"/>
       <c r="G17" s="14"/>
@@ -10877,7 +10900,7 @@
       <c r="A18" s="13"/>
       <c r="B18" s="21"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="7"/>
+      <c r="D18" s="79"/>
       <c r="E18" s="21"/>
       <c r="F18" s="25"/>
       <c r="G18" s="36"/>
@@ -10903,40 +10926,40 @@
       <c r="K19" s="8"/>
     </row>
     <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="94" t="s">
+      <c r="A20" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="95"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="85">
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="84">
         <f>563+5700</f>
         <v>6263</v>
       </c>
-      <c r="E20" s="85"/>
-      <c r="F20" s="86"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="85"/>
       <c r="G20" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H20" s="125">
+      <c r="H20" s="126">
         <f>81604.194</f>
         <v>81604.194000000003</v>
       </c>
-      <c r="I20" s="126"/>
+      <c r="I20" s="127"/>
       <c r="J20" s="34"/>
       <c r="K20" s="8"/>
     </row>
     <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="96" t="s">
+      <c r="A21" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="97"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="87">
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="86">
         <f>SUM(B5:B19)+SUM(E5:E19)</f>
-        <v>5011</v>
-      </c>
-      <c r="E21" s="87"/>
-      <c r="F21" s="88"/>
+        <v>5838</v>
+      </c>
+      <c r="E21" s="86"/>
+      <c r="F21" s="87"/>
       <c r="G21" s="19" t="s">
         <v>193</v>
       </c>
@@ -10946,36 +10969,36 @@
       </c>
       <c r="I21" s="39">
         <f>SUM(H6:H18)</f>
-        <v>12138</v>
-      </c>
-      <c r="J21" s="129">
+        <v>11803.802</v>
+      </c>
+      <c r="J21" s="130">
         <f>H19+H22</f>
-        <v>114427.54300000001</v>
-      </c>
-      <c r="K21" s="130"/>
+        <v>114761.74100000001</v>
+      </c>
+      <c r="K21" s="131"/>
     </row>
     <row r="22" spans="1:13" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="98" t="s">
+      <c r="A22" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="99"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="100">
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="99">
         <f>D20-D21</f>
-        <v>1252</v>
-      </c>
-      <c r="E22" s="100"/>
-      <c r="F22" s="101"/>
+        <v>425</v>
+      </c>
+      <c r="E22" s="99"/>
+      <c r="F22" s="100"/>
       <c r="G22" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="127">
+      <c r="H22" s="128">
         <f>H20+H21-I21-H19</f>
-        <v>38625</v>
-      </c>
-      <c r="I22" s="128"/>
-      <c r="J22" s="131"/>
-      <c r="K22" s="132"/>
+        <v>38959.198000000004</v>
+      </c>
+      <c r="I22" s="129"/>
+      <c r="J22" s="132"/>
+      <c r="K22" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -11069,7 +11092,7 @@
       </c>
       <c r="H2" s="69">
         <f>Tháng_1!I21</f>
-        <v>12138</v>
+        <v>11803.802</v>
       </c>
       <c r="I2" s="27"/>
       <c r="J2" s="27"/>
@@ -11436,7 +11459,7 @@
       </c>
       <c r="H14" s="78">
         <f>AVERAGE(H2:H13)</f>
-        <v>12138</v>
+        <v>11803.802</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -12475,11 +12498,11 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="139" t="s">
+      <c r="A5" s="140" t="s">
         <v>246</v>
       </c>
-      <c r="B5" s="140"/>
-      <c r="C5" s="141"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="142"/>
     </row>
     <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A6" s="50" t="s">
@@ -12505,7 +12528,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="133">
+      <c r="A8" s="134">
         <v>2023</v>
       </c>
       <c r="B8" s="52">
@@ -12517,7 +12540,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="134"/>
+      <c r="A9" s="135"/>
       <c r="B9" s="52">
         <v>2</v>
       </c>
@@ -12527,7 +12550,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="134"/>
+      <c r="A10" s="135"/>
       <c r="B10" s="52">
         <v>3</v>
       </c>
@@ -12537,7 +12560,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="134"/>
+      <c r="A11" s="135"/>
       <c r="B11" s="52">
         <v>4</v>
       </c>
@@ -12547,7 +12570,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="134"/>
+      <c r="A12" s="135"/>
       <c r="B12" s="52">
         <v>5</v>
       </c>
@@ -12557,7 +12580,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="134"/>
+      <c r="A13" s="135"/>
       <c r="B13" s="52">
         <v>6</v>
       </c>
@@ -12567,7 +12590,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="134"/>
+      <c r="A14" s="135"/>
       <c r="B14" s="52">
         <v>7</v>
       </c>
@@ -12577,7 +12600,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="134"/>
+      <c r="A15" s="135"/>
       <c r="B15" s="52">
         <v>8</v>
       </c>
@@ -12587,7 +12610,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="134"/>
+      <c r="A16" s="135"/>
       <c r="B16" s="52">
         <v>9</v>
       </c>
@@ -12597,7 +12620,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="134"/>
+      <c r="A17" s="135"/>
       <c r="B17" s="52">
         <v>10</v>
       </c>
@@ -12607,7 +12630,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="134"/>
+      <c r="A18" s="135"/>
       <c r="B18" s="52">
         <v>11</v>
       </c>
@@ -12617,7 +12640,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="135"/>
+      <c r="A19" s="136"/>
       <c r="B19" s="52">
         <v>12</v>
       </c>
@@ -12627,7 +12650,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="136">
+      <c r="A20" s="137">
         <v>2024</v>
       </c>
       <c r="B20" s="53">
@@ -12639,7 +12662,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="137"/>
+      <c r="A21" s="138"/>
       <c r="B21" s="53">
         <v>2</v>
       </c>
@@ -12649,7 +12672,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="137"/>
+      <c r="A22" s="138"/>
       <c r="B22" s="53">
         <v>3</v>
       </c>
@@ -12659,7 +12682,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="137"/>
+      <c r="A23" s="138"/>
       <c r="B23" s="53">
         <v>4</v>
       </c>
@@ -12669,7 +12692,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="137"/>
+      <c r="A24" s="138"/>
       <c r="B24" s="53">
         <v>5</v>
       </c>
@@ -12679,7 +12702,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="137"/>
+      <c r="A25" s="138"/>
       <c r="B25" s="53">
         <v>6</v>
       </c>
@@ -12689,7 +12712,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="137"/>
+      <c r="A26" s="138"/>
       <c r="B26" s="53">
         <v>7</v>
       </c>
@@ -12699,7 +12722,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="137"/>
+      <c r="A27" s="138"/>
       <c r="B27" s="53">
         <v>8</v>
       </c>
@@ -12709,7 +12732,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="137"/>
+      <c r="A28" s="138"/>
       <c r="B28" s="53">
         <v>9</v>
       </c>
@@ -12719,7 +12742,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="137"/>
+      <c r="A29" s="138"/>
       <c r="B29" s="53">
         <v>10</v>
       </c>
@@ -12729,7 +12752,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="137"/>
+      <c r="A30" s="138"/>
       <c r="B30" s="53">
         <v>11</v>
       </c>
@@ -12739,7 +12762,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="138"/>
+      <c r="A31" s="139"/>
       <c r="B31" s="53">
         <v>12</v>
       </c>
@@ -12749,7 +12772,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="133">
+      <c r="A32" s="134">
         <v>2025</v>
       </c>
       <c r="B32" s="52">
@@ -12761,7 +12784,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="134"/>
+      <c r="A33" s="135"/>
       <c r="B33" s="52">
         <v>2</v>
       </c>
@@ -12771,7 +12794,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="134"/>
+      <c r="A34" s="135"/>
       <c r="B34" s="52">
         <v>3</v>
       </c>
@@ -12781,7 +12804,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="134"/>
+      <c r="A35" s="135"/>
       <c r="B35" s="52">
         <v>4</v>
       </c>
@@ -12791,7 +12814,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="134"/>
+      <c r="A36" s="135"/>
       <c r="B36" s="52">
         <v>5</v>
       </c>
@@ -12801,7 +12824,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="134"/>
+      <c r="A37" s="135"/>
       <c r="B37" s="52">
         <v>6</v>
       </c>
@@ -12811,7 +12834,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="134"/>
+      <c r="A38" s="135"/>
       <c r="B38" s="52">
         <v>7</v>
       </c>
@@ -12821,7 +12844,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="134"/>
+      <c r="A39" s="135"/>
       <c r="B39" s="52">
         <v>8</v>
       </c>
@@ -12831,7 +12854,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="134"/>
+      <c r="A40" s="135"/>
       <c r="B40" s="52">
         <v>9</v>
       </c>
@@ -12841,7 +12864,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="134"/>
+      <c r="A41" s="135"/>
       <c r="B41" s="52">
         <v>10</v>
       </c>
@@ -12851,7 +12874,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="134"/>
+      <c r="A42" s="135"/>
       <c r="B42" s="52">
         <v>11</v>
       </c>
@@ -12861,7 +12884,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="135"/>
+      <c r="A43" s="136"/>
       <c r="B43" s="52">
         <v>12</v>
       </c>
@@ -13026,52 +13049,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="91" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="90">
+      <c r="K1" s="89">
         <f>D26-B15-B8-B12-B16-B9-B11-E5</f>
         <v>3395</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="90"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="89"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92" t="s">
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
       <c r="J3" s="9" t="s">
         <v>25</v>
       </c>
@@ -13144,8 +13167,8 @@
       <c r="I5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
@@ -13177,8 +13200,8 @@
       <c r="I6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
@@ -13207,8 +13230,8 @@
       <c r="I7" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
@@ -13230,8 +13253,8 @@
       <c r="G8" s="14"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="91"/>
-      <c r="K8" s="91"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
@@ -13251,8 +13274,8 @@
       <c r="G9" s="14"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="91"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
@@ -13274,8 +13297,8 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="91"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
@@ -13299,8 +13322,8 @@
       <c r="G11" s="14"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="91"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="90"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
@@ -13321,8 +13344,8 @@
       <c r="G12" s="14"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="91"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
@@ -13344,8 +13367,8 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="90"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
@@ -13369,8 +13392,8 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
@@ -13393,8 +13416,8 @@
       <c r="G15" s="14"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="91"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
@@ -13412,8 +13435,8 @@
       <c r="G16" s="14"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="90"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
@@ -13429,8 +13452,8 @@
       <c r="G17" s="14"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
@@ -13446,8 +13469,8 @@
       <c r="G18" s="14"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="91"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="90"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
@@ -13591,76 +13614,76 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="94" t="s">
+      <c r="A25" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="95"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="85">
+      <c r="B25" s="94"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="84">
         <v>3500</v>
       </c>
-      <c r="E25" s="85"/>
-      <c r="F25" s="86"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="85"/>
       <c r="G25" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H25" s="106">
+      <c r="H25" s="107">
         <v>12239.388999999999</v>
       </c>
-      <c r="I25" s="107"/>
-      <c r="J25" s="81" t="s">
+      <c r="I25" s="108"/>
+      <c r="J25" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="K25" s="82"/>
+      <c r="K25" s="81"/>
     </row>
     <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="96" t="s">
+      <c r="A26" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="97"/>
-      <c r="C26" s="97"/>
-      <c r="D26" s="87">
+      <c r="B26" s="96"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="86">
         <f>SUM(B5:B24)+SUM(E5:E24)</f>
         <v>3390</v>
       </c>
-      <c r="E26" s="87"/>
-      <c r="F26" s="88"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="87"/>
       <c r="G26" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="104">
+      <c r="H26" s="103">
         <f>SUM(H5:H24)</f>
         <v>384</v>
       </c>
-      <c r="I26" s="105"/>
-      <c r="J26" s="83">
+      <c r="I26" s="104"/>
+      <c r="J26" s="82">
         <f>D27+H27</f>
         <v>11965.388999999999</v>
       </c>
-      <c r="K26" s="84"/>
+      <c r="K26" s="83"/>
     </row>
     <row r="27" spans="1:12" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="98" t="s">
+      <c r="A27" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="99"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="100">
+      <c r="B27" s="98"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="99">
         <f>D25-D26-L24</f>
         <v>110</v>
       </c>
-      <c r="E27" s="100"/>
-      <c r="F27" s="101"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="100"/>
       <c r="G27" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="79">
+      <c r="H27" s="105">
         <f>H25-H26</f>
         <v>11855.388999999999</v>
       </c>
-      <c r="I27" s="80"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="84"/>
+      <c r="I27" s="106"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -13704,52 +13727,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="91" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="90">
+      <c r="K1" s="89">
         <f>D26-B10</f>
         <v>2641</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="90"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="89"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92" t="s">
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
       <c r="J3" s="9" t="s">
         <v>25</v>
       </c>
@@ -13817,8 +13840,8 @@
       <c r="I5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
@@ -13843,8 +13866,8 @@
       <c r="I6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
@@ -13867,8 +13890,8 @@
       <c r="I7" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
@@ -13890,8 +13913,8 @@
       <c r="I8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="91"/>
-      <c r="K8" s="91"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
@@ -13914,8 +13937,8 @@
       <c r="I9" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="J9" s="91"/>
-      <c r="K9" s="91"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
@@ -13937,8 +13960,8 @@
         <v>-6937.5</v>
       </c>
       <c r="I10" s="4"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="91"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
@@ -13958,8 +13981,8 @@
         <v>-53.631999999999998</v>
       </c>
       <c r="I11" s="4"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="91"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="90"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
@@ -13980,8 +14003,8 @@
         <v>393</v>
       </c>
       <c r="I12" s="4"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="91"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
@@ -14000,8 +14023,8 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="90"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
@@ -14017,8 +14040,8 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
@@ -14037,8 +14060,8 @@
       <c r="G15" s="14"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="91"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
@@ -14056,8 +14079,8 @@
       <c r="G16" s="14"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="90"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
@@ -14075,8 +14098,8 @@
       <c r="G17" s="14"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
@@ -14088,8 +14111,8 @@
       <c r="G18" s="14"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="91"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="90"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
@@ -14202,76 +14225,76 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="94" t="s">
+      <c r="A25" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="95"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="85">
+      <c r="B25" s="94"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="84">
         <v>4110</v>
       </c>
-      <c r="E25" s="85"/>
-      <c r="F25" s="86"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="85"/>
       <c r="G25" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H25" s="106">
+      <c r="H25" s="107">
         <v>12239.388999999999</v>
       </c>
-      <c r="I25" s="107"/>
-      <c r="J25" s="81" t="s">
+      <c r="I25" s="108"/>
+      <c r="J25" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="K25" s="82"/>
+      <c r="K25" s="81"/>
     </row>
     <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="96" t="s">
+      <c r="A26" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="97"/>
-      <c r="C26" s="97"/>
-      <c r="D26" s="87">
+      <c r="B26" s="96"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="86">
         <f>SUM(B5:B24)+SUM(E5:E24)</f>
         <v>2841</v>
       </c>
-      <c r="E26" s="87"/>
-      <c r="F26" s="88"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="87"/>
       <c r="G26" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="104">
+      <c r="H26" s="103">
         <f>SUM(H5:H24)</f>
         <v>-1939.4339999999997</v>
       </c>
-      <c r="I26" s="105"/>
-      <c r="J26" s="83">
+      <c r="I26" s="104"/>
+      <c r="J26" s="82">
         <f>D27+H27</f>
         <v>15447.822999999999</v>
       </c>
-      <c r="K26" s="84"/>
+      <c r="K26" s="83"/>
     </row>
     <row r="27" spans="1:12" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="98" t="s">
+      <c r="A27" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="99"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="100">
+      <c r="B27" s="98"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="99">
         <f>D25-D26</f>
         <v>1269</v>
       </c>
-      <c r="E27" s="100"/>
-      <c r="F27" s="101"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="100"/>
       <c r="G27" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="79">
+      <c r="H27" s="105">
         <f>H25-H26</f>
         <v>14178.822999999999</v>
       </c>
-      <c r="I27" s="80"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="84"/>
+      <c r="I27" s="106"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -14315,52 +14338,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="91" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="90">
+      <c r="K1" s="89">
         <f>D26-B19</f>
         <v>3020</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="90"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="89"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92" t="s">
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
       <c r="J3" s="9" t="s">
         <v>25</v>
       </c>
@@ -14427,8 +14450,8 @@
       <c r="I5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
@@ -14453,8 +14476,8 @@
       <c r="I6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
@@ -14476,8 +14499,8 @@
       <c r="I7" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
@@ -14499,8 +14522,8 @@
       <c r="I8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="91"/>
-      <c r="K8" s="91"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
@@ -14525,8 +14548,8 @@
       <c r="I9" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="J9" s="91"/>
-      <c r="K9" s="91"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
@@ -14551,8 +14574,8 @@
       <c r="I10" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="J10" s="91"/>
-      <c r="K10" s="91"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
@@ -14576,8 +14599,8 @@
       <c r="I11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J11" s="91"/>
-      <c r="K11" s="91"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="90"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
@@ -14603,8 +14626,8 @@
       <c r="I12" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="J12" s="91"/>
-      <c r="K12" s="91"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
@@ -14628,8 +14651,8 @@
       <c r="I13" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="90"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
@@ -14652,8 +14675,8 @@
       <c r="I14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
@@ -14679,8 +14702,8 @@
       <c r="I15" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="J15" s="91"/>
-      <c r="K15" s="91"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
@@ -14704,8 +14727,8 @@
       <c r="I16" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="90"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
@@ -14724,8 +14747,8 @@
       <c r="G17" s="14"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
@@ -14741,8 +14764,8 @@
       <c r="G18" s="14"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="91"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="90"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
@@ -14858,77 +14881,77 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="94" t="s">
+      <c r="A25" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="95"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="85">
+      <c r="B25" s="94"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="84">
         <f>1269+5000+300</f>
         <v>6569</v>
       </c>
-      <c r="E25" s="85"/>
-      <c r="F25" s="86"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="85"/>
       <c r="G25" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H25" s="106">
+      <c r="H25" s="107">
         <v>12239.388999999999</v>
       </c>
-      <c r="I25" s="107"/>
-      <c r="J25" s="81" t="s">
+      <c r="I25" s="108"/>
+      <c r="J25" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="K25" s="82"/>
+      <c r="K25" s="81"/>
     </row>
     <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="96" t="s">
+      <c r="A26" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="97"/>
-      <c r="C26" s="97"/>
-      <c r="D26" s="87">
+      <c r="B26" s="96"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="86">
         <f>SUM(B5:B24)+SUM(E5:E24)</f>
         <v>3370</v>
       </c>
-      <c r="E26" s="87"/>
-      <c r="F26" s="88"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="87"/>
       <c r="G26" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="104">
+      <c r="H26" s="103">
         <f>SUM(H5:H24)</f>
         <v>-757.34099999999899</v>
       </c>
-      <c r="I26" s="105"/>
-      <c r="J26" s="83">
+      <c r="I26" s="104"/>
+      <c r="J26" s="82">
         <f>D27+H27</f>
         <v>16195.729999999998</v>
       </c>
-      <c r="K26" s="84"/>
+      <c r="K26" s="83"/>
     </row>
     <row r="27" spans="1:12" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="98" t="s">
+      <c r="A27" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="99"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="100">
+      <c r="B27" s="98"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="99">
         <f>D25-D26</f>
         <v>3199</v>
       </c>
-      <c r="E27" s="100"/>
-      <c r="F27" s="101"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="100"/>
       <c r="G27" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="79">
+      <c r="H27" s="105">
         <f>H25-H26</f>
         <v>12996.729999999998</v>
       </c>
-      <c r="I27" s="80"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="84"/>
+      <c r="I27" s="106"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -14972,52 +14995,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="91" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="90">
+      <c r="K1" s="89">
         <f>D26-B13</f>
         <v>3526</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="90"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="89"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92" t="s">
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
       <c r="J3" s="9" t="s">
         <v>25</v>
       </c>
@@ -15085,8 +15108,8 @@
       <c r="I5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
@@ -15112,8 +15135,8 @@
       <c r="I6" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
@@ -15134,8 +15157,8 @@
         <v>-7307.5</v>
       </c>
       <c r="I7" s="4"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
@@ -15156,8 +15179,8 @@
         <v>-3680</v>
       </c>
       <c r="I8" s="4"/>
-      <c r="J8" s="91"/>
-      <c r="K8" s="91"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
@@ -15182,8 +15205,8 @@
       <c r="I9" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="J9" s="91"/>
-      <c r="K9" s="91"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
@@ -15206,8 +15229,8 @@
       <c r="I10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="91"/>
-      <c r="K10" s="91"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
@@ -15225,8 +15248,8 @@
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="91"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="90"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
@@ -15242,8 +15265,8 @@
       <c r="G12" s="14"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="91"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
@@ -15261,8 +15284,8 @@
       <c r="G13" s="14"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="90"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
@@ -15280,8 +15303,8 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
@@ -15299,8 +15322,8 @@
       <c r="G15" s="14"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="91"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
@@ -15319,8 +15342,8 @@
       <c r="G16" s="14"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="90"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
@@ -15339,8 +15362,8 @@
       <c r="G17" s="14"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
@@ -15352,8 +15375,8 @@
       <c r="G18" s="14"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="91"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="90"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
@@ -15465,77 +15488,77 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="94" t="s">
+      <c r="A25" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="95"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="85">
+      <c r="B25" s="94"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="84">
         <f>3199+3000+1000</f>
         <v>7199</v>
       </c>
-      <c r="E25" s="85"/>
-      <c r="F25" s="86"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="85"/>
       <c r="G25" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H25" s="106">
+      <c r="H25" s="107">
         <v>12996.73</v>
       </c>
-      <c r="I25" s="107"/>
-      <c r="J25" s="81" t="s">
+      <c r="I25" s="108"/>
+      <c r="J25" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="K25" s="82"/>
+      <c r="K25" s="81"/>
     </row>
     <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="96" t="s">
+      <c r="A26" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="97"/>
-      <c r="C26" s="97"/>
-      <c r="D26" s="87">
+      <c r="B26" s="96"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="86">
         <f>SUM(B5:B24)+SUM(E5:E24)</f>
         <v>3676</v>
       </c>
-      <c r="E26" s="87"/>
-      <c r="F26" s="88"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="87"/>
       <c r="G26" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="104">
+      <c r="H26" s="103">
         <f>SUM(H5:H24)</f>
         <v>-5589.7640000000001</v>
       </c>
-      <c r="I26" s="105"/>
-      <c r="J26" s="83">
+      <c r="I26" s="104"/>
+      <c r="J26" s="82">
         <f>D27+H27</f>
         <v>22109.493999999999</v>
       </c>
-      <c r="K26" s="84"/>
+      <c r="K26" s="83"/>
     </row>
     <row r="27" spans="1:12" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="98" t="s">
+      <c r="A27" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="99"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="100">
+      <c r="B27" s="98"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="99">
         <f>D25-D26</f>
         <v>3523</v>
       </c>
-      <c r="E27" s="100"/>
-      <c r="F27" s="101"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="100"/>
       <c r="G27" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="79">
+      <c r="H27" s="105">
         <f>H25-H26</f>
         <v>18586.493999999999</v>
       </c>
-      <c r="I27" s="80"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="84"/>
+      <c r="I27" s="106"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -15581,52 +15604,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="91" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="90">
+      <c r="K1" s="89">
         <f>D26-B12</f>
         <v>2648</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="90"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="89"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92" t="s">
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
       <c r="J3" s="9" t="s">
         <v>25</v>
       </c>
@@ -15694,11 +15717,11 @@
       <c r="I5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="108">
+      <c r="J5" s="109">
         <f>SUM(H5:H24)</f>
         <v>-2007.1869999999999</v>
       </c>
-      <c r="K5" s="91"/>
+      <c r="K5" s="90"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
@@ -15724,8 +15747,8 @@
       <c r="I6" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
@@ -15747,8 +15770,8 @@
         <v>-7307.5</v>
       </c>
       <c r="I7" s="4"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
@@ -15770,8 +15793,8 @@
         <v>-3680</v>
       </c>
       <c r="I8" s="4"/>
-      <c r="J8" s="91"/>
-      <c r="K8" s="91"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
@@ -15796,8 +15819,8 @@
       <c r="I9" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="J9" s="91"/>
-      <c r="K9" s="91"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
@@ -15820,8 +15843,8 @@
       <c r="I10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="91"/>
-      <c r="K10" s="91"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
@@ -15846,8 +15869,8 @@
       <c r="I11" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="J11" s="91"/>
-      <c r="K11" s="91"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="90"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
@@ -15867,8 +15890,8 @@
       <c r="I12" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="J12" s="91"/>
-      <c r="K12" s="91"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
@@ -15892,8 +15915,8 @@
       <c r="I13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="90"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
@@ -15914,8 +15937,8 @@
       <c r="I14" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
@@ -15940,8 +15963,8 @@
       <c r="I15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="91"/>
-      <c r="K15" s="91"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
@@ -15965,8 +15988,8 @@
       <c r="I16" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="90"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
@@ -15991,8 +16014,8 @@
       <c r="I17" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
@@ -16010,8 +16033,8 @@
       <c r="I18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J18" s="91"/>
-      <c r="K18" s="91"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="90"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
@@ -16124,77 +16147,77 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="94" t="s">
+      <c r="A25" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="95"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="85">
+      <c r="B25" s="94"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="84">
         <f>3523</f>
         <v>3523</v>
       </c>
-      <c r="E25" s="85"/>
-      <c r="F25" s="86"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="85"/>
       <c r="G25" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H25" s="106">
+      <c r="H25" s="107">
         <v>12996.73</v>
       </c>
-      <c r="I25" s="107"/>
-      <c r="J25" s="81" t="s">
+      <c r="I25" s="108"/>
+      <c r="J25" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="K25" s="82"/>
+      <c r="K25" s="81"/>
     </row>
     <row r="26" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="96" t="s">
+      <c r="A26" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="97"/>
-      <c r="C26" s="97"/>
-      <c r="D26" s="87">
+      <c r="B26" s="96"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="86">
         <f>SUM(B5:B24)+SUM(E5:E24)</f>
         <v>2998</v>
       </c>
-      <c r="E26" s="87"/>
-      <c r="F26" s="88"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="87"/>
       <c r="G26" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="104">
+      <c r="H26" s="103">
         <f>SUM(H5:H24)</f>
         <v>-2007.1869999999999</v>
       </c>
-      <c r="I26" s="105"/>
-      <c r="J26" s="83">
+      <c r="I26" s="104"/>
+      <c r="J26" s="82">
         <f>D27+H27</f>
         <v>15528.916999999999</v>
       </c>
-      <c r="K26" s="84"/>
+      <c r="K26" s="83"/>
     </row>
     <row r="27" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="98" t="s">
+      <c r="A27" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="99"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="100">
+      <c r="B27" s="98"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="99">
         <f>D25-D26</f>
         <v>525</v>
       </c>
-      <c r="E27" s="100"/>
-      <c r="F27" s="101"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="100"/>
       <c r="G27" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="79">
+      <c r="H27" s="105">
         <f>H25-H26</f>
         <v>15003.916999999999</v>
       </c>
-      <c r="I27" s="80"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="84"/>
+      <c r="I27" s="106"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -16240,52 +16263,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="91" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="90">
+      <c r="K1" s="89">
         <f>D26-B14</f>
         <v>3525</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="90"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="89"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92" t="s">
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
       <c r="J3" s="9" t="s">
         <v>25</v>
       </c>
@@ -16353,8 +16376,8 @@
       <c r="I5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
@@ -16377,8 +16400,8 @@
       <c r="I6" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
@@ -16397,8 +16420,8 @@
         <v>-7307.5</v>
       </c>
       <c r="I7" s="4"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
@@ -16419,8 +16442,8 @@
         <v>-3680</v>
       </c>
       <c r="I8" s="4"/>
-      <c r="J8" s="91"/>
-      <c r="K8" s="91"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
@@ -16445,8 +16468,8 @@
       <c r="I9" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="J9" s="91"/>
-      <c r="K9" s="91"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
@@ -16471,8 +16494,8 @@
       <c r="I10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="91"/>
-      <c r="K10" s="91"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
@@ -16497,8 +16520,8 @@
       <c r="I11" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="J11" s="91"/>
-      <c r="K11" s="91"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="90"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
@@ -16521,8 +16544,8 @@
       <c r="I12" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="J12" s="91"/>
-      <c r="K12" s="91"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
@@ -16544,8 +16567,8 @@
       <c r="I13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="90"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
@@ -16565,8 +16588,8 @@
       <c r="I14" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
@@ -16589,8 +16612,8 @@
       <c r="I15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="91"/>
-      <c r="K15" s="91"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
@@ -16614,8 +16637,8 @@
       <c r="I16" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="90"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
@@ -16637,8 +16660,8 @@
       <c r="I17" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
@@ -16662,8 +16685,8 @@
       <c r="I18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J18" s="91"/>
-      <c r="K18" s="91"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="90"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
@@ -16801,77 +16824,77 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="94" t="s">
+      <c r="A25" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="95"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="85">
+      <c r="B25" s="94"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="84">
         <f>525+2500+1000</f>
         <v>4025</v>
       </c>
-      <c r="E25" s="85"/>
-      <c r="F25" s="86"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="85"/>
       <c r="G25" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H25" s="106">
+      <c r="H25" s="107">
         <v>12996.73</v>
       </c>
-      <c r="I25" s="107"/>
-      <c r="J25" s="81" t="s">
+      <c r="I25" s="108"/>
+      <c r="J25" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="K25" s="82"/>
+      <c r="K25" s="81"/>
     </row>
     <row r="26" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="96" t="s">
+      <c r="A26" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="97"/>
-      <c r="C26" s="97"/>
-      <c r="D26" s="87">
+      <c r="B26" s="96"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="86">
         <f>SUM(B5:B24)+SUM(E5:E24)</f>
         <v>4025</v>
       </c>
-      <c r="E26" s="87"/>
-      <c r="F26" s="88"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="87"/>
       <c r="G26" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="104">
+      <c r="H26" s="103">
         <f>SUM(H5:H24)</f>
         <v>-4143.2699999999986</v>
       </c>
-      <c r="I26" s="105"/>
-      <c r="J26" s="83">
+      <c r="I26" s="104"/>
+      <c r="J26" s="82">
         <f>D27+H27</f>
         <v>17140</v>
       </c>
-      <c r="K26" s="84"/>
+      <c r="K26" s="83"/>
     </row>
     <row r="27" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="98" t="s">
+      <c r="A27" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="99"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="100">
+      <c r="B27" s="98"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="99">
         <f>D25-D26</f>
         <v>0</v>
       </c>
-      <c r="E27" s="100"/>
-      <c r="F27" s="101"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="100"/>
       <c r="G27" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="79">
+      <c r="H27" s="105">
         <f>H25-H26</f>
         <v>17140</v>
       </c>
-      <c r="I27" s="80"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="84"/>
+      <c r="I27" s="106"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -16920,52 +16943,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="111" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="112">
+      <c r="K1" s="113">
         <f>SUM(H5:H19)-H6-H9-H16-H17-H8</f>
         <v>2010.2999999999993</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="112"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="113"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92" t="s">
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
       <c r="J3" s="9" t="s">
         <v>25</v>
       </c>
@@ -17034,11 +17057,11 @@
         <v>-200</v>
       </c>
       <c r="I5" s="4"/>
-      <c r="J5" s="109">
+      <c r="J5" s="110">
         <f>-SUM(H5:H19)</f>
         <v>13360.071</v>
       </c>
-      <c r="K5" s="110"/>
+      <c r="K5" s="111"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
@@ -17064,8 +17087,8 @@
       <c r="I6" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
@@ -17089,8 +17112,8 @@
         <v>-100.15</v>
       </c>
       <c r="I7" s="4"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
@@ -17116,8 +17139,8 @@
       <c r="I8" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
@@ -17144,8 +17167,8 @@
       <c r="I9" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="J9" s="110"/>
-      <c r="K9" s="110"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
@@ -17173,8 +17196,8 @@
       <c r="I10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="110"/>
-      <c r="K10" s="110"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="111"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
@@ -17201,8 +17224,8 @@
       <c r="I11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="110"/>
-      <c r="K11" s="110"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
@@ -17229,8 +17252,8 @@
       <c r="I12" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="J12" s="110"/>
-      <c r="K12" s="110"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
@@ -17256,8 +17279,8 @@
       <c r="I13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J13" s="110"/>
-      <c r="K13" s="110"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
@@ -17444,77 +17467,77 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="94" t="s">
+      <c r="A20" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="95"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="85">
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="84">
         <f>3000+1000+550</f>
         <v>4550</v>
       </c>
-      <c r="E20" s="85"/>
-      <c r="F20" s="86"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="85"/>
       <c r="G20" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H20" s="106">
+      <c r="H20" s="107">
         <v>17140</v>
       </c>
-      <c r="I20" s="107"/>
-      <c r="J20" s="81" t="s">
+      <c r="I20" s="108"/>
+      <c r="J20" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="K20" s="82"/>
+      <c r="K20" s="81"/>
     </row>
     <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="96" t="s">
+      <c r="A21" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="97"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="87">
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="86">
         <f>SUM(B5:B19)+SUM(E5:E19)</f>
         <v>4099</v>
       </c>
-      <c r="E21" s="87"/>
-      <c r="F21" s="88"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="87"/>
       <c r="G21" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="104">
+      <c r="H21" s="103">
         <f>SUM(H5:H19)</f>
         <v>-13360.071</v>
       </c>
-      <c r="I21" s="105"/>
-      <c r="J21" s="83">
+      <c r="I21" s="104"/>
+      <c r="J21" s="82">
         <f>D22+H22</f>
         <v>30951.071</v>
       </c>
-      <c r="K21" s="84"/>
+      <c r="K21" s="83"/>
     </row>
     <row r="22" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="98" t="s">
+      <c r="A22" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="99"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="100">
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="99">
         <f>D20-D21</f>
         <v>451</v>
       </c>
-      <c r="E22" s="100"/>
-      <c r="F22" s="101"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="100"/>
       <c r="G22" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="79">
+      <c r="H22" s="105">
         <f>H20-H21</f>
         <v>30500.071</v>
       </c>
-      <c r="I22" s="80"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="84"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="17">
